--- a/multiplus_simulator/results/qoe_sim2.xlsx
+++ b/multiplus_simulator/results/qoe_sim2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>User1</t>
   </si>
@@ -164,6 +164,156 @@
   </si>
   <si>
     <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
+  </si>
+  <si>
+    <t>User86</t>
+  </si>
+  <si>
+    <t>User87</t>
+  </si>
+  <si>
+    <t>User88</t>
+  </si>
+  <si>
+    <t>User89</t>
+  </si>
+  <si>
+    <t>User90</t>
+  </si>
+  <si>
+    <t>User91</t>
+  </si>
+  <si>
+    <t>User92</t>
+  </si>
+  <si>
+    <t>User93</t>
+  </si>
+  <si>
+    <t>User94</t>
+  </si>
+  <si>
+    <t>User95</t>
+  </si>
+  <si>
+    <t>User96</t>
+  </si>
+  <si>
+    <t>User97</t>
+  </si>
+  <si>
+    <t>User98</t>
+  </si>
+  <si>
+    <t>User99</t>
+  </si>
+  <si>
+    <t>User100</t>
   </si>
   <si>
     <t>#Users</t>
@@ -519,2381 +669,7731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:41">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C2">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D2">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.889777355055949</v>
       </c>
       <c r="G2">
-        <v>1.063879119723762</v>
+        <v>2.820395866134594</v>
       </c>
       <c r="H2">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I2">
-        <v>0.9885020446512783</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="L2">
-        <v>1.063946860443778</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M2">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N2">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O2">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q2">
-        <v>1.063879119723762</v>
+        <v>2.764201631723027</v>
       </c>
       <c r="R2">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S2">
-        <v>1.004630242898662</v>
+        <v>2.004461617988362</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="V2">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W2">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X2">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y2">
+        <v>3.677235237754882</v>
+      </c>
+      <c r="Z2">
+        <v>3.231232913303785</v>
+      </c>
+      <c r="AA2">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB2">
+        <v>2.285765206977241</v>
+      </c>
+      <c r="AC2">
+        <v>2.184923887678693</v>
+      </c>
+      <c r="AD2">
+        <v>1.546907137197541</v>
+      </c>
+      <c r="AE2">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AF2">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG2">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH2">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI2">
+        <v>3.527060509738344</v>
+      </c>
+      <c r="AJ2">
+        <v>2.864755633445636</v>
+      </c>
+      <c r="AK2">
+        <v>2.767358160951923</v>
+      </c>
+      <c r="AL2">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM2">
+        <v>1.967658653829865</v>
+      </c>
+      <c r="AN2">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO2">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C3">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D3">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.890109268398218</v>
       </c>
       <c r="G3">
-        <v>1.063879119723762</v>
+        <v>2.799477909667471</v>
       </c>
       <c r="H3">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I3">
-        <v>0.9888607813449256</v>
+        <v>2.076527147697883</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="L3">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M3">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N3">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O3">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.82740526083151</v>
       </c>
       <c r="Q3">
-        <v>1.063879119723762</v>
+        <v>2.76145540137663</v>
       </c>
       <c r="R3">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S3">
-        <v>1.004630242898662</v>
+        <v>1.993390419431383</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="V3">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W3">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X3">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y3">
+        <v>3.639473260411191</v>
+      </c>
+      <c r="Z3">
+        <v>3.16831124748362</v>
+      </c>
+      <c r="AA3">
+        <v>2.786911188743249</v>
+      </c>
+      <c r="AB3">
+        <v>2.278947939008965</v>
+      </c>
+      <c r="AC3">
+        <v>2.032103148976711</v>
+      </c>
+      <c r="AD3">
+        <v>1.533861142414341</v>
+      </c>
+      <c r="AE3">
+        <v>1.408280507988589</v>
+      </c>
+      <c r="AF3">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG3">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH3">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI3">
+        <v>3.530233878273997</v>
+      </c>
+      <c r="AJ3">
+        <v>2.867319867309409</v>
+      </c>
+      <c r="AK3">
+        <v>2.767405356768727</v>
+      </c>
+      <c r="AL3">
+        <v>2.093651557234417</v>
+      </c>
+      <c r="AM3">
+        <v>1.946095787094613</v>
+      </c>
+      <c r="AN3">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO3">
+        <v>1.502492934502584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C4">
-        <v>1.043061760259288</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D4">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.889727990447881</v>
       </c>
       <c r="G4">
-        <v>1.063879119723762</v>
+        <v>2.820447424555885</v>
       </c>
       <c r="H4">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I4">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="L4">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M4">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N4">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O4">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q4">
-        <v>1.063879119723762</v>
+        <v>2.764059879951266</v>
       </c>
       <c r="R4">
-        <v>1.042314553449994</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S4">
-        <v>1.004862998135761</v>
+        <v>1.999785695523283</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="V4">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W4">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X4">
+        <v>4.305608802370772</v>
+      </c>
+      <c r="Y4">
+        <v>3.677178132351385</v>
+      </c>
+      <c r="Z4">
+        <v>3.216951760639233</v>
+      </c>
+      <c r="AA4">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB4">
+        <v>2.28229870961126</v>
+      </c>
+      <c r="AC4">
+        <v>2.165115681346462</v>
+      </c>
+      <c r="AD4">
+        <v>1.546697256708501</v>
+      </c>
+      <c r="AE4">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AF4">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG4">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH4">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI4">
+        <v>3.527051231328137</v>
+      </c>
+      <c r="AJ4">
+        <v>2.86450786950032</v>
+      </c>
+      <c r="AK4">
+        <v>2.767465985528612</v>
+      </c>
+      <c r="AL4">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM4">
+        <v>1.970224983922891</v>
+      </c>
+      <c r="AN4">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO4">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C5">
-        <v>1.043061760259288</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D5">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.890058328883075</v>
       </c>
       <c r="G5">
-        <v>1.063879119723762</v>
+        <v>2.62262546907228</v>
       </c>
       <c r="H5">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I5">
-        <v>0.9885020446512783</v>
+        <v>1.844303143095068</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.369008945268217</v>
       </c>
       <c r="L5">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M5">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N5">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O5">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q5">
-        <v>1.063879119723762</v>
+        <v>2.767381342494056</v>
       </c>
       <c r="R5">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S5">
-        <v>1.004862998135761</v>
+        <v>2.004699220251368</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="V5">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W5">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X5">
+        <v>1.315201140710784</v>
+      </c>
+      <c r="Y5">
+        <v>0.6582174244065424</v>
+      </c>
+      <c r="Z5">
+        <v>0.486317857825211</v>
+      </c>
+      <c r="AA5">
+        <v>0.6731370406493888</v>
+      </c>
+      <c r="AB5">
+        <v>0.1729015414086115</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG5">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH5">
+        <v>2.033254006684552</v>
+      </c>
+      <c r="AI5">
+        <v>0.6218438500253669</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C6">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D6">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.890573419189126</v>
       </c>
       <c r="G6">
-        <v>1.063879119723762</v>
+        <v>2.805640809272398</v>
       </c>
       <c r="H6">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I6">
-        <v>0.9885020446512783</v>
+        <v>2.035748941866389</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="L6">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M6">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N6">
-        <v>1.025056581907364</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O6">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q6">
-        <v>1.063879119723762</v>
+        <v>2.76115642297527</v>
       </c>
       <c r="R6">
-        <v>1.042314553449994</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S6">
-        <v>1.004862998135761</v>
+        <v>1.995614437685412</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="V6">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W6">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X6">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y6">
+        <v>3.658512063431052</v>
+      </c>
+      <c r="Z6">
+        <v>3.15942294199214</v>
+      </c>
+      <c r="AA6">
+        <v>2.779382165597999</v>
+      </c>
+      <c r="AB6">
+        <v>2.250883878833587</v>
+      </c>
+      <c r="AC6">
+        <v>2.011438046323695</v>
+      </c>
+      <c r="AD6">
+        <v>1.505154488214656</v>
+      </c>
+      <c r="AE6">
+        <v>1.345421897611886</v>
+      </c>
+      <c r="AF6">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG6">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH6">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI6">
+        <v>3.53229349781664</v>
+      </c>
+      <c r="AJ6">
+        <v>2.806366125263424</v>
+      </c>
+      <c r="AK6">
+        <v>2.608164470617003</v>
+      </c>
+      <c r="AL6">
+        <v>0.4503537423274704</v>
+      </c>
+      <c r="AM6">
+        <v>1.849996734483666</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C7">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D7">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.89053794148911</v>
       </c>
       <c r="G7">
-        <v>1.063879119723762</v>
+        <v>2.820344307434905</v>
       </c>
       <c r="H7">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I7">
-        <v>0.9888607813449256</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="L7">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M7">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N7">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O7">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.82740526083151</v>
       </c>
       <c r="Q7">
-        <v>1.063879119723762</v>
+        <v>2.758407581216188</v>
       </c>
       <c r="R7">
-        <v>1.042314553449994</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S7">
-        <v>1.004630242898662</v>
+        <v>1.995768786026883</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="V7">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W7">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X7">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y7">
+        <v>3.677279558049666</v>
+      </c>
+      <c r="Z7">
+        <v>3.23116208665237</v>
+      </c>
+      <c r="AA7">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB7">
+        <v>2.282542915108126</v>
+      </c>
+      <c r="AC7">
+        <v>2.164712155260905</v>
+      </c>
+      <c r="AD7">
+        <v>1.546832622079021</v>
+      </c>
+      <c r="AE7">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AF7">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG7">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH7">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI7">
+        <v>3.527109796713343</v>
+      </c>
+      <c r="AJ7">
+        <v>2.864764828175189</v>
+      </c>
+      <c r="AK7">
+        <v>2.768591586402481</v>
+      </c>
+      <c r="AL7">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM7">
+        <v>1.958882296606546</v>
+      </c>
+      <c r="AN7">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO7">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C8">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D8">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.903889680206342</v>
       </c>
       <c r="G8">
-        <v>1.063879119723762</v>
+        <v>2.66093214136091</v>
       </c>
       <c r="H8">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I8">
-        <v>0.9888607813449256</v>
+        <v>1.911539468475053</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.517247741565741</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.498434592322003</v>
       </c>
       <c r="L8">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M8">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N8">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O8">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q8">
-        <v>1.063879119723762</v>
+        <v>2.760254568849421</v>
       </c>
       <c r="R8">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S8">
-        <v>1.004630242898662</v>
+        <v>1.99357080907889</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="V8">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W8">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X8">
+        <v>4.193431259167405</v>
+      </c>
+      <c r="Y8">
+        <v>1.547614624246765</v>
+      </c>
+      <c r="Z8">
+        <v>1.099217770357973</v>
+      </c>
+      <c r="AA8">
+        <v>0.7746667589843184</v>
+      </c>
+      <c r="AB8">
+        <v>0.3394907491822192</v>
+      </c>
+      <c r="AC8">
+        <v>0.2169565678185126</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG8">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH8">
+        <v>4.18957054113328</v>
+      </c>
+      <c r="AI8">
+        <v>3.466061204367536</v>
+      </c>
+      <c r="AJ8">
+        <v>1.277058801586582</v>
+      </c>
+      <c r="AK8">
+        <v>0.1073243172424552</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1.452753974613545</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063946860443778</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C9">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D9">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.890005673650621</v>
       </c>
       <c r="G9">
-        <v>1.063879119723762</v>
+        <v>2.82049898269879</v>
       </c>
       <c r="H9">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I9">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L9">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M9">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N9">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O9">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q9">
-        <v>1.063879119723762</v>
+        <v>2.76410979445815</v>
       </c>
       <c r="R9">
-        <v>1.042314553449994</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S9">
-        <v>1.004862998135761</v>
+        <v>1.999247895507501</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="V9">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W9">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X9">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y9">
+        <v>3.677108057010368</v>
+      </c>
+      <c r="Z9">
+        <v>3.231305938282028</v>
+      </c>
+      <c r="AA9">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB9">
+        <v>2.282286389914672</v>
+      </c>
+      <c r="AC9">
+        <v>2.164665903682081</v>
+      </c>
+      <c r="AD9">
+        <v>1.547095160849788</v>
+      </c>
+      <c r="AE9">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AF9">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG9">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH9">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI9">
+        <v>3.527083318193511</v>
+      </c>
+      <c r="AJ9">
+        <v>2.864384493352855</v>
+      </c>
+      <c r="AK9">
+        <v>2.767502023714569</v>
+      </c>
+      <c r="AL9">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM9">
+        <v>1.959240226223695</v>
+      </c>
+      <c r="AN9">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO9">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C10">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D10">
-        <v>1.007331297478957</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.890244923250669</v>
       </c>
       <c r="G10">
-        <v>1.063879119723762</v>
+        <v>2.820344307434905</v>
       </c>
       <c r="H10">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I10">
-        <v>0.9888607813449267</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L10">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M10">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N10">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O10">
-        <v>0.9674360913562712</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q10">
-        <v>1.063879119723762</v>
+        <v>2.758386948476693</v>
       </c>
       <c r="R10">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S10">
-        <v>1.004630242898663</v>
+        <v>1.99565581917643</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="V10">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W10">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X10">
+        <v>4.305775374033089</v>
+      </c>
+      <c r="Y10">
+        <v>3.67718314368513</v>
+      </c>
+      <c r="Z10">
+        <v>3.231445736987255</v>
+      </c>
+      <c r="AA10">
+        <v>2.913595262278476</v>
+      </c>
+      <c r="AB10">
+        <v>2.282445517163374</v>
+      </c>
+      <c r="AC10">
+        <v>2.164834283309236</v>
+      </c>
+      <c r="AD10">
+        <v>1.546936705154534</v>
+      </c>
+      <c r="AE10">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AF10">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG10">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH10">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI10">
+        <v>3.527096049469897</v>
+      </c>
+      <c r="AJ10">
+        <v>2.864963492191396</v>
+      </c>
+      <c r="AK10">
+        <v>2.76840724567464</v>
+      </c>
+      <c r="AL10">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM10">
+        <v>1.970365753035668</v>
+      </c>
+      <c r="AN10">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO10">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C11">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D11">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.890007389107182</v>
       </c>
       <c r="G11">
-        <v>1.063879119723762</v>
+        <v>2.820395866134594</v>
       </c>
       <c r="H11">
-        <v>1.041651917138526</v>
+        <v>2.110722729581302</v>
       </c>
       <c r="I11">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="L11">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M11">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N11">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O11">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q11">
-        <v>1.063879119723762</v>
+        <v>2.759934685332591</v>
       </c>
       <c r="R11">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S11">
-        <v>1.004630242898662</v>
+        <v>1.999731477449726</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="V11">
+        <v>4.369040801957648</v>
+      </c>
+      <c r="W11">
+        <v>4.357610568619839</v>
+      </c>
+      <c r="X11">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y11">
+        <v>3.677219857219276</v>
+      </c>
+      <c r="Z11">
+        <v>3.231084354133285</v>
+      </c>
+      <c r="AA11">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB11">
+        <v>2.282301350403905</v>
+      </c>
+      <c r="AC11">
+        <v>2.184039113594481</v>
+      </c>
+      <c r="AD11">
+        <v>1.54698962493861</v>
+      </c>
+      <c r="AE11">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AF11">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG11">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH11">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI11">
+        <v>3.527074423026233</v>
+      </c>
+      <c r="AJ11">
+        <v>2.864399660703523</v>
+      </c>
+      <c r="AK11">
+        <v>2.767350092282975</v>
+      </c>
+      <c r="AL11">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM11">
+        <v>1.958916786413492</v>
+      </c>
+      <c r="AN11">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO11">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D12">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.890181260405547</v>
+      </c>
+      <c r="G12">
+        <v>2.82049898269879</v>
       </c>
       <c r="H12">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I12">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="M12">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N12">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O12">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q12">
+        <v>2.764468585352596</v>
       </c>
       <c r="R12">
-        <v>1.042314553449994</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S12">
-        <v>1.004862998135761</v>
+        <v>1.997450127719318</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="W12">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X12">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y12">
+        <v>3.677265573440853</v>
+      </c>
+      <c r="Z12">
+        <v>3.231178586669011</v>
+      </c>
+      <c r="AA12">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB12">
+        <v>2.282254515899784</v>
+      </c>
+      <c r="AC12">
+        <v>2.184396730024956</v>
+      </c>
+      <c r="AD12">
+        <v>1.546940550767799</v>
+      </c>
+      <c r="AE12">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AG12">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH12">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI12">
+        <v>3.527127828138703</v>
+      </c>
+      <c r="AJ12">
+        <v>2.864830639338876</v>
+      </c>
+      <c r="AK12">
+        <v>2.767449926301194</v>
+      </c>
+      <c r="AL12">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM12">
+        <v>1.959275799447311</v>
+      </c>
+      <c r="AN12">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO12">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D13">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.890405098579488</v>
+      </c>
+      <c r="G13">
+        <v>2.820344307434905</v>
       </c>
       <c r="H13">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I13">
-        <v>0.9885020446512783</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="M13">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N13">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O13">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q13">
+        <v>2.760096641388192</v>
       </c>
       <c r="R13">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S13">
-        <v>1.004630242898662</v>
+        <v>2.00216766912457</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="W13">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X13">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y13">
+        <v>3.677224562855749</v>
+      </c>
+      <c r="Z13">
+        <v>3.231447147439823</v>
+      </c>
+      <c r="AA13">
+        <v>2.914140344257692</v>
+      </c>
+      <c r="AB13">
+        <v>2.282354257671705</v>
+      </c>
+      <c r="AC13">
+        <v>2.164691462178066</v>
+      </c>
+      <c r="AD13">
+        <v>1.546921721882957</v>
+      </c>
+      <c r="AE13">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AG13">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH13">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI13">
+        <v>3.527101152428635</v>
+      </c>
+      <c r="AJ13">
+        <v>2.86481615698162</v>
+      </c>
+      <c r="AK13">
+        <v>2.767330983274779</v>
+      </c>
+      <c r="AL13">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM13">
+        <v>1.958801271657076</v>
+      </c>
+      <c r="AN13">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO13">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.043061760259288</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D14">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.890007389107182</v>
+      </c>
+      <c r="G14">
+        <v>2.79134999006504</v>
       </c>
       <c r="H14">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I14">
-        <v>0.9888607813449256</v>
+        <v>2.069510807579861</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="M14">
-        <v>1.048363358869812</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N14">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O14">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q14">
+        <v>2.758474307576502</v>
       </c>
       <c r="R14">
-        <v>1.042314553449994</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S14">
-        <v>1.004862998135761</v>
+        <v>1.999895298897807</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="W14">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X14">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y14">
+        <v>3.665923096966814</v>
+      </c>
+      <c r="Z14">
+        <v>3.193740865296152</v>
+      </c>
+      <c r="AA14">
+        <v>2.84426575090546</v>
+      </c>
+      <c r="AB14">
+        <v>2.256184285948341</v>
+      </c>
+      <c r="AC14">
+        <v>2.103079957420105</v>
+      </c>
+      <c r="AD14">
+        <v>1.51472778510579</v>
+      </c>
+      <c r="AE14">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AG14">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH14">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI14">
+        <v>3.524384585729384</v>
+      </c>
+      <c r="AJ14">
+        <v>2.80706684369909</v>
+      </c>
+      <c r="AK14">
+        <v>2.680863100231524</v>
+      </c>
+      <c r="AL14">
+        <v>0.4703432914361692</v>
+      </c>
+      <c r="AM14">
+        <v>0.3225790478953798</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D15">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G15">
+        <v>2.820447424555885</v>
       </c>
       <c r="H15">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I15">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.520940204482798</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="M15">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N15">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O15">
-        <v>0.9698371278876869</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q15">
+        <v>2.764630940803113</v>
       </c>
       <c r="R15">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S15">
-        <v>1.004630242898662</v>
+        <v>1.995424751939921</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="W15">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X15">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y15">
+        <v>3.677235797039106</v>
+      </c>
+      <c r="Z15">
+        <v>3.231265291385245</v>
+      </c>
+      <c r="AA15">
+        <v>2.91398297641526</v>
+      </c>
+      <c r="AB15">
+        <v>2.282298511680435</v>
+      </c>
+      <c r="AC15">
+        <v>2.164701047606664</v>
+      </c>
+      <c r="AD15">
+        <v>1.546973082539003</v>
+      </c>
+      <c r="AE15">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AG15">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH15">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI15">
+        <v>3.527118513469095</v>
+      </c>
+      <c r="AJ15">
+        <v>2.86463542743722</v>
+      </c>
+      <c r="AK15">
+        <v>2.768340246660106</v>
+      </c>
+      <c r="AL15">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM15">
+        <v>1.970668012931648</v>
+      </c>
+      <c r="AN15">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO15">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.042220403815936</v>
+        <v>4.310105034003326</v>
       </c>
       <c r="D16">
-        <v>1.004160297575708</v>
+        <v>4.192586209515203</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3.502894795031683</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.825492302038108</v>
+      </c>
+      <c r="G16">
+        <v>2.503746392996097</v>
       </c>
       <c r="H16">
-        <v>1.041747096787062</v>
+        <v>2.100556144826836</v>
       </c>
       <c r="I16">
-        <v>0.989216126542858</v>
+        <v>1.706507002188758</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.221722760991542</v>
       </c>
       <c r="M16">
-        <v>1.0425959951379</v>
+        <v>4.353540233383545</v>
       </c>
       <c r="N16">
-        <v>1.016865951760459</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O16">
-        <v>0.9122434990573892</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q16">
+        <v>2.764724649264557</v>
       </c>
       <c r="R16">
-        <v>1.04184210244375</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S16">
-        <v>1.003202119947885</v>
+        <v>2.009174892261488</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.514831264290892</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W16">
+        <v>4.003599970093256</v>
+      </c>
+      <c r="X16">
+        <v>0.9516229997294916</v>
+      </c>
+      <c r="Y16">
+        <v>0.4720904962768013</v>
+      </c>
+      <c r="Z16">
+        <v>0.2398205405514662</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.7756091784430453</v>
+      </c>
+      <c r="AE16">
+        <v>0.6999204053490039</v>
+      </c>
+      <c r="AG16">
+        <v>4.311880635480208</v>
+      </c>
+      <c r="AH16">
+        <v>4.174069201839584</v>
+      </c>
+      <c r="AI16">
+        <v>1.654384433866804</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0.5341990716539933</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.042968933607929</v>
+        <v>4.353925351062736</v>
       </c>
       <c r="D17">
-        <v>1.00689454900391</v>
+        <v>4.208363855423071</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.525174820875142</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.851930939376449</v>
+      </c>
+      <c r="G17">
+        <v>2.817043971027835</v>
       </c>
       <c r="H17">
-        <v>1.041747096787062</v>
+        <v>2.107326473341803</v>
       </c>
       <c r="I17">
-        <v>0.989216126542858</v>
+        <v>2.094322562367899</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.51774923278052</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.505435737752925</v>
       </c>
       <c r="M17">
-        <v>1.047769675776071</v>
+        <v>4.353540233383545</v>
       </c>
       <c r="N17">
-        <v>1.02422501529636</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O17">
-        <v>0.9642216998946141</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q17">
+        <v>2.756738826748344</v>
       </c>
       <c r="R17">
-        <v>1.042314553449994</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S17">
-        <v>1.004630242898662</v>
+        <v>1.997571858276995</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W17">
+        <v>4.287338344996645</v>
+      </c>
+      <c r="X17">
+        <v>4.158683565013397</v>
+      </c>
+      <c r="Y17">
+        <v>3.518853586732726</v>
+      </c>
+      <c r="Z17">
+        <v>3.198660262484852</v>
+      </c>
+      <c r="AA17">
+        <v>2.803314657778556</v>
+      </c>
+      <c r="AB17">
+        <v>2.114027710620975</v>
+      </c>
+      <c r="AC17">
+        <v>2.084460965847463</v>
+      </c>
+      <c r="AD17">
+        <v>1.523159223255333</v>
+      </c>
+      <c r="AE17">
+        <v>1.498089087397382</v>
+      </c>
+      <c r="AG17">
+        <v>4.345978491634806</v>
+      </c>
+      <c r="AH17">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI17">
+        <v>3.540076665617795</v>
+      </c>
+      <c r="AJ17">
+        <v>2.902737712904271</v>
+      </c>
+      <c r="AK17">
+        <v>2.765322780095055</v>
+      </c>
+      <c r="AL17">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM17">
+        <v>1.959215094279678</v>
+      </c>
+      <c r="AN17">
+        <v>1.519162448997618</v>
+      </c>
+      <c r="AO17">
+        <v>1.506986805537321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.04184210244375</v>
+        <v>4.270097530520596</v>
       </c>
       <c r="D18">
-        <v>1.002958647398784</v>
+        <v>4.149160462846855</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3.462373866411606</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.824691119770725</v>
+      </c>
+      <c r="G18">
+        <v>2.453568282032955</v>
       </c>
       <c r="H18">
-        <v>1.041651917138526</v>
+        <v>2.103289002760418</v>
       </c>
       <c r="I18">
-        <v>0.989216126542858</v>
+        <v>1.728716545815538</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.514010497914307</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.366765401797417</v>
       </c>
       <c r="M18">
-        <v>1.0425959951379</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N18">
-        <v>1.0214731421349</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O18">
-        <v>0.9536370775519365</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q18">
+        <v>2.760035342430741</v>
       </c>
       <c r="R18">
-        <v>1.04184210244375</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S18">
-        <v>1.004862998135761</v>
+        <v>1.993629033547831</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W18">
+        <v>4.129728006476443</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>4.332812297756345</v>
+      </c>
+      <c r="AH18">
+        <v>4.135792896812471</v>
+      </c>
+      <c r="AI18">
+        <v>1.390277194729409</v>
+      </c>
+      <c r="AJ18">
+        <v>0.6907139510420648</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D19">
-        <v>1.007762976878079</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.524851001691732</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.860141252458964</v>
+      </c>
+      <c r="G19">
+        <v>2.744786215971927</v>
       </c>
       <c r="H19">
-        <v>1.041651917138526</v>
+        <v>2.107129557358022</v>
       </c>
       <c r="I19">
-        <v>0.989216126542858</v>
+        <v>2.033668446331499</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.513007286618791</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.4991388002591</v>
       </c>
       <c r="M19">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N19">
-        <v>1.025193550437113</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O19">
-        <v>0.9491265277777781</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q19">
+        <v>2.761640038681382</v>
       </c>
       <c r="R19">
-        <v>1.042220403815936</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S19">
-        <v>1.004862998135761</v>
+        <v>1.997275468445023</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>1.502424445078726</v>
+      </c>
+      <c r="W19">
+        <v>4.329881443743906</v>
+      </c>
+      <c r="X19">
+        <v>4.21692542664201</v>
+      </c>
+      <c r="Y19">
+        <v>3.44072418890967</v>
+      </c>
+      <c r="Z19">
+        <v>3.104453337008447</v>
+      </c>
+      <c r="AA19">
+        <v>2.574967282815929</v>
+      </c>
+      <c r="AB19">
+        <v>2.01112358123512</v>
+      </c>
+      <c r="AC19">
+        <v>2.003205653127273</v>
+      </c>
+      <c r="AD19">
+        <v>1.408767363660993</v>
+      </c>
+      <c r="AE19">
+        <v>1.421695570208137</v>
+      </c>
+      <c r="AG19">
+        <v>4.345923379507673</v>
+      </c>
+      <c r="AH19">
+        <v>4.173140941539373</v>
+      </c>
+      <c r="AI19">
+        <v>3.485158588682199</v>
+      </c>
+      <c r="AJ19">
+        <v>2.82518405847256</v>
+      </c>
+      <c r="AK19">
+        <v>2.654526936706464</v>
+      </c>
+      <c r="AL19">
+        <v>2.169535379334969</v>
+      </c>
+      <c r="AM19">
+        <v>2.017410286636473</v>
+      </c>
+      <c r="AN19">
+        <v>1.526330442030348</v>
+      </c>
+      <c r="AO19">
+        <v>1.497313171563195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D20">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.88963880118839</v>
+      </c>
+      <c r="G20">
+        <v>2.781130057093063</v>
       </c>
       <c r="H20">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I20">
-        <v>0.9885020446512783</v>
+        <v>2.019724685588744</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="M20">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N20">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O20">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q20">
+        <v>2.763834190082543</v>
       </c>
       <c r="R20">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S20">
-        <v>1.004630242898662</v>
+        <v>1.99983049947532</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="W20">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X20">
+        <v>4.235748238102348</v>
+      </c>
+      <c r="Y20">
+        <v>1.799073409857766</v>
+      </c>
+      <c r="Z20">
+        <v>1.563823794017177</v>
+      </c>
+      <c r="AA20">
+        <v>1.220604585041082</v>
+      </c>
+      <c r="AB20">
+        <v>0.6111505916400732</v>
+      </c>
+      <c r="AC20">
+        <v>0.5150689256231831</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH20">
+        <v>4.186103945754448</v>
+      </c>
+      <c r="AI20">
+        <v>1.698289634158455</v>
+      </c>
+      <c r="AJ20">
+        <v>1.164962309982912</v>
+      </c>
+      <c r="AK20">
+        <v>0.1258337537738341</v>
+      </c>
+      <c r="AL20">
+        <v>0.486906202254199</v>
+      </c>
+      <c r="AM20">
+        <v>1.878462664185498</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D21">
-        <v>1.007547763174238</v>
+        <v>4.208872359766458</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.889843076607996</v>
+      </c>
+      <c r="G21">
+        <v>2.817028683035611</v>
       </c>
       <c r="H21">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I21">
-        <v>0.9888607813449256</v>
+        <v>2.094257263418386</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="M21">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N21">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O21">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q21">
+        <v>2.75249240195065</v>
       </c>
       <c r="R21">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S21">
-        <v>1.004630242898662</v>
+        <v>1.995687580866009</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="W21">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X21">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y21">
+        <v>3.672530916442016</v>
+      </c>
+      <c r="Z21">
+        <v>3.206710423262279</v>
+      </c>
+      <c r="AA21">
+        <v>2.873821197945186</v>
+      </c>
+      <c r="AB21">
+        <v>2.27806043085923</v>
+      </c>
+      <c r="AC21">
+        <v>2.13106793281734</v>
+      </c>
+      <c r="AD21">
+        <v>1.539249024345907</v>
+      </c>
+      <c r="AE21">
+        <v>1.45833322456107</v>
+      </c>
+      <c r="AG21">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH21">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI21">
+        <v>3.519749180491383</v>
+      </c>
+      <c r="AJ21">
+        <v>2.848780783483762</v>
+      </c>
+      <c r="AK21">
+        <v>2.735144754950436</v>
+      </c>
+      <c r="AL21">
+        <v>1.97396263963244</v>
+      </c>
+      <c r="AM21">
+        <v>1.842010694852336</v>
+      </c>
+      <c r="AN21">
+        <v>1.318047105764522</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0.9906047807445099</v>
+        <v>3.852152907818603</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.160599756953959</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.572959519499024</v>
+      </c>
+      <c r="G22">
+        <v>2.250563233487139</v>
+      </c>
+      <c r="H22">
+        <v>1.937183799732575</v>
       </c>
       <c r="I22">
-        <v>0.9885020446512797</v>
+        <v>1.540257541799781</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.448750575274997</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.215743644275575</v>
       </c>
       <c r="N22">
-        <v>0.9938662007457995</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q22">
+        <v>2.759931667049053</v>
+      </c>
+      <c r="R22">
+        <v>2.104520093411275</v>
       </c>
       <c r="S22">
-        <v>0.9906047807445099</v>
+        <v>1.997353901316987</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="X22">
+        <v>0.7397554071073327</v>
+      </c>
+      <c r="Y22">
+        <v>0.123659205061325</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1.72408513439103</v>
+      </c>
+      <c r="AI22">
+        <v>1.048161388525018</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G23">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H23">
+        <v>2.110575087647683</v>
       </c>
       <c r="I23">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="N23">
-        <v>1.025466127108279</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O23">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q23">
+        <v>2.761136127020975</v>
+      </c>
+      <c r="R23">
+        <v>2.104421611150824</v>
       </c>
       <c r="S23">
-        <v>1.004862998135761</v>
+        <v>1.997226384833212</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="X23">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y23">
+        <v>3.677194779033733</v>
+      </c>
+      <c r="Z23">
+        <v>3.231395558104219</v>
+      </c>
+      <c r="AA23">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB23">
+        <v>2.282386925782872</v>
+      </c>
+      <c r="AC23">
+        <v>2.183902532196386</v>
+      </c>
+      <c r="AD23">
+        <v>1.547198063149412</v>
+      </c>
+      <c r="AE23">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AH23">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI23">
+        <v>3.527047569998316</v>
+      </c>
+      <c r="AJ23">
+        <v>2.864734675604007</v>
+      </c>
+      <c r="AK23">
+        <v>2.767301007353506</v>
+      </c>
+      <c r="AL23">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM23">
+        <v>1.958561873772499</v>
+      </c>
+      <c r="AN23">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO23">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.890213520455017</v>
+      </c>
+      <c r="G24">
+        <v>2.766533298036819</v>
+      </c>
+      <c r="H24">
+        <v>2.110624301841317</v>
       </c>
       <c r="I24">
-        <v>0.9888607813449256</v>
+        <v>2.01091050663408</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="N24">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O24">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q24">
+        <v>2.764365166460629</v>
+      </c>
+      <c r="R24">
+        <v>2.104421611150824</v>
       </c>
       <c r="S24">
-        <v>1.004862998135761</v>
+        <v>2.004148850585952</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="X24">
+        <v>4.248285838524247</v>
+      </c>
+      <c r="Y24">
+        <v>1.861113457001347</v>
+      </c>
+      <c r="Z24">
+        <v>1.551217409785244</v>
+      </c>
+      <c r="AA24">
+        <v>1.123467368706417</v>
+      </c>
+      <c r="AB24">
+        <v>0.6149334944871341</v>
+      </c>
+      <c r="AC24">
+        <v>0.5297032009533531</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>4.153456168095641</v>
+      </c>
+      <c r="AI24">
+        <v>2.995054278194199</v>
+      </c>
+      <c r="AJ24">
+        <v>1.01894360203681</v>
+      </c>
+      <c r="AK24">
+        <v>0.830833257598089</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>0.9906047807445088</v>
+        <v>3.854993629165308</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.179421637572318</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.572905693456056</v>
+      </c>
+      <c r="G25">
+        <v>2.462203006067815</v>
+      </c>
+      <c r="H25">
+        <v>1.961171434586047</v>
       </c>
       <c r="I25">
-        <v>0.9885020446512783</v>
+        <v>1.804237082865336</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.453118853789081</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.347359988046867</v>
       </c>
       <c r="N25">
-        <v>0.9938662007457983</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q25">
+        <v>2.757306986996343</v>
+      </c>
+      <c r="R25">
+        <v>2.104520093411275</v>
       </c>
       <c r="S25">
-        <v>0.9906047807445088</v>
+        <v>1.999772019170569</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>1.502424445078726</v>
+      </c>
+      <c r="X25">
+        <v>3.617210375389097</v>
+      </c>
+      <c r="Y25">
+        <v>2.906580895342661</v>
+      </c>
+      <c r="Z25">
+        <v>2.597850160293088</v>
+      </c>
+      <c r="AA25">
+        <v>2.252612141024613</v>
+      </c>
+      <c r="AB25">
+        <v>1.672414862480553</v>
+      </c>
+      <c r="AC25">
+        <v>1.668708469599962</v>
+      </c>
+      <c r="AD25">
+        <v>1.118165041399527</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>3.909458491548861</v>
+      </c>
+      <c r="AI25">
+        <v>3.244181400355222</v>
+      </c>
+      <c r="AJ25">
+        <v>0.7502067024136534</v>
+      </c>
+      <c r="AK25">
+        <v>0.5162611080659325</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0.05581210061829123</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G26">
+        <v>2.805891531389618</v>
+      </c>
+      <c r="H26">
+        <v>2.110525873238279</v>
       </c>
       <c r="I26">
-        <v>0.9888607813449256</v>
+        <v>2.048314907422445</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="N26">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O26">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q26">
+        <v>2.764577609502984</v>
+      </c>
+      <c r="R26">
+        <v>2.104470852389523</v>
       </c>
       <c r="S26">
-        <v>1.004630242898662</v>
+        <v>1.99517506824942</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="X26">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y26">
+        <v>3.662700873514293</v>
+      </c>
+      <c r="Z26">
+        <v>3.194337358553695</v>
+      </c>
+      <c r="AA26">
+        <v>2.844214342018183</v>
+      </c>
+      <c r="AB26">
+        <v>2.277339944535347</v>
+      </c>
+      <c r="AC26">
+        <v>2.084672312239907</v>
+      </c>
+      <c r="AD26">
+        <v>1.553571151705121</v>
+      </c>
+      <c r="AE26">
+        <v>1.454203230798607</v>
+      </c>
+      <c r="AH26">
+        <v>4.204993801499107</v>
+      </c>
+      <c r="AI26">
+        <v>3.527928803798036</v>
+      </c>
+      <c r="AJ26">
+        <v>2.866218136173201</v>
+      </c>
+      <c r="AK26">
+        <v>2.630016347419353</v>
+      </c>
+      <c r="AL26">
+        <v>2.072072616390228</v>
+      </c>
+      <c r="AM26">
+        <v>1.937249656081444</v>
+      </c>
+      <c r="AN26">
+        <v>1.333509399108984</v>
+      </c>
+      <c r="AO26">
+        <v>1.466453527594514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.902106821870408</v>
+      </c>
+      <c r="G27">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H27">
+        <v>2.110476658613093</v>
       </c>
       <c r="I27">
-        <v>0.9888607813449256</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="N27">
-        <v>1.025056581907364</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O27">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q27">
+        <v>2.761593995022913</v>
+      </c>
+      <c r="R27">
+        <v>2.104470852389523</v>
       </c>
       <c r="S27">
-        <v>1.004630242898662</v>
+        <v>2.002168424329384</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="X27">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y27">
+        <v>3.677188486143362</v>
+      </c>
+      <c r="Z27">
+        <v>3.231386937806881</v>
+      </c>
+      <c r="AA27">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB27">
+        <v>2.285878074987389</v>
+      </c>
+      <c r="AC27">
+        <v>2.164955848703569</v>
+      </c>
+      <c r="AD27">
+        <v>1.547074779619036</v>
+      </c>
+      <c r="AE27">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH27">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI27">
+        <v>3.527098405516027</v>
+      </c>
+      <c r="AJ27">
+        <v>2.865078139693279</v>
+      </c>
+      <c r="AK27">
+        <v>2.771996449179774</v>
+      </c>
+      <c r="AL27">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM27">
+        <v>1.959005860276654</v>
+      </c>
+      <c r="AN27">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO27">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>1.007331297478956</v>
+        <v>4.20870286198455</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G28">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H28">
+        <v>2.110525873238279</v>
       </c>
       <c r="I28">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="N28">
-        <v>1.025056581907364</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O28">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q28">
+        <v>2.752541584161535</v>
+      </c>
+      <c r="R28">
+        <v>2.104520093411275</v>
       </c>
       <c r="S28">
-        <v>1.004862998135761</v>
+        <v>1.999632399756324</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="X28">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y28">
+        <v>3.677145363497317</v>
+      </c>
+      <c r="Z28">
+        <v>3.22716817685499</v>
+      </c>
+      <c r="AA28">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB28">
+        <v>2.28234797834376</v>
+      </c>
+      <c r="AC28">
+        <v>2.18500279136379</v>
+      </c>
+      <c r="AD28">
+        <v>1.546876600874702</v>
+      </c>
+      <c r="AE28">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AH28">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI28">
+        <v>3.527043546676909</v>
+      </c>
+      <c r="AJ28">
+        <v>2.865211846302531</v>
+      </c>
+      <c r="AK28">
+        <v>2.767456030578041</v>
+      </c>
+      <c r="AL28">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM28">
+        <v>1.958807331167737</v>
+      </c>
+      <c r="AN28">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO28">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G29">
+        <v>2.82049898269879</v>
+      </c>
+      <c r="H29">
+        <v>2.110476658613093</v>
       </c>
       <c r="I29">
-        <v>0.9885020446512783</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="N29">
-        <v>1.025056581907364</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O29">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q29">
+        <v>2.758697970510632</v>
+      </c>
+      <c r="R29">
+        <v>2.104470852389523</v>
       </c>
       <c r="S29">
-        <v>1.004862998135761</v>
+        <v>1.993824511458731</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="X29">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y29">
+        <v>3.677352106574477</v>
+      </c>
+      <c r="Z29">
+        <v>3.231288460462668</v>
+      </c>
+      <c r="AA29">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB29">
+        <v>2.282240357552531</v>
+      </c>
+      <c r="AC29">
+        <v>2.184249388900336</v>
+      </c>
+      <c r="AD29">
+        <v>1.547007887748665</v>
+      </c>
+      <c r="AE29">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AH29">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI29">
+        <v>3.527069570932215</v>
+      </c>
+      <c r="AJ29">
+        <v>2.864765561949828</v>
+      </c>
+      <c r="AK29">
+        <v>2.767436360093313</v>
+      </c>
+      <c r="AL29">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM29">
+        <v>1.970053800357518</v>
+      </c>
+      <c r="AN29">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO29">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.890258226760009</v>
+      </c>
+      <c r="G30">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H30">
+        <v>2.110575087647683</v>
       </c>
       <c r="I30">
-        <v>0.9888607813449256</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="N30">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O30">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q30">
+        <v>2.764708165859306</v>
+      </c>
+      <c r="R30">
+        <v>2.104421611150824</v>
       </c>
       <c r="S30">
-        <v>1.004862998135761</v>
+        <v>1.997469505881772</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="X30">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y30">
+        <v>3.677213815527519</v>
+      </c>
+      <c r="Z30">
+        <v>3.231008923904424</v>
+      </c>
+      <c r="AA30">
+        <v>2.913622306904335</v>
+      </c>
+      <c r="AB30">
+        <v>2.285810359552872</v>
+      </c>
+      <c r="AC30">
+        <v>2.165091557401835</v>
+      </c>
+      <c r="AD30">
+        <v>1.547674449637367</v>
+      </c>
+      <c r="AE30">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AH30">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI30">
+        <v>3.527087562223652</v>
+      </c>
+      <c r="AJ30">
+        <v>2.864527937457765</v>
+      </c>
+      <c r="AK30">
+        <v>2.767406472840809</v>
+      </c>
+      <c r="AL30">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM30">
+        <v>1.958924309583655</v>
+      </c>
+      <c r="AN30">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO30">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="D31">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.889717093160529</v>
+      </c>
+      <c r="G31">
+        <v>2.82049898269879</v>
+      </c>
+      <c r="H31">
+        <v>2.110525873238279</v>
       </c>
       <c r="I31">
-        <v>0.9888607813449256</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="N31">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O31">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q31">
+        <v>2.764164370293601</v>
+      </c>
+      <c r="R31">
+        <v>2.104470852389523</v>
       </c>
       <c r="S31">
-        <v>1.004862998135761</v>
+        <v>1.999924066544574</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="X31">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y31">
+        <v>3.677207367751488</v>
+      </c>
+      <c r="Z31">
+        <v>3.231449712511609</v>
+      </c>
+      <c r="AA31">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB31">
+        <v>2.282346804679112</v>
+      </c>
+      <c r="AC31">
+        <v>2.164808452617955</v>
+      </c>
+      <c r="AD31">
+        <v>1.546734102782497</v>
+      </c>
+      <c r="AE31">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH31">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI31">
+        <v>3.527060366728088</v>
+      </c>
+      <c r="AJ31">
+        <v>2.864729596739382</v>
+      </c>
+      <c r="AK31">
+        <v>2.768542983561921</v>
+      </c>
+      <c r="AL31">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM31">
+        <v>1.970388508981873</v>
+      </c>
+      <c r="AN31">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO31">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.890007389107182</v>
+      </c>
+      <c r="G32">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H32">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I32">
+        <v>2.097476420041489</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="O32">
-        <v>0.9674360913562696</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q32">
+        <v>2.763913052067042</v>
+      </c>
+      <c r="R32">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S32">
+        <v>1.997321672122821</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Y32">
+        <v>3.677979378760647</v>
+      </c>
+      <c r="Z32">
+        <v>3.23090106907205</v>
+      </c>
+      <c r="AA32">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB32">
+        <v>2.282381108216146</v>
+      </c>
+      <c r="AC32">
+        <v>2.184458969011585</v>
+      </c>
+      <c r="AD32">
+        <v>1.547030831491303</v>
+      </c>
+      <c r="AE32">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AI32">
+        <v>3.527098047860828</v>
+      </c>
+      <c r="AJ32">
+        <v>2.864317331741588</v>
+      </c>
+      <c r="AK32">
+        <v>2.768454013640019</v>
+      </c>
+      <c r="AL32">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM32">
+        <v>1.958776295660888</v>
+      </c>
+      <c r="AN32">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO32">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.890249072361652</v>
+      </c>
+      <c r="G33">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H33">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I33">
+        <v>2.097279330160376</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="O33">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q33">
+        <v>2.764413861321982</v>
+      </c>
+      <c r="R33">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S33">
+        <v>1.995597471156569</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y33">
+        <v>3.677285626444959</v>
+      </c>
+      <c r="Z33">
+        <v>3.231268700618144</v>
+      </c>
+      <c r="AA33">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB33">
+        <v>2.285779015544489</v>
+      </c>
+      <c r="AC33">
+        <v>2.164800719264538</v>
+      </c>
+      <c r="AD33">
+        <v>1.546859611342908</v>
+      </c>
+      <c r="AE33">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AI33">
+        <v>3.527100219495765</v>
+      </c>
+      <c r="AJ33">
+        <v>2.864729249432276</v>
+      </c>
+      <c r="AK33">
+        <v>2.767846136079705</v>
+      </c>
+      <c r="AL33">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM33">
+        <v>1.956916496755751</v>
+      </c>
+      <c r="AN33">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO33">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.889683528781278</v>
+      </c>
+      <c r="G34">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H34">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I34">
+        <v>2.097427147898701</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="O34">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q34">
+        <v>2.764803645485926</v>
+      </c>
+      <c r="R34">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S34">
+        <v>1.995695162069306</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Y34">
+        <v>3.675586090673636</v>
+      </c>
+      <c r="Z34">
+        <v>3.226984016197941</v>
+      </c>
+      <c r="AA34">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB34">
+        <v>2.282258385049089</v>
+      </c>
+      <c r="AC34">
+        <v>2.164842249023946</v>
+      </c>
+      <c r="AD34">
+        <v>1.544518006767065</v>
+      </c>
+      <c r="AE34">
+        <v>1.52508760161246</v>
+      </c>
+      <c r="AI34">
+        <v>3.527051424222742</v>
+      </c>
+      <c r="AJ34">
+        <v>2.865016940754824</v>
+      </c>
+      <c r="AK34">
+        <v>2.772086993447544</v>
+      </c>
+      <c r="AL34">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM34">
+        <v>1.958895534152656</v>
+      </c>
+      <c r="AN34">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO34">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G35">
+        <v>2.586296289171685</v>
+      </c>
+      <c r="H35">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I35">
+        <v>1.77545799759149</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.487088713443858</v>
       </c>
       <c r="O35">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q35">
+        <v>2.761530602336535</v>
+      </c>
+      <c r="R35">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S35">
+        <v>1.995064421034615</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y35">
+        <v>0.2003506769364884</v>
+      </c>
+      <c r="Z35">
+        <v>0.04091978360671611</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1.364646792235465</v>
+      </c>
+      <c r="AJ35">
+        <v>0.7265499427591258</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.508129195449197</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.821940280363783</v>
+      </c>
+      <c r="G36">
+        <v>2.472510035536765</v>
+      </c>
+      <c r="H36">
+        <v>2.093336798064506</v>
+      </c>
+      <c r="I36">
+        <v>1.838802892802555</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.501374932043137</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.424778588706995</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q36">
+        <v>2.756793912849358</v>
+      </c>
+      <c r="R36">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S36">
+        <v>2.000009879107257</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="Y36">
+        <v>0.9927342022228038</v>
+      </c>
+      <c r="Z36">
+        <v>0.8121506197413915</v>
+      </c>
+      <c r="AA36">
+        <v>0.4182264368730557</v>
+      </c>
+      <c r="AB36">
+        <v>0.003839633030863876</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1.595986021740728</v>
+      </c>
+      <c r="AJ36">
+        <v>0.9357320737993149</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G37">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H37">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I37">
+        <v>2.097476420041489</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.508720187899754</v>
       </c>
       <c r="O37">
-        <v>0.9674360913562696</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q37">
+        <v>2.752196500577295</v>
+      </c>
+      <c r="R37">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S37">
+        <v>2.004484063838849</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Y37">
+        <v>3.677198281210213</v>
+      </c>
+      <c r="Z37">
+        <v>3.23115046376201</v>
+      </c>
+      <c r="AA37">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB37">
+        <v>2.28220135751859</v>
+      </c>
+      <c r="AC37">
+        <v>2.165024634914429</v>
+      </c>
+      <c r="AD37">
+        <v>1.546859836986974</v>
+      </c>
+      <c r="AE37">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AI37">
+        <v>3.527061876437775</v>
+      </c>
+      <c r="AJ37">
+        <v>2.864430395145626</v>
+      </c>
+      <c r="AK37">
+        <v>2.767623705672013</v>
+      </c>
+      <c r="AL37">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM37">
+        <v>1.958826526648641</v>
+      </c>
+      <c r="AN37">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO37">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.525822422422836</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.89044703560429</v>
+      </c>
+      <c r="G38">
+        <v>2.789854973789183</v>
+      </c>
+      <c r="H38">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I38">
+        <v>2.037469220014933</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="O38">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q38">
+        <v>2.764692608955014</v>
+      </c>
+      <c r="R38">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S38">
+        <v>1.991251770763616</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="Y38">
+        <v>3.613740463051783</v>
+      </c>
+      <c r="Z38">
+        <v>3.187409584258309</v>
+      </c>
+      <c r="AA38">
+        <v>2.84464773973124</v>
+      </c>
+      <c r="AB38">
+        <v>2.187938254213048</v>
+      </c>
+      <c r="AC38">
+        <v>2.085142982082743</v>
+      </c>
+      <c r="AD38">
+        <v>1.482302880160949</v>
+      </c>
+      <c r="AE38">
+        <v>1.411751867967422</v>
+      </c>
+      <c r="AI38">
+        <v>3.508711674653705</v>
+      </c>
+      <c r="AJ38">
+        <v>2.776357183221584</v>
+      </c>
+      <c r="AK38">
+        <v>2.661697593493286</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G39">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H39">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I39">
+        <v>2.097427147898701</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="O39">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q39">
+        <v>2.759581068483051</v>
+      </c>
+      <c r="R39">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S39">
+        <v>1.999633774796422</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Y39">
+        <v>2.246733501812283</v>
+      </c>
+      <c r="Z39">
+        <v>1.802028265692886</v>
+      </c>
+      <c r="AA39">
+        <v>1.48989689531918</v>
+      </c>
+      <c r="AB39">
+        <v>0.8607671880037064</v>
+      </c>
+      <c r="AC39">
+        <v>0.7430669900658973</v>
+      </c>
+      <c r="AD39">
+        <v>0.1256728356144243</v>
+      </c>
+      <c r="AE39">
+        <v>0.09951689512239636</v>
+      </c>
+      <c r="AI39">
+        <v>2.122397978516091</v>
+      </c>
+      <c r="AJ39">
+        <v>2.852010984519656</v>
+      </c>
+      <c r="AK39">
+        <v>2.760637322276905</v>
+      </c>
+      <c r="AL39">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM39">
+        <v>1.940662178006348</v>
+      </c>
+      <c r="AN39">
+        <v>1.504836360632216</v>
+      </c>
+      <c r="AO39">
+        <v>1.388265583100641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G40">
+        <v>2.611875548180719</v>
+      </c>
+      <c r="H40">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I40">
+        <v>1.806987012410719</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.487166065185394</v>
       </c>
       <c r="O40">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q40">
+        <v>2.764570027317701</v>
+      </c>
+      <c r="R40">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S40">
+        <v>1.995680168062895</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y40">
+        <v>0.3675389532400812</v>
+      </c>
+      <c r="Z40">
+        <v>0.09413440929147177</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0.3736301077252628</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.456647589717074</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.816281276299579</v>
+      </c>
+      <c r="G41">
+        <v>2.711399318409045</v>
+      </c>
+      <c r="H41">
+        <v>2.098116938034965</v>
+      </c>
+      <c r="I41">
+        <v>2.039638646294863</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.509085088472034</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.496902378435075</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q41">
+        <v>2.759827909895822</v>
+      </c>
+      <c r="R41">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S41">
+        <v>1.993537693892726</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Y41">
+        <v>3.288932156800422</v>
+      </c>
+      <c r="Z41">
+        <v>2.948028209082115</v>
+      </c>
+      <c r="AA41">
+        <v>2.553422464925546</v>
+      </c>
+      <c r="AB41">
+        <v>1.979238831277448</v>
+      </c>
+      <c r="AC41">
+        <v>1.963017503207169</v>
+      </c>
+      <c r="AD41">
+        <v>1.411125850896713</v>
+      </c>
+      <c r="AE41">
+        <v>1.342935186791912</v>
+      </c>
+      <c r="AI41">
+        <v>3.486004165423496</v>
+      </c>
+      <c r="AJ41">
+        <v>2.805709996472417</v>
+      </c>
+      <c r="AK41">
+        <v>2.577139085292083</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.834110713040183</v>
+      </c>
+      <c r="G42">
+        <v>2.722821253575925</v>
+      </c>
+      <c r="H42">
+        <v>2.106834176889075</v>
+      </c>
+      <c r="I42">
+        <v>1.931778367664572</v>
+      </c>
+      <c r="J42">
+        <v>1.517247741565741</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1.472182656907588</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q42">
+        <v>2.759962042712247</v>
+      </c>
+      <c r="R42">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S42">
+        <v>1.993458715927251</v>
+      </c>
+      <c r="T42">
+        <v>1.514785667170373</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="Z42">
+        <v>3.096287637126242</v>
+      </c>
+      <c r="AA42">
+        <v>2.623951658674981</v>
+      </c>
+      <c r="AB42">
+        <v>2.130999387840012</v>
+      </c>
+      <c r="AC42">
+        <v>1.951874762080562</v>
+      </c>
+      <c r="AD42">
+        <v>1.555055482873353</v>
+      </c>
+      <c r="AE42">
+        <v>1.300626400309681</v>
+      </c>
+      <c r="AJ42">
+        <v>2.816113021589407</v>
+      </c>
+      <c r="AK42">
+        <v>0.7227394375403824</v>
+      </c>
+      <c r="AL42">
+        <v>0.05256918017247814</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G43">
+        <v>2.745304100504073</v>
+      </c>
+      <c r="H43">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I43">
+        <v>1.970149873413603</v>
+      </c>
+      <c r="J43">
+        <v>1.520757878870674</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q43">
+        <v>2.761498851944992</v>
+      </c>
+      <c r="R43">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S43">
+        <v>2.004301054988377</v>
+      </c>
+      <c r="T43">
+        <v>1.514740069930878</v>
       </c>
       <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z43">
+        <v>1.188328586476106</v>
+      </c>
+      <c r="AA43">
+        <v>0.8547786171191787</v>
+      </c>
+      <c r="AB43">
+        <v>0.2913037820191302</v>
+      </c>
+      <c r="AC43">
+        <v>0.1892872546082454</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0.9086938556318414</v>
+      </c>
+      <c r="AK43">
+        <v>0.7117027182200171</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.572172520221701</v>
+      </c>
+      <c r="G44">
+        <v>2.272863827951672</v>
+      </c>
+      <c r="H44">
+        <v>1.963702703730398</v>
+      </c>
+      <c r="I44">
+        <v>1.590413571300384</v>
+      </c>
+      <c r="J44">
+        <v>1.432833478807121</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1.376962939952588</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q44">
+        <v>2.764559584096761</v>
+      </c>
+      <c r="R44">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S44">
+        <v>2.001894516643005</v>
+      </c>
+      <c r="T44">
+        <v>1.514603277498504</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z44">
+        <v>0.09462792232663531</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0.5832306375415932</v>
+      </c>
+      <c r="AK44">
+        <v>0.3596655464613538</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.889970897560381</v>
+      </c>
+      <c r="G45">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H45">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I45">
+        <v>2.097279330160376</v>
+      </c>
+      <c r="J45">
+        <v>1.520757878870674</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q45">
+        <v>2.758184353063192</v>
+      </c>
+      <c r="R45">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S45">
+        <v>1.997179333602257</v>
+      </c>
+      <c r="T45">
+        <v>1.514694472572406</v>
       </c>
       <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="Z45">
+        <v>3.230851703120392</v>
+      </c>
+      <c r="AA45">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB45">
+        <v>2.282346062063891</v>
+      </c>
+      <c r="AC45">
+        <v>2.164765552236331</v>
+      </c>
+      <c r="AD45">
+        <v>1.547019803707785</v>
+      </c>
+      <c r="AE45">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AJ45">
+        <v>2.865003959725457</v>
+      </c>
+      <c r="AK45">
+        <v>2.767432166869336</v>
+      </c>
+      <c r="AL45">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM45">
+        <v>1.958857791509986</v>
+      </c>
+      <c r="AN45">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO45">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.830627138040562</v>
+      </c>
+      <c r="G46">
+        <v>2.532641134814618</v>
+      </c>
+      <c r="H46">
+        <v>2.096512132288713</v>
+      </c>
+      <c r="I46">
+        <v>1.703618489521094</v>
+      </c>
+      <c r="J46">
+        <v>1.508104888677052</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1.33738554800783</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q46">
+        <v>2.755509646030583</v>
+      </c>
+      <c r="R46">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S46">
+        <v>1.993864302422021</v>
+      </c>
+      <c r="T46">
+        <v>1.514785667170373</v>
       </c>
       <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z46">
+        <v>0.1520494512262951</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0.144943520271047</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G47">
+        <v>2.803194610047689</v>
+      </c>
+      <c r="H47">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I47">
+        <v>2.079447830925107</v>
+      </c>
+      <c r="J47">
+        <v>1.52066671535492</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.507070927855218</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q47">
+        <v>2.761571379030578</v>
+      </c>
+      <c r="R47">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S47">
+        <v>1.997456092297059</v>
+      </c>
+      <c r="T47">
+        <v>1.514603277498504</v>
       </c>
       <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z47">
+        <v>3.194468959294262</v>
+      </c>
+      <c r="AA47">
+        <v>2.851003358068622</v>
+      </c>
+      <c r="AB47">
+        <v>2.201621807090405</v>
+      </c>
+      <c r="AC47">
+        <v>2.104580489977744</v>
+      </c>
+      <c r="AD47">
+        <v>1.472775456545107</v>
+      </c>
+      <c r="AE47">
+        <v>1.422054599255449</v>
+      </c>
+      <c r="AJ47">
+        <v>2.826942050098039</v>
+      </c>
+      <c r="AK47">
+        <v>2.706617559477351</v>
+      </c>
+      <c r="AL47">
+        <v>1.972287315422041</v>
+      </c>
+      <c r="AM47">
+        <v>1.75599356497128</v>
+      </c>
+      <c r="AN47">
+        <v>1.111802561504214</v>
+      </c>
+      <c r="AO47">
+        <v>1.139421378846795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2.745990838278697</v>
+      </c>
+      <c r="G48">
+        <v>2.640045828235097</v>
+      </c>
+      <c r="H48">
+        <v>2.095012545270886</v>
+      </c>
+      <c r="I48">
+        <v>1.945184595885407</v>
+      </c>
+      <c r="J48">
+        <v>1.506439385683525</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.494163506789129</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q48">
+        <v>2.756537873140942</v>
+      </c>
+      <c r="R48">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S48">
+        <v>1.995326628254367</v>
+      </c>
+      <c r="T48">
+        <v>1.514785667170373</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="Z48">
+        <v>2.825958268118212</v>
+      </c>
+      <c r="AA48">
+        <v>2.429096036572144</v>
+      </c>
+      <c r="AB48">
+        <v>1.916407368388246</v>
+      </c>
+      <c r="AC48">
+        <v>1.833675257217073</v>
+      </c>
+      <c r="AD48">
+        <v>1.34734110665785</v>
+      </c>
+      <c r="AE48">
+        <v>1.180564865694133</v>
+      </c>
+      <c r="AJ48">
+        <v>1.016962981946317</v>
+      </c>
+      <c r="AK48">
+        <v>0.7722734641066593</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.830917105717569</v>
+      </c>
+      <c r="G49">
+        <v>2.587858694534066</v>
+      </c>
+      <c r="H49">
+        <v>2.104076916404499</v>
+      </c>
+      <c r="I49">
+        <v>1.709043953036294</v>
+      </c>
+      <c r="J49">
+        <v>1.513007286618791</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.470361663352494</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q49">
+        <v>2.758794587796463</v>
+      </c>
+      <c r="R49">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S49">
+        <v>1.999877419157162</v>
+      </c>
+      <c r="T49">
+        <v>1.514785667170373</v>
       </c>
       <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z49">
+        <v>0.3499466476490374</v>
+      </c>
+      <c r="AA49">
+        <v>0.06727167277427237</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0.2598464968797334</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.889597414714293</v>
+      </c>
+      <c r="G50">
+        <v>2.773302637534689</v>
+      </c>
+      <c r="H50">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I50">
+        <v>2.04316300890308</v>
+      </c>
+      <c r="J50">
+        <v>1.52066671535492</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q50">
+        <v>2.761767748202608</v>
+      </c>
+      <c r="R50">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S50">
+        <v>2.004147356844898</v>
+      </c>
+      <c r="T50">
+        <v>1.514603277498504</v>
       </c>
       <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="Z50">
+        <v>3.164892986571879</v>
+      </c>
+      <c r="AA50">
+        <v>2.793283696597113</v>
+      </c>
+      <c r="AB50">
+        <v>2.174642883561886</v>
+      </c>
+      <c r="AC50">
+        <v>2.02062818514792</v>
+      </c>
+      <c r="AD50">
+        <v>1.476395974710765</v>
+      </c>
+      <c r="AE50">
+        <v>1.314520497959524</v>
+      </c>
+      <c r="AJ50">
+        <v>0.973273162811999</v>
+      </c>
+      <c r="AK50">
+        <v>0.8192681102866006</v>
+      </c>
+      <c r="AL50">
+        <v>1.990766452331855</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.902167318028256</v>
+      </c>
+      <c r="G51">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H51">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I51">
+        <v>2.097328602958155</v>
+      </c>
+      <c r="J51">
+        <v>1.5206211334196</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q51">
+        <v>2.75246774882967</v>
+      </c>
+      <c r="R51">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S51">
+        <v>1.9935515970297</v>
+      </c>
+      <c r="T51">
+        <v>1.514694472572406</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Z51">
+        <v>3.22977996267092</v>
+      </c>
+      <c r="AA51">
+        <v>2.914054729099922</v>
+      </c>
+      <c r="AB51">
+        <v>2.282232390451751</v>
+      </c>
+      <c r="AC51">
+        <v>2.164588023934948</v>
+      </c>
+      <c r="AD51">
+        <v>1.546896857303934</v>
+      </c>
+      <c r="AE51">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AJ51">
+        <v>2.864696342657382</v>
+      </c>
+      <c r="AK51">
+        <v>2.767622050556484</v>
+      </c>
+      <c r="AL51">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM51">
+        <v>1.959115210350472</v>
+      </c>
+      <c r="AN51">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO51">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
       <c r="G52">
-        <v>10</v>
+        <v>2.820395866134594</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I52">
-        <v>30</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J52">
-        <v>40</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>30</v>
-      </c>
-      <c r="O52">
-        <v>40</v>
-      </c>
-      <c r="P52">
-        <v>50</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>2.7644688030605</v>
       </c>
       <c r="R52">
-        <v>20</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S52">
-        <v>30</v>
+        <v>2.004370706110602</v>
       </c>
       <c r="T52">
-        <v>40</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AA52">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB52">
+        <v>2.285815832994564</v>
+      </c>
+      <c r="AC52">
+        <v>2.164950279799784</v>
+      </c>
+      <c r="AD52">
+        <v>1.546853339218274</v>
+      </c>
+      <c r="AE52">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AK52">
+        <v>2.768430106638912</v>
+      </c>
+      <c r="AL52">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM52">
+        <v>1.959101965207488</v>
+      </c>
+      <c r="AN52">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO52">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.801129952845892</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2.052579948032093</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>2.76448828292897</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>2.004630075748113</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AA53">
+        <v>2.844205086130665</v>
+      </c>
+      <c r="AB53">
+        <v>2.227155431572726</v>
+      </c>
+      <c r="AC53">
+        <v>2.084922808689219</v>
+      </c>
+      <c r="AD53">
+        <v>1.525859467164307</v>
+      </c>
+      <c r="AE53">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AK53">
+        <v>2.670227949425934</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.80088311309179</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2.063037369191284</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.752103616394753</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.997416966306632</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AA54">
+        <v>2.84426575090546</v>
+      </c>
+      <c r="AB54">
+        <v>2.27135067873824</v>
+      </c>
+      <c r="AC54">
+        <v>2.084835472616407</v>
+      </c>
+      <c r="AD54">
+        <v>1.550837054696816</v>
+      </c>
+      <c r="AE54">
+        <v>1.411938559585216</v>
+      </c>
+      <c r="AK54">
+        <v>2.661858273037547</v>
+      </c>
+      <c r="AL54">
+        <v>1.92196552606935</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="G55">
+        <v>2.798689889598077</v>
+      </c>
+      <c r="H55">
+        <v>2.106095691614521</v>
+      </c>
+      <c r="I55">
+        <v>2.05827178958992</v>
+      </c>
+      <c r="J55">
+        <v>1.516518274160015</v>
+      </c>
+      <c r="K55">
+        <v>1.504386407329749</v>
+      </c>
+      <c r="Q55">
+        <v>2.759878411647667</v>
+      </c>
+      <c r="R55">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S55">
+        <v>1.999587021777866</v>
+      </c>
+      <c r="T55">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U55">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AA55">
+        <v>2.546393033021674</v>
+      </c>
+      <c r="AB55">
+        <v>2.078854962036238</v>
+      </c>
+      <c r="AC55">
+        <v>1.860131200770541</v>
+      </c>
+      <c r="AD55">
+        <v>1.48750536235245</v>
+      </c>
+      <c r="AE55">
+        <v>1.257778939852132</v>
+      </c>
+      <c r="AK55">
+        <v>0.8027253463683859</v>
+      </c>
+      <c r="AL55">
+        <v>0.001526677698686862</v>
+      </c>
+      <c r="AM55">
+        <v>1.78983441906407</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.39410195998472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>2.789829981966757</v>
+      </c>
+      <c r="H56">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I56">
+        <v>2.027213926470244</v>
+      </c>
+      <c r="J56">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K56">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="Q56">
+        <v>2.759830519003371</v>
+      </c>
+      <c r="R56">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S56">
+        <v>2.004265306945042</v>
+      </c>
+      <c r="T56">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U56">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AA56">
+        <v>2.844214342018183</v>
+      </c>
+      <c r="AB56">
+        <v>2.193385995135869</v>
+      </c>
+      <c r="AC56">
+        <v>2.084669066861959</v>
+      </c>
+      <c r="AD56">
+        <v>1.438006517631593</v>
+      </c>
+      <c r="AE56">
+        <v>1.411751867967422</v>
+      </c>
+      <c r="AK56">
+        <v>2.648835511626569</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>2.82049898269879</v>
+      </c>
+      <c r="H57">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I57">
+        <v>2.097574963672146</v>
+      </c>
+      <c r="J57">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K57">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="Q57">
+        <v>2.758093423911134</v>
+      </c>
+      <c r="R57">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S57">
+        <v>1.995662789678105</v>
+      </c>
+      <c r="T57">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U57">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AA57">
+        <v>2.913667867237638</v>
+      </c>
+      <c r="AB57">
+        <v>2.282304541739303</v>
+      </c>
+      <c r="AC57">
+        <v>2.164957973450842</v>
+      </c>
+      <c r="AD57">
+        <v>1.54802507230432</v>
+      </c>
+      <c r="AE57">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AK57">
+        <v>2.767530236922443</v>
+      </c>
+      <c r="AL57">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM57">
+        <v>1.970211554209781</v>
+      </c>
+      <c r="AN57">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO57">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>2.813173989581866</v>
+      </c>
+      <c r="H58">
+        <v>2.106588020544806</v>
+      </c>
+      <c r="I58">
+        <v>2.072289884248427</v>
+      </c>
+      <c r="J58">
+        <v>1.517247741565741</v>
+      </c>
+      <c r="K58">
+        <v>1.504888268938484</v>
+      </c>
+      <c r="Q58">
+        <v>2.759971384217532</v>
+      </c>
+      <c r="R58">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S58">
+        <v>1.995682049252933</v>
+      </c>
+      <c r="T58">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U58">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AA58">
+        <v>2.715873968153891</v>
+      </c>
+      <c r="AB58">
+        <v>2.092537492083563</v>
+      </c>
+      <c r="AC58">
+        <v>2.057768546919991</v>
+      </c>
+      <c r="AD58">
+        <v>1.531071021426917</v>
+      </c>
+      <c r="AE58">
+        <v>1.492200380030218</v>
+      </c>
+      <c r="AK58">
+        <v>2.765511450286118</v>
+      </c>
+      <c r="AL58">
+        <v>2.109049340575119</v>
+      </c>
+      <c r="AM58">
+        <v>1.966098672460905</v>
+      </c>
+      <c r="AN58">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO58">
+        <v>1.506986805537321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H59">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I59">
+        <v>2.097525691965968</v>
+      </c>
+      <c r="J59">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K59">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="Q59">
+        <v>2.763976436753735</v>
+      </c>
+      <c r="R59">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S59">
+        <v>1.993798807984141</v>
+      </c>
+      <c r="T59">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U59">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AA59">
+        <v>2.913400199979509</v>
+      </c>
+      <c r="AB59">
+        <v>2.2823474685623</v>
+      </c>
+      <c r="AC59">
+        <v>2.165101218030796</v>
+      </c>
+      <c r="AD59">
+        <v>1.546945749296135</v>
+      </c>
+      <c r="AE59">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AK59">
+        <v>2.768590072097569</v>
+      </c>
+      <c r="AL59">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM59">
+        <v>1.970509997412898</v>
+      </c>
+      <c r="AN59">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO59">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H60">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I60">
+        <v>2.097328602958155</v>
+      </c>
+      <c r="J60">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K60">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="Q60">
+        <v>2.764309029207608</v>
+      </c>
+      <c r="R60">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S60">
+        <v>1.993653555581107</v>
+      </c>
+      <c r="T60">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U60">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AA60">
+        <v>2.913434568950912</v>
+      </c>
+      <c r="AB60">
+        <v>2.282277844990757</v>
+      </c>
+      <c r="AC60">
+        <v>2.165144128608553</v>
+      </c>
+      <c r="AD60">
+        <v>1.547030448752558</v>
+      </c>
+      <c r="AE60">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AK60">
+        <v>2.767542915245012</v>
+      </c>
+      <c r="AL60">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM60">
+        <v>1.958722716739042</v>
+      </c>
+      <c r="AN60">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO60">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>2.800978343883209</v>
+      </c>
+      <c r="H61">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I61">
+        <v>2.052413275381456</v>
+      </c>
+      <c r="J61">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K61">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="Q61">
+        <v>2.758690028292597</v>
+      </c>
+      <c r="R61">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S61">
+        <v>2.000110662910683</v>
+      </c>
+      <c r="T61">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U61">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AA61">
+        <v>2.830695512332012</v>
+      </c>
+      <c r="AB61">
+        <v>2.235462686989138</v>
+      </c>
+      <c r="AC61">
+        <v>2.084796079517798</v>
+      </c>
+      <c r="AD61">
+        <v>1.516681663998242</v>
+      </c>
+      <c r="AE61">
+        <v>1.411285128761898</v>
+      </c>
+      <c r="AK61">
+        <v>2.713348423296483</v>
+      </c>
+      <c r="AL61">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM61">
+        <v>1.82936112405534</v>
+      </c>
+      <c r="AN61">
+        <v>1.516935328183955</v>
+      </c>
+      <c r="AO61">
+        <v>1.343671856960668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I62">
+        <v>1.931145164502647</v>
+      </c>
+      <c r="J62">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K62">
+        <v>1.504033480251832</v>
+      </c>
+      <c r="R62">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S62">
+        <v>2.007657293849889</v>
+      </c>
+      <c r="T62">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U62">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AB62">
+        <v>0.3968808590356696</v>
+      </c>
+      <c r="AC62">
+        <v>0.04261324777657793</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I63">
+        <v>2.057815423028412</v>
+      </c>
+      <c r="J63">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K63">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="R63">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S63">
+        <v>2.004404009879726</v>
+      </c>
+      <c r="T63">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U63">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AB63">
+        <v>2.244011973712878</v>
+      </c>
+      <c r="AC63">
+        <v>2.084717585788078</v>
+      </c>
+      <c r="AD63">
+        <v>1.539168338781807</v>
+      </c>
+      <c r="AE63">
+        <v>1.411798541089573</v>
+      </c>
+      <c r="AL63">
+        <v>0.00124188042653528</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I64">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J64">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K64">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="R64">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S64">
+        <v>1.995930873819045</v>
+      </c>
+      <c r="T64">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U64">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB64">
+        <v>2.282128595984922</v>
+      </c>
+      <c r="AC64">
+        <v>2.185056101626922</v>
+      </c>
+      <c r="AD64">
+        <v>1.546864531171943</v>
+      </c>
+      <c r="AE64">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AL64">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM64">
+        <v>1.970668926410822</v>
+      </c>
+      <c r="AN64">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO64">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I65">
+        <v>2.013851786937903</v>
+      </c>
+      <c r="J65">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K65">
+        <v>1.495870309110723</v>
+      </c>
+      <c r="R65">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S65">
+        <v>2.004327647047382</v>
+      </c>
+      <c r="T65">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U65">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AB65">
+        <v>2.231026187623672</v>
+      </c>
+      <c r="AC65">
+        <v>2.085099124135348</v>
+      </c>
+      <c r="AD65">
+        <v>1.530727567997616</v>
+      </c>
+      <c r="AE65">
+        <v>1.411751867967422</v>
+      </c>
+      <c r="AL65">
+        <v>2.034750678765395</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1.363900126444843</v>
+      </c>
+      <c r="AO65">
+        <v>1.287450044494011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I66">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J66">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K66">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="R66">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S66">
+        <v>1.999707142133507</v>
+      </c>
+      <c r="T66">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U66">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB66">
+        <v>2.285733574531963</v>
+      </c>
+      <c r="AC66">
+        <v>2.184423525365328</v>
+      </c>
+      <c r="AD66">
+        <v>1.546972664192289</v>
+      </c>
+      <c r="AE66">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AL66">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM66">
+        <v>1.959205404922513</v>
+      </c>
+      <c r="AN66">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO66">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I67">
+        <v>2.097279330160376</v>
+      </c>
+      <c r="J67">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K67">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="R67">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S67">
+        <v>1.999963990741638</v>
+      </c>
+      <c r="T67">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U67">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB67">
+        <v>2.282248406430442</v>
+      </c>
+      <c r="AC67">
+        <v>2.165056344695645</v>
+      </c>
+      <c r="AD67">
+        <v>1.547010138054658</v>
+      </c>
+      <c r="AE67">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AL67">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM67">
+        <v>1.959206510663008</v>
+      </c>
+      <c r="AN67">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO67">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I68">
+        <v>2.097328602958155</v>
+      </c>
+      <c r="J68">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K68">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="R68">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S68">
+        <v>1.997297340900375</v>
+      </c>
+      <c r="T68">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U68">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AB68">
+        <v>2.282244987422441</v>
+      </c>
+      <c r="AC68">
+        <v>2.184372403735303</v>
+      </c>
+      <c r="AD68">
+        <v>1.546835410683476</v>
+      </c>
+      <c r="AE68">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AL68">
+        <v>2.10885245486647</v>
+      </c>
+      <c r="AM68">
+        <v>1.969956430222368</v>
+      </c>
+      <c r="AN68">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO68">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69">
+        <v>2.109443101621856</v>
+      </c>
+      <c r="I69">
+        <v>1.78011480398152</v>
+      </c>
+      <c r="J69">
+        <v>1.517886000620267</v>
+      </c>
+      <c r="K69">
+        <v>1.46794161895915</v>
+      </c>
+      <c r="R69">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S69">
+        <v>2.000143277452073</v>
+      </c>
+      <c r="T69">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U69">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70">
+        <v>2.110624301841317</v>
+      </c>
+      <c r="I70">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J70">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K70">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="R70">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S70">
+        <v>1.996065502396988</v>
+      </c>
+      <c r="T70">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U70">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AB70">
+        <v>2.282361939430633</v>
+      </c>
+      <c r="AC70">
+        <v>2.164740143264968</v>
+      </c>
+      <c r="AD70">
+        <v>1.546711371059223</v>
+      </c>
+      <c r="AE70">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AL70">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM70">
+        <v>1.958796347208222</v>
+      </c>
+      <c r="AN70">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO70">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <v>2.094417817234849</v>
+      </c>
+      <c r="I71">
+        <v>1.692453794241911</v>
+      </c>
+      <c r="J71">
+        <v>1.509130700505157</v>
+      </c>
+      <c r="K71">
+        <v>1.341127115387129</v>
+      </c>
+      <c r="R71">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S71">
+        <v>2.004599025428359</v>
+      </c>
+      <c r="T71">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U71">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>1.981318070597175</v>
+      </c>
+      <c r="J72">
+        <v>1.500097177930461</v>
+      </c>
+      <c r="K72">
+        <v>1.486035611804441</v>
+      </c>
+      <c r="S72">
+        <v>1.995757290699525</v>
+      </c>
+      <c r="T72">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U72">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AC72">
+        <v>1.893257052366984</v>
+      </c>
+      <c r="AD72">
+        <v>1.32156309253798</v>
+      </c>
+      <c r="AE72">
+        <v>1.321051070761926</v>
+      </c>
+      <c r="AM72">
+        <v>1.964430006384701</v>
+      </c>
+      <c r="AN72">
+        <v>1.497796856583744</v>
+      </c>
+      <c r="AO72">
+        <v>1.531391723013227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J73">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K73">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="S73">
+        <v>1.993169191870223</v>
+      </c>
+      <c r="T73">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U73">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AC73">
+        <v>2.164559196871576</v>
+      </c>
+      <c r="AD73">
+        <v>1.546893973269672</v>
+      </c>
+      <c r="AE73">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AM73">
+        <v>1.970324294084318</v>
+      </c>
+      <c r="AN73">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO73">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J74">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K74">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="S74">
+        <v>1.999721704203941</v>
+      </c>
+      <c r="T74">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U74">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC74">
+        <v>2.164694787052114</v>
+      </c>
+      <c r="AD74">
+        <v>1.546913429751356</v>
+      </c>
+      <c r="AE74">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AM74">
+        <v>1.959046895535956</v>
+      </c>
+      <c r="AN74">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO74">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>1.929089466515269</v>
+      </c>
+      <c r="J75">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K75">
+        <v>1.487345413394895</v>
+      </c>
+      <c r="S75">
+        <v>1.999745025525146</v>
+      </c>
+      <c r="T75">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U75">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AC75">
+        <v>0.07897356469107097</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1.9669359481078</v>
+      </c>
+      <c r="J76">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K76">
+        <v>1.491837015425449</v>
+      </c>
+      <c r="S76">
+        <v>1.99690291087691</v>
+      </c>
+      <c r="T76">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U76">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AC76">
+        <v>1.897603444827359</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0.08049483065037299</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>2.065139518968565</v>
+      </c>
+      <c r="J77">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K77">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="S77">
+        <v>1.996899779188188</v>
+      </c>
+      <c r="T77">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U77">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AC77">
+        <v>2.060326983724476</v>
+      </c>
+      <c r="AD77">
+        <v>1.460368024895546</v>
+      </c>
+      <c r="AE77">
+        <v>1.411845214066584</v>
+      </c>
+      <c r="AM77">
+        <v>0.1603398199833799</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>1.895109515058427</v>
+      </c>
+      <c r="J78">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K78">
+        <v>1.429774481731777</v>
+      </c>
+      <c r="S78">
+        <v>1.995885749845407</v>
+      </c>
+      <c r="T78">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U78">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AC78">
+        <v>0.074266863811143</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <v>1.853460466049268</v>
+      </c>
+      <c r="J79">
+        <v>1.484025872821261</v>
+      </c>
+      <c r="K79">
+        <v>1.470911049067075</v>
+      </c>
+      <c r="S79">
+        <v>2.002309578474343</v>
+      </c>
+      <c r="T79">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U79">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AC79">
+        <v>1.745827170975346</v>
+      </c>
+      <c r="AD79">
+        <v>1.18335397307688</v>
+      </c>
+      <c r="AE79">
+        <v>1.141909067837016</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>2.067285092941078</v>
+      </c>
+      <c r="J80">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K80">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="S80">
+        <v>1.995801493400569</v>
+      </c>
+      <c r="T80">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U80">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC80">
+        <v>2.085149408881981</v>
+      </c>
+      <c r="AD80">
+        <v>1.551016658309094</v>
+      </c>
+      <c r="AE80">
+        <v>1.411938559585216</v>
+      </c>
+      <c r="AM80">
+        <v>1.931463586849948</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>1.421469681413624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>2.097377875537593</v>
+      </c>
+      <c r="J81">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K81">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="S81">
+        <v>1.999593856976595</v>
+      </c>
+      <c r="T81">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U81">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC81">
+        <v>2.164838215118219</v>
+      </c>
+      <c r="AD81">
+        <v>1.546959940981083</v>
+      </c>
+      <c r="AE81">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AM81">
+        <v>1.970504256029517</v>
+      </c>
+      <c r="AN81">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO81">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K82">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T82">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U82">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD82">
+        <v>1.54704829240614</v>
+      </c>
+      <c r="AE82">
+        <v>1.525361022048251</v>
+      </c>
+      <c r="AN82">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO82">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K83">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="T83">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U83">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD83">
+        <v>1.546818690510622</v>
+      </c>
+      <c r="AE83">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AN83">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO83">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>1.517840411458974</v>
+      </c>
+      <c r="K84">
+        <v>1.504751399032438</v>
+      </c>
+      <c r="T84">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U84">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD84">
+        <v>1.44142110635153</v>
+      </c>
+      <c r="AE84">
+        <v>1.293422648294876</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K85">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="T85">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U85">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD85">
+        <v>1.546987705755523</v>
+      </c>
+      <c r="AE85">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AN85">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO85">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K86">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T86">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U86">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AD86">
+        <v>1.544302737998293</v>
+      </c>
+      <c r="AE86">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AN86">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO86">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K87">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="T87">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U87">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AD87">
+        <v>1.546991539894304</v>
+      </c>
+      <c r="AE87">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AN87">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO87">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K88">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T88">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U88">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD88">
+        <v>1.547069395360773</v>
+      </c>
+      <c r="AE88">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AN88">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO88">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K89">
+        <v>1.495434842833189</v>
+      </c>
+      <c r="T89">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U89">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K90">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="T90">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U90">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD90">
+        <v>1.547040941804208</v>
+      </c>
+      <c r="AE90">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AN90">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO90">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K91">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T91">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U91">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AD91">
+        <v>1.54684983121822</v>
+      </c>
+      <c r="AE91">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AN91">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO91">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="K92">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="U92">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AE92">
+        <v>1.525634438244698</v>
+      </c>
+      <c r="AO92">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="U93">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AE93">
+        <v>1.504353676186826</v>
+      </c>
+      <c r="AO93">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="U94">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K95">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="U95">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AE95">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96">
+        <v>1.496690551353988</v>
+      </c>
+      <c r="U96">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="K97">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="U97">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AE97">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AO97">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98">
+        <v>1.467220726877942</v>
+      </c>
+      <c r="U98">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="K99">
+        <v>1.493204798532356</v>
+      </c>
+      <c r="U99">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AE99">
+        <v>1.471916726906687</v>
+      </c>
+      <c r="AO99">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K100">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="U100">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AE100">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AO100">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="U101">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AE101">
+        <v>1.351913736244373</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>80</v>
+      </c>
+      <c r="J102">
+        <v>90</v>
+      </c>
+      <c r="K102">
+        <v>100</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>20</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <v>40</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="Q102">
+        <v>60</v>
+      </c>
+      <c r="R102">
+        <v>70</v>
+      </c>
+      <c r="S102">
+        <v>80</v>
+      </c>
+      <c r="T102">
+        <v>90</v>
+      </c>
+      <c r="U102">
+        <v>100</v>
+      </c>
+      <c r="V102">
+        <v>10</v>
+      </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
+      <c r="X102">
+        <v>30</v>
+      </c>
+      <c r="Y102">
+        <v>40</v>
+      </c>
+      <c r="Z102">
+        <v>50</v>
+      </c>
+      <c r="AA102">
+        <v>60</v>
+      </c>
+      <c r="AB102">
+        <v>70</v>
+      </c>
+      <c r="AC102">
+        <v>80</v>
+      </c>
+      <c r="AD102">
+        <v>90</v>
+      </c>
+      <c r="AE102">
+        <v>100</v>
+      </c>
+      <c r="AF102">
+        <v>10</v>
+      </c>
+      <c r="AG102">
+        <v>20</v>
+      </c>
+      <c r="AH102">
+        <v>30</v>
+      </c>
+      <c r="AI102">
+        <v>40</v>
+      </c>
+      <c r="AJ102">
+        <v>50</v>
+      </c>
+      <c r="AK102">
+        <v>60</v>
+      </c>
+      <c r="AL102">
+        <v>70</v>
+      </c>
+      <c r="AM102">
+        <v>80</v>
+      </c>
+      <c r="AN102">
+        <v>90</v>
+      </c>
+      <c r="AO102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C103">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E103">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="M103">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="N103">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="O103">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="W103">
         <v>1</v>
       </c>
-      <c r="L55">
+      <c r="X103">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Y103">
+        <v>0.7</v>
+      </c>
+      <c r="Z103">
+        <v>0.64</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="AG103">
         <v>1</v>
       </c>
-      <c r="N55">
+      <c r="AH103">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="AI103">
+        <v>0.75</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="P55">
+      <c r="D104">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="M104">
         <v>1</v>
       </c>
-      <c r="R55">
+      <c r="N104">
         <v>1</v>
       </c>
-      <c r="S55">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
         <v>1</v>
       </c>
-      <c r="T55">
+      <c r="W104">
         <v>1</v>
       </c>
-      <c r="U55">
+      <c r="X104">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>0.9</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="I105">
+        <v>0.2875</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0.7375</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Y105">
+        <v>0.25</v>
+      </c>
+      <c r="Z105">
+        <v>0.3</v>
+      </c>
+      <c r="AA105">
+        <v>0.25</v>
+      </c>
+      <c r="AB105">
+        <v>0.3</v>
+      </c>
+      <c r="AC105">
+        <v>0.35</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AI105">
+        <v>0.2</v>
+      </c>
+      <c r="AJ105">
+        <v>0.34</v>
+      </c>
+      <c r="AK105">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="AL105">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AM105">
+        <v>0.9875</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>1</v>
       </c>
     </row>

--- a/multiplus_simulator/results/qoe_sim2.xlsx
+++ b/multiplus_simulator/results/qoe_sim2.xlsx
@@ -802,124 +802,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C2">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D2">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E2">
-        <v>3.525660526637306</v>
+        <v>3.556804565660268</v>
       </c>
       <c r="F2">
-        <v>2.889777355055949</v>
+        <v>2.963655339035202</v>
       </c>
       <c r="G2">
-        <v>2.820395866134594</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H2">
-        <v>2.110476658613093</v>
+        <v>2.186329059666106</v>
       </c>
       <c r="I2">
-        <v>2.097377875537593</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J2">
-        <v>1.5206211334196</v>
+        <v>1.592698558393001</v>
       </c>
       <c r="K2">
-        <v>1.50840089361606</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M2">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N2">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O2">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P2">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q2">
-        <v>2.764201631723027</v>
+        <v>2.813751258986831</v>
       </c>
       <c r="R2">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S2">
-        <v>2.004461617988362</v>
+        <v>2.078296228670651</v>
       </c>
       <c r="T2">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U2">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="V2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W2">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X2">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y2">
-        <v>3.677235237754882</v>
+        <v>3.79838715695367</v>
       </c>
       <c r="Z2">
-        <v>3.231232913303785</v>
+        <v>3.523938891597444</v>
       </c>
       <c r="AA2">
-        <v>2.913786223319847</v>
+        <v>2.988565767723709</v>
       </c>
       <c r="AB2">
-        <v>2.285765206977241</v>
+        <v>2.464947218878786</v>
       </c>
       <c r="AC2">
-        <v>2.184923887678693</v>
+        <v>2.287559783043193</v>
       </c>
       <c r="AD2">
-        <v>1.546907137197541</v>
+        <v>1.827332048918688</v>
       </c>
       <c r="AE2">
-        <v>1.525543299983518</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AF2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG2">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH2">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI2">
-        <v>3.527060509738344</v>
+        <v>3.54617508534869</v>
       </c>
       <c r="AJ2">
-        <v>2.864755633445636</v>
+        <v>2.962779785154365</v>
       </c>
       <c r="AK2">
-        <v>2.767358160951923</v>
+        <v>2.670140999080676</v>
       </c>
       <c r="AL2">
-        <v>2.108950898152964</v>
+        <v>2.139028086372336</v>
       </c>
       <c r="AM2">
-        <v>1.967658653829865</v>
+        <v>2.013006585760733</v>
       </c>
       <c r="AN2">
-        <v>1.519116863155586</v>
+        <v>1.55580650107411</v>
       </c>
       <c r="AO2">
-        <v>1.506941187875634</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -927,124 +927,124 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C3">
-        <v>4.354310450762908</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D3">
-        <v>4.208815860913093</v>
+        <v>4.234392075499763</v>
       </c>
       <c r="E3">
-        <v>3.525660526637306</v>
+        <v>3.556709979838356</v>
       </c>
       <c r="F3">
-        <v>2.890109268398218</v>
+        <v>2.962975976580995</v>
       </c>
       <c r="G3">
-        <v>2.799477909667471</v>
+        <v>2.828547897198233</v>
       </c>
       <c r="H3">
-        <v>2.110575087647683</v>
+        <v>2.186076092103819</v>
       </c>
       <c r="I3">
-        <v>2.076527147697883</v>
+        <v>2.103757958963791</v>
       </c>
       <c r="J3">
-        <v>1.520757878870674</v>
+        <v>1.592795095008701</v>
       </c>
       <c r="K3">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="L3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M3">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N3">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O3">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P3">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q3">
-        <v>2.76145540137663</v>
+        <v>2.817533657278169</v>
       </c>
       <c r="R3">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S3">
-        <v>1.993390419431383</v>
+        <v>2.072788957328349</v>
       </c>
       <c r="T3">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U3">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W3">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X3">
-        <v>4.305719850526982</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y3">
-        <v>3.639473260411191</v>
+        <v>1.691186763816058</v>
       </c>
       <c r="Z3">
-        <v>3.16831124748362</v>
+        <v>1.407296711485281</v>
       </c>
       <c r="AA3">
-        <v>2.786911188743249</v>
+        <v>1.038239002396798</v>
       </c>
       <c r="AB3">
-        <v>2.278947939008965</v>
+        <v>0.6031915829592605</v>
       </c>
       <c r="AC3">
-        <v>2.032103148976711</v>
+        <v>0.4029950769111352</v>
       </c>
       <c r="AD3">
-        <v>1.533861142414341</v>
+        <v>0.07056686585729088</v>
       </c>
       <c r="AE3">
-        <v>1.408280507988589</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG3">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH3">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI3">
-        <v>3.530233878273997</v>
+        <v>1.837716800075136</v>
       </c>
       <c r="AJ3">
-        <v>2.867319867309409</v>
+        <v>2.964581563334753</v>
       </c>
       <c r="AK3">
-        <v>2.767405356768727</v>
+        <v>2.663894865812644</v>
       </c>
       <c r="AL3">
-        <v>2.093651557234417</v>
+        <v>0.4364120975243526</v>
       </c>
       <c r="AM3">
-        <v>1.946095787094613</v>
+        <v>2.006641422237676</v>
       </c>
       <c r="AN3">
-        <v>1.51902569111609</v>
+        <v>1.555750501636753</v>
       </c>
       <c r="AO3">
-        <v>1.502492934502584</v>
+        <v>1.528293177607319</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1052,124 +1052,124 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C4">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D4">
-        <v>4.208759361652464</v>
+        <v>4.234067969230689</v>
       </c>
       <c r="E4">
-        <v>3.525714492239945</v>
+        <v>3.556791366667369</v>
       </c>
       <c r="F4">
-        <v>2.889727990447881</v>
+        <v>2.961921582178786</v>
       </c>
       <c r="G4">
-        <v>2.820447424555885</v>
+        <v>2.910225056755743</v>
       </c>
       <c r="H4">
-        <v>2.110476658613093</v>
+        <v>2.186207539771192</v>
       </c>
       <c r="I4">
-        <v>2.097377875537593</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J4">
-        <v>1.52066671535492</v>
+        <v>1.592843961843419</v>
       </c>
       <c r="K4">
-        <v>1.50844650744426</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="L4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M4">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N4">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O4">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P4">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q4">
-        <v>2.764059879951266</v>
+        <v>2.811100840405406</v>
       </c>
       <c r="R4">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S4">
-        <v>1.999785695523283</v>
+        <v>2.075638866019554</v>
       </c>
       <c r="T4">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U4">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="V4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W4">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X4">
-        <v>4.305608802370772</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y4">
-        <v>3.677178132351385</v>
+        <v>3.799484714029717</v>
       </c>
       <c r="Z4">
-        <v>3.216951760639233</v>
+        <v>3.524050038383385</v>
       </c>
       <c r="AA4">
-        <v>2.913684795861267</v>
+        <v>2.988556530164197</v>
       </c>
       <c r="AB4">
-        <v>2.28229870961126</v>
+        <v>2.46005600310659</v>
       </c>
       <c r="AC4">
-        <v>2.165115681346462</v>
+        <v>2.287690992919589</v>
       </c>
       <c r="AD4">
-        <v>1.546697256708501</v>
+        <v>1.832479718490654</v>
       </c>
       <c r="AE4">
-        <v>1.525588869172975</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AF4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG4">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH4">
-        <v>4.208081338751587</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI4">
-        <v>3.527051231328137</v>
+        <v>3.54618338581834</v>
       </c>
       <c r="AJ4">
-        <v>2.86450786950032</v>
+        <v>2.96285445182572</v>
       </c>
       <c r="AK4">
-        <v>2.767465985528612</v>
+        <v>2.67535579571355</v>
       </c>
       <c r="AL4">
-        <v>2.10900011947208</v>
+        <v>2.158955645375471</v>
       </c>
       <c r="AM4">
-        <v>1.970224983922891</v>
+        <v>2.013049780479768</v>
       </c>
       <c r="AN4">
-        <v>1.51902569111609</v>
+        <v>1.553090889943896</v>
       </c>
       <c r="AO4">
-        <v>1.506804334171242</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1177,85 +1177,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C5">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D5">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E5">
-        <v>3.525714492239945</v>
+        <v>3.567257296169886</v>
       </c>
       <c r="F5">
-        <v>2.890058328883075</v>
+        <v>2.972315231163436</v>
       </c>
       <c r="G5">
-        <v>2.62262546907228</v>
+        <v>2.600798298473273</v>
       </c>
       <c r="H5">
-        <v>2.110525873238279</v>
+        <v>2.181974534393759</v>
       </c>
       <c r="I5">
-        <v>1.844303143095068</v>
+        <v>1.834085257925086</v>
       </c>
       <c r="J5">
-        <v>1.520712297171943</v>
+        <v>1.592564501294263</v>
       </c>
       <c r="K5">
-        <v>1.369008945268217</v>
+        <v>1.338486519215443</v>
       </c>
       <c r="L5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M5">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N5">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O5">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P5">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q5">
-        <v>2.767381342494056</v>
+        <v>2.817569513457294</v>
       </c>
       <c r="R5">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S5">
-        <v>2.004699220251368</v>
+        <v>2.05878154261223</v>
       </c>
       <c r="T5">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U5">
-        <v>1.502652591655297</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W5">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X5">
-        <v>1.315201140710784</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6582174244065424</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.486317857825211</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.6731370406493888</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.1729015414086115</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1267,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG5">
-        <v>4.353870335352307</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH5">
-        <v>2.033254006684552</v>
+        <v>0.2299636411701749</v>
       </c>
       <c r="AI5">
-        <v>0.6218438500253669</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1302,124 +1302,124 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C6">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D6">
-        <v>4.208759361652464</v>
+        <v>4.234329905234914</v>
       </c>
       <c r="E6">
-        <v>3.525660526637306</v>
+        <v>3.556827980399216</v>
       </c>
       <c r="F6">
-        <v>2.890573419189126</v>
+        <v>2.965686394712647</v>
       </c>
       <c r="G6">
-        <v>2.805640809272398</v>
+        <v>2.825460032835458</v>
       </c>
       <c r="H6">
-        <v>2.110476658613093</v>
+        <v>2.176017284782046</v>
       </c>
       <c r="I6">
-        <v>2.035748941866389</v>
+        <v>2.116686604143102</v>
       </c>
       <c r="J6">
-        <v>1.520757878870674</v>
+        <v>1.59618770207724</v>
       </c>
       <c r="K6">
-        <v>1.50844650744426</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M6">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N6">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O6">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P6">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q6">
-        <v>2.76115642297527</v>
+        <v>2.810961373232916</v>
       </c>
       <c r="R6">
-        <v>2.104470852389523</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S6">
-        <v>1.995614437685412</v>
+        <v>2.066967233765349</v>
       </c>
       <c r="T6">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U6">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="V6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W6">
-        <v>4.357555577457716</v>
+        <v>4.366404453216329</v>
       </c>
       <c r="X6">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y6">
-        <v>3.658512063431052</v>
+        <v>1.707228734711546</v>
       </c>
       <c r="Z6">
-        <v>3.15942294199214</v>
+        <v>1.447509414271686</v>
       </c>
       <c r="AA6">
-        <v>2.779382165597999</v>
+        <v>0.9899953649786934</v>
       </c>
       <c r="AB6">
-        <v>2.250883878833587</v>
+        <v>0.5762990981677432</v>
       </c>
       <c r="AC6">
-        <v>2.011438046323695</v>
+        <v>0.3639550289460398</v>
       </c>
       <c r="AD6">
-        <v>1.505154488214656</v>
+        <v>0.07376319953401422</v>
       </c>
       <c r="AE6">
-        <v>1.345421897611886</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG6">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH6">
-        <v>4.20813784290081</v>
+        <v>2.156362162427975</v>
       </c>
       <c r="AI6">
-        <v>3.53229349781664</v>
+        <v>1.621983747570031</v>
       </c>
       <c r="AJ6">
-        <v>2.806366125263424</v>
+        <v>0.6007494681136614</v>
       </c>
       <c r="AK6">
-        <v>2.608164470617003</v>
+        <v>0.3217426038098428</v>
       </c>
       <c r="AL6">
-        <v>0.4503537423274704</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.849996734483666</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.506941187875634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1427,124 +1427,124 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C7">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D7">
-        <v>4.208815860913093</v>
+        <v>4.234016974862806</v>
       </c>
       <c r="E7">
-        <v>3.525714492239945</v>
+        <v>3.557019474172934</v>
       </c>
       <c r="F7">
-        <v>2.89053794148911</v>
+        <v>2.960903154983995</v>
       </c>
       <c r="G7">
-        <v>2.820344307434905</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H7">
-        <v>2.110476658613093</v>
+        <v>2.195059687035728</v>
       </c>
       <c r="I7">
-        <v>2.097476420041489</v>
+        <v>2.132503344909028</v>
       </c>
       <c r="J7">
-        <v>1.520712297171943</v>
+        <v>1.592790483949291</v>
       </c>
       <c r="K7">
-        <v>1.50840089361606</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M7">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N7">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O7">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P7">
-        <v>2.82740526083151</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q7">
-        <v>2.758407581216188</v>
+        <v>2.817562120203268</v>
       </c>
       <c r="R7">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S7">
-        <v>1.995768786026883</v>
+        <v>2.075692783122368</v>
       </c>
       <c r="T7">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U7">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W7">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X7">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y7">
-        <v>3.677279558049666</v>
+        <v>3.79899446091909</v>
       </c>
       <c r="Z7">
-        <v>3.23116208665237</v>
+        <v>3.52367162480889</v>
       </c>
       <c r="AA7">
-        <v>2.913786223319847</v>
+        <v>2.988282855795262</v>
       </c>
       <c r="AB7">
-        <v>2.282542915108126</v>
+        <v>2.465240561850428</v>
       </c>
       <c r="AC7">
-        <v>2.164712155260905</v>
+        <v>2.287384545591273</v>
       </c>
       <c r="AD7">
-        <v>1.546832622079021</v>
+        <v>1.827564720055971</v>
       </c>
       <c r="AE7">
-        <v>1.525497730676322</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AF7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG7">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH7">
-        <v>4.20813784290081</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI7">
-        <v>3.527109796713343</v>
+        <v>3.546185129107837</v>
       </c>
       <c r="AJ7">
-        <v>2.864764828175189</v>
+        <v>2.962719958320272</v>
       </c>
       <c r="AK7">
-        <v>2.768591586402481</v>
+        <v>2.67014890754001</v>
       </c>
       <c r="AL7">
-        <v>2.108950898152964</v>
+        <v>2.158955227088438</v>
       </c>
       <c r="AM7">
-        <v>1.958882296606546</v>
+        <v>2.015816069412816</v>
       </c>
       <c r="AN7">
-        <v>1.51902569111609</v>
+        <v>1.553329597786518</v>
       </c>
       <c r="AO7">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1552,88 +1552,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C8">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D8">
-        <v>4.208759361652464</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E8">
-        <v>3.525768457501783</v>
+        <v>3.557125042017675</v>
       </c>
       <c r="F8">
-        <v>2.903889680206342</v>
+        <v>2.960692786517232</v>
       </c>
       <c r="G8">
-        <v>2.66093214136091</v>
+        <v>2.742546765549231</v>
       </c>
       <c r="H8">
-        <v>2.110476658613093</v>
+        <v>2.186059284746902</v>
       </c>
       <c r="I8">
-        <v>1.911539468475053</v>
+        <v>1.995428577340872</v>
       </c>
       <c r="J8">
-        <v>1.517247741565741</v>
+        <v>1.592749252980645</v>
       </c>
       <c r="K8">
-        <v>1.498434592322003</v>
+        <v>1.544592712910749</v>
       </c>
       <c r="L8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M8">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N8">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O8">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P8">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q8">
-        <v>2.760254568849421</v>
+        <v>2.816997894827027</v>
       </c>
       <c r="R8">
-        <v>2.104372369695162</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S8">
-        <v>1.99357080907889</v>
+        <v>2.069781593611346</v>
       </c>
       <c r="T8">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U8">
-        <v>1.502698220609431</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="V8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W8">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X8">
-        <v>4.193431259167405</v>
+        <v>2.05219536562064</v>
       </c>
       <c r="Y8">
-        <v>1.547614624246765</v>
+        <v>0.6058463720907536</v>
       </c>
       <c r="Z8">
-        <v>1.099217770357973</v>
+        <v>0.2960714472497767</v>
       </c>
       <c r="AA8">
-        <v>0.7746667589843184</v>
+        <v>0.00279508048833188</v>
       </c>
       <c r="AB8">
-        <v>0.3394907491822192</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.2169565678185126</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1642,22 +1642,22 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG8">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH8">
-        <v>4.18957054113328</v>
+        <v>1.893235345025585</v>
       </c>
       <c r="AI8">
-        <v>3.466061204367536</v>
+        <v>0.556738258631774</v>
       </c>
       <c r="AJ8">
-        <v>1.277058801586582</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.1073243172424552</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1.452753974613545</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1677,124 +1677,124 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C9">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D9">
-        <v>4.208759361652464</v>
+        <v>4.234350860310647</v>
       </c>
       <c r="E9">
-        <v>3.525660526637306</v>
+        <v>3.556686021134493</v>
       </c>
       <c r="F9">
-        <v>2.890005673650621</v>
+        <v>2.966370220937785</v>
       </c>
       <c r="G9">
-        <v>2.82049898269879</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H9">
-        <v>2.110525873238279</v>
+        <v>2.186875101400471</v>
       </c>
       <c r="I9">
-        <v>2.097427147898701</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J9">
-        <v>1.520575551365979</v>
+        <v>1.592691588228413</v>
       </c>
       <c r="K9">
-        <v>1.508537734741536</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="L9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M9">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N9">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O9">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P9">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q9">
-        <v>2.76410979445815</v>
+        <v>2.813491259235897</v>
       </c>
       <c r="R9">
-        <v>2.104372369695162</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S9">
-        <v>1.999247895507501</v>
+        <v>2.075702213341918</v>
       </c>
       <c r="T9">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U9">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="V9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W9">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X9">
-        <v>4.305664326639549</v>
+        <v>4.318701990909823</v>
       </c>
       <c r="Y9">
-        <v>3.677108057010368</v>
+        <v>3.798272183422866</v>
       </c>
       <c r="Z9">
-        <v>3.231305938282028</v>
+        <v>3.52385275537578</v>
       </c>
       <c r="AA9">
-        <v>2.913735509717907</v>
+        <v>2.988243729830046</v>
       </c>
       <c r="AB9">
-        <v>2.282286389914672</v>
+        <v>2.46192167832818</v>
       </c>
       <c r="AC9">
-        <v>2.164665903682081</v>
+        <v>2.287693684496124</v>
       </c>
       <c r="AD9">
-        <v>1.547095160849788</v>
+        <v>1.827660008870608</v>
       </c>
       <c r="AE9">
-        <v>1.525497730676322</v>
+        <v>1.56620396433895</v>
       </c>
       <c r="AF9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG9">
-        <v>4.353870335352307</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH9">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI9">
-        <v>3.527083318193511</v>
+        <v>3.546212378045175</v>
       </c>
       <c r="AJ9">
-        <v>2.864384493352855</v>
+        <v>2.96293133568928</v>
       </c>
       <c r="AK9">
-        <v>2.767502023714569</v>
+        <v>2.670114416305717</v>
       </c>
       <c r="AL9">
-        <v>2.10900011947208</v>
+        <v>2.159535446154207</v>
       </c>
       <c r="AM9">
-        <v>1.959240226223695</v>
+        <v>2.016233336973522</v>
       </c>
       <c r="AN9">
-        <v>1.519116863155586</v>
+        <v>1.555447822422984</v>
       </c>
       <c r="AO9">
-        <v>1.506804334171242</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1802,124 +1802,124 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C10">
-        <v>4.354365463538436</v>
+        <v>4.364206856561549</v>
       </c>
       <c r="D10">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E10">
-        <v>3.525660526637306</v>
+        <v>3.556784968239679</v>
       </c>
       <c r="F10">
-        <v>2.890244923250669</v>
+        <v>2.963218855081734</v>
       </c>
       <c r="G10">
-        <v>2.820344307434905</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H10">
-        <v>2.110476658613093</v>
+        <v>2.210599978032847</v>
       </c>
       <c r="I10">
-        <v>2.097427147898701</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J10">
-        <v>1.520712297171943</v>
+        <v>1.59264712373174</v>
       </c>
       <c r="K10">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M10">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N10">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O10">
-        <v>3.521612134076021</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P10">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q10">
-        <v>2.758386948476693</v>
+        <v>2.810748930408575</v>
       </c>
       <c r="R10">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S10">
-        <v>1.99565581917643</v>
+        <v>2.075834910578189</v>
       </c>
       <c r="T10">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U10">
-        <v>1.502561333385865</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="V10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W10">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X10">
-        <v>4.305775374033089</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y10">
-        <v>3.67718314368513</v>
+        <v>3.838383033476796</v>
       </c>
       <c r="Z10">
-        <v>3.231445736987255</v>
+        <v>3.523882099361603</v>
       </c>
       <c r="AA10">
-        <v>2.913595262278476</v>
+        <v>2.988209145446227</v>
       </c>
       <c r="AB10">
-        <v>2.282445517163374</v>
+        <v>2.465200466373795</v>
       </c>
       <c r="AC10">
-        <v>2.164834283309236</v>
+        <v>2.287695619615445</v>
       </c>
       <c r="AD10">
-        <v>1.546936705154534</v>
+        <v>1.827665989582011</v>
       </c>
       <c r="AE10">
-        <v>1.525452161251381</v>
+        <v>1.60073490737322</v>
       </c>
       <c r="AF10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG10">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH10">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI10">
-        <v>3.527096049469897</v>
+        <v>3.546225371709959</v>
       </c>
       <c r="AJ10">
-        <v>2.864963492191396</v>
+        <v>2.962591098076682</v>
       </c>
       <c r="AK10">
-        <v>2.76840724567464</v>
+        <v>2.670117360683929</v>
       </c>
       <c r="AL10">
-        <v>2.108950898152964</v>
+        <v>2.159038526095424</v>
       </c>
       <c r="AM10">
-        <v>1.970365753035668</v>
+        <v>2.013146932601667</v>
       </c>
       <c r="AN10">
-        <v>1.519071277195078</v>
+        <v>1.553114859645449</v>
       </c>
       <c r="AO10">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1927,124 +1927,124 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C11">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D11">
-        <v>4.208759361652464</v>
+        <v>4.234028917439478</v>
       </c>
       <c r="E11">
-        <v>3.525714492239945</v>
+        <v>3.557055914038554</v>
       </c>
       <c r="F11">
-        <v>2.890007389107182</v>
+        <v>2.963396327586514</v>
       </c>
       <c r="G11">
-        <v>2.820395866134594</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H11">
-        <v>2.110722729581302</v>
+        <v>2.20959955448148</v>
       </c>
       <c r="I11">
-        <v>2.097427147898701</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J11">
-        <v>1.5206211334196</v>
+        <v>1.594636428607957</v>
       </c>
       <c r="K11">
-        <v>1.508583348210625</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="L11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M11">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N11">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O11">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P11">
-        <v>2.827353739882428</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q11">
-        <v>2.759934685332591</v>
+        <v>2.823901666293644</v>
       </c>
       <c r="R11">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S11">
-        <v>1.999731477449726</v>
+        <v>2.075581309584793</v>
       </c>
       <c r="T11">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U11">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V11">
-        <v>4.369040801957648</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W11">
-        <v>4.357610568619839</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X11">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y11">
-        <v>3.677219857219276</v>
+        <v>3.798285543139793</v>
       </c>
       <c r="Z11">
-        <v>3.231084354133285</v>
+        <v>3.523776823539369</v>
       </c>
       <c r="AA11">
-        <v>2.913684795861267</v>
+        <v>2.988569565817119</v>
       </c>
       <c r="AB11">
-        <v>2.282301350403905</v>
+        <v>2.465115986082389</v>
       </c>
       <c r="AC11">
-        <v>2.184039113594481</v>
+        <v>2.287358259762554</v>
       </c>
       <c r="AD11">
-        <v>1.54698962493861</v>
+        <v>1.831913881461208</v>
       </c>
       <c r="AE11">
-        <v>1.525452161251381</v>
+        <v>1.600727072926047</v>
       </c>
       <c r="AF11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG11">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH11">
-        <v>4.20813784290081</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI11">
-        <v>3.527074423026233</v>
+        <v>3.546215167057249</v>
       </c>
       <c r="AJ11">
-        <v>2.864399660703523</v>
+        <v>2.962569851882508</v>
       </c>
       <c r="AK11">
-        <v>2.767350092282975</v>
+        <v>2.670372884451437</v>
       </c>
       <c r="AL11">
-        <v>2.108950898152964</v>
+        <v>2.138959707276573</v>
       </c>
       <c r="AM11">
-        <v>1.958916786413492</v>
+        <v>2.013246730868831</v>
       </c>
       <c r="AN11">
-        <v>1.51902569111609</v>
+        <v>1.55308751779065</v>
       </c>
       <c r="AO11">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2052,112 +2052,112 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D12">
-        <v>4.208815860913093</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E12">
-        <v>3.525660526637306</v>
+        <v>3.556897961696057</v>
       </c>
       <c r="F12">
-        <v>2.890181260405547</v>
+        <v>2.963309123713459</v>
       </c>
       <c r="G12">
-        <v>2.82049898269879</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H12">
-        <v>2.110575087647683</v>
+        <v>2.186165216233517</v>
       </c>
       <c r="I12">
-        <v>2.097427147898701</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J12">
-        <v>1.520575551365979</v>
+        <v>1.592877732123641</v>
       </c>
       <c r="K12">
-        <v>1.508583348210625</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="M12">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N12">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O12">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P12">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q12">
-        <v>2.764468585352596</v>
+        <v>2.81419456211994</v>
       </c>
       <c r="R12">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S12">
-        <v>1.997450127719318</v>
+        <v>2.067078779877165</v>
       </c>
       <c r="T12">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U12">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="W12">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X12">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y12">
-        <v>3.677265573440853</v>
+        <v>3.798576267201227</v>
       </c>
       <c r="Z12">
-        <v>3.231178586669011</v>
+        <v>3.52399845219659</v>
       </c>
       <c r="AA12">
-        <v>2.913786223319847</v>
+        <v>2.988263895997862</v>
       </c>
       <c r="AB12">
-        <v>2.282254515899784</v>
+        <v>2.496542893444124</v>
       </c>
       <c r="AC12">
-        <v>2.184396730024956</v>
+        <v>2.287499936015337</v>
       </c>
       <c r="AD12">
-        <v>1.546940550767799</v>
+        <v>1.832725735745013</v>
       </c>
       <c r="AE12">
-        <v>1.525543299983518</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AG12">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH12">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI12">
-        <v>3.527127828138703</v>
+        <v>3.54625759794933</v>
       </c>
       <c r="AJ12">
-        <v>2.864830639338876</v>
+        <v>2.962690119088857</v>
       </c>
       <c r="AK12">
-        <v>2.767449926301194</v>
+        <v>2.670051248823885</v>
       </c>
       <c r="AL12">
-        <v>2.10900011947208</v>
+        <v>2.159097538713941</v>
       </c>
       <c r="AM12">
-        <v>1.959275799447311</v>
+        <v>2.01354649922175</v>
       </c>
       <c r="AN12">
-        <v>1.518980104918619</v>
+        <v>1.555708912768826</v>
       </c>
       <c r="AO12">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2165,112 +2165,112 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D13">
-        <v>4.208815860913093</v>
+        <v>4.234393593914897</v>
       </c>
       <c r="E13">
-        <v>3.525660526637306</v>
+        <v>3.557051389161882</v>
       </c>
       <c r="F13">
-        <v>2.890405098579488</v>
+        <v>2.963384800677619</v>
       </c>
       <c r="G13">
-        <v>2.820344307434905</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H13">
-        <v>2.110575087647683</v>
+        <v>2.186514152208449</v>
       </c>
       <c r="I13">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J13">
-        <v>1.520757878870674</v>
+        <v>1.594454015218085</v>
       </c>
       <c r="K13">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="M13">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N13">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O13">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P13">
-        <v>2.827353739882428</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q13">
-        <v>2.760096641388192</v>
+        <v>2.814210682496578</v>
       </c>
       <c r="R13">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S13">
-        <v>2.00216766912457</v>
+        <v>2.078694697530432</v>
       </c>
       <c r="T13">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U13">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="W13">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X13">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y13">
-        <v>3.677224562855749</v>
+        <v>3.798199138948879</v>
       </c>
       <c r="Z13">
-        <v>3.231447147439823</v>
+        <v>3.523993335080902</v>
       </c>
       <c r="AA13">
-        <v>2.914140344257692</v>
+        <v>2.988564088548605</v>
       </c>
       <c r="AB13">
-        <v>2.282354257671705</v>
+        <v>2.461381046928406</v>
       </c>
       <c r="AC13">
-        <v>2.164691462178066</v>
+        <v>2.287851772850867</v>
       </c>
       <c r="AD13">
-        <v>1.546921721882957</v>
+        <v>1.827761109738129</v>
       </c>
       <c r="AE13">
-        <v>1.525452161251381</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AG13">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH13">
-        <v>4.208081338751587</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI13">
-        <v>3.527101152428635</v>
+        <v>3.546241631574523</v>
       </c>
       <c r="AJ13">
-        <v>2.86481615698162</v>
+        <v>2.95678600798424</v>
       </c>
       <c r="AK13">
-        <v>2.767330983274779</v>
+        <v>2.670309658928402</v>
       </c>
       <c r="AL13">
-        <v>2.108901676617765</v>
+        <v>2.159426122852476</v>
       </c>
       <c r="AM13">
-        <v>1.958801271657076</v>
+        <v>2.013038499479419</v>
       </c>
       <c r="AN13">
-        <v>1.51902569111609</v>
+        <v>1.555735542471012</v>
       </c>
       <c r="AO13">
-        <v>1.5068499521926</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2278,106 +2278,106 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D14">
-        <v>4.208759361652464</v>
+        <v>4.234227537554231</v>
       </c>
       <c r="E14">
-        <v>3.525660526637306</v>
+        <v>3.556938532174678</v>
       </c>
       <c r="F14">
-        <v>2.890007389107182</v>
+        <v>2.963417380723736</v>
       </c>
       <c r="G14">
-        <v>2.79134999006504</v>
+        <v>2.808135675984897</v>
       </c>
       <c r="H14">
-        <v>2.110427443772115</v>
+        <v>2.186102798568692</v>
       </c>
       <c r="I14">
-        <v>2.069510807579861</v>
+        <v>2.09169701442956</v>
       </c>
       <c r="J14">
-        <v>1.520757878870674</v>
+        <v>1.592729384050078</v>
       </c>
       <c r="K14">
-        <v>1.50849212115275</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="M14">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N14">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O14">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P14">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q14">
-        <v>2.758474307576502</v>
+        <v>2.814095805931924</v>
       </c>
       <c r="R14">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S14">
-        <v>1.999895298897807</v>
+        <v>2.072816890584516</v>
       </c>
       <c r="T14">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U14">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="W14">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X14">
-        <v>4.305719850526982</v>
+        <v>2.178958829849772</v>
       </c>
       <c r="Y14">
-        <v>3.665923096966814</v>
+        <v>1.665930889242148</v>
       </c>
       <c r="Z14">
-        <v>3.193740865296152</v>
+        <v>1.440952812136746</v>
       </c>
       <c r="AA14">
-        <v>2.84426575090546</v>
+        <v>1.040234643662634</v>
       </c>
       <c r="AB14">
-        <v>2.256184285948341</v>
+        <v>0.5928755099442642</v>
       </c>
       <c r="AC14">
-        <v>2.103079957420105</v>
+        <v>0.4520680987544008</v>
       </c>
       <c r="AD14">
-        <v>1.51472778510579</v>
+        <v>0.08327131375831875</v>
       </c>
       <c r="AE14">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH14">
-        <v>4.20813784290081</v>
+        <v>2.102265087614984</v>
       </c>
       <c r="AI14">
-        <v>3.524384585729384</v>
+        <v>1.564116404136766</v>
       </c>
       <c r="AJ14">
-        <v>2.80706684369909</v>
+        <v>1.077723240954922</v>
       </c>
       <c r="AK14">
-        <v>2.680863100231524</v>
+        <v>0.8152506950688228</v>
       </c>
       <c r="AL14">
-        <v>0.4703432914361692</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.3225790478953798</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -2391,112 +2391,112 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.354310450762908</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D15">
-        <v>4.208759361652464</v>
+        <v>4.234170032748971</v>
       </c>
       <c r="E15">
-        <v>3.525768457501783</v>
+        <v>3.55701496240102</v>
       </c>
       <c r="F15">
-        <v>2.890109268398218</v>
+        <v>2.965889151121673</v>
       </c>
       <c r="G15">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H15">
-        <v>2.110476658613093</v>
+        <v>2.186456289900447</v>
       </c>
       <c r="I15">
-        <v>2.097427147898701</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J15">
-        <v>1.520940204482798</v>
+        <v>1.59288793605607</v>
       </c>
       <c r="K15">
-        <v>1.508628961560021</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N15">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O15">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P15">
-        <v>2.827353739882428</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q15">
-        <v>2.764630940803113</v>
+        <v>2.814143335381767</v>
       </c>
       <c r="R15">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S15">
-        <v>1.995424751939921</v>
+        <v>2.089187039401813</v>
       </c>
       <c r="T15">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U15">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="W15">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X15">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y15">
-        <v>3.677235797039106</v>
+        <v>3.799359290690594</v>
       </c>
       <c r="Z15">
-        <v>3.231265291385245</v>
+        <v>3.523947320009993</v>
       </c>
       <c r="AA15">
-        <v>2.91398297641526</v>
+        <v>2.988574234141081</v>
       </c>
       <c r="AB15">
-        <v>2.282298511680435</v>
+        <v>2.461900473256513</v>
       </c>
       <c r="AC15">
-        <v>2.164701047606664</v>
+        <v>2.287583161960884</v>
       </c>
       <c r="AD15">
-        <v>1.546973082539003</v>
+        <v>1.827743790184824</v>
       </c>
       <c r="AE15">
-        <v>1.525543299983518</v>
+        <v>1.600876098106208</v>
       </c>
       <c r="AG15">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH15">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI15">
-        <v>3.527118513469095</v>
+        <v>3.546223381727478</v>
       </c>
       <c r="AJ15">
-        <v>2.86463542743722</v>
+        <v>2.962726893993247</v>
       </c>
       <c r="AK15">
-        <v>2.768340246660106</v>
+        <v>2.670126112242861</v>
       </c>
       <c r="AL15">
-        <v>2.108901676617765</v>
+        <v>2.15928053053036</v>
       </c>
       <c r="AM15">
-        <v>1.970668012931648</v>
+        <v>2.013002501314016</v>
       </c>
       <c r="AN15">
-        <v>1.519116863155586</v>
+        <v>1.553074122662041</v>
       </c>
       <c r="AO15">
-        <v>1.506941187875634</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2504,70 +2504,70 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.310105034003326</v>
+        <v>4.340488660629308</v>
       </c>
       <c r="D16">
-        <v>4.192586209515203</v>
+        <v>4.220297629021005</v>
       </c>
       <c r="E16">
-        <v>3.502894795031683</v>
+        <v>3.551467842944286</v>
       </c>
       <c r="F16">
-        <v>2.825492302038108</v>
+        <v>2.922470961933288</v>
       </c>
       <c r="G16">
-        <v>2.503746392996097</v>
+        <v>0.7474565683530987</v>
       </c>
       <c r="H16">
-        <v>2.100556144826836</v>
+        <v>0.3454391110757589</v>
       </c>
       <c r="I16">
-        <v>1.706507002188758</v>
+        <v>0.1449035853307086</v>
       </c>
       <c r="J16">
-        <v>1.514740069930878</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.221722760991542</v>
+        <v>1.424898756201432</v>
       </c>
       <c r="M16">
-        <v>4.353540233383545</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N16">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O16">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P16">
-        <v>2.82740526083151</v>
+        <v>2.851949420564865</v>
       </c>
       <c r="Q16">
-        <v>2.764724649264557</v>
+        <v>2.813766396984355</v>
       </c>
       <c r="R16">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S16">
-        <v>2.009174892261488</v>
+        <v>2.09034526454653</v>
       </c>
       <c r="T16">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U16">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W16">
-        <v>4.003599970093256</v>
+        <v>4.298390499006611</v>
       </c>
       <c r="X16">
-        <v>0.9516229997294916</v>
+        <v>0.03515478375945147</v>
       </c>
       <c r="Y16">
-        <v>0.4720904962768013</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.2398205405514662</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2579,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.7756091784430453</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.6999204053490039</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>4.311880635480208</v>
+        <v>4.340212657042962</v>
       </c>
       <c r="AH16">
-        <v>4.174069201839584</v>
+        <v>2.087557016729817</v>
       </c>
       <c r="AI16">
-        <v>1.654384433866804</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.5341990716539933</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2617,112 +2617,112 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.353925351062736</v>
+        <v>4.363657366449546</v>
       </c>
       <c r="D17">
-        <v>4.208363855423071</v>
+        <v>4.223379113305247</v>
       </c>
       <c r="E17">
-        <v>3.525174820875142</v>
+        <v>3.544473930150991</v>
       </c>
       <c r="F17">
-        <v>2.851930939376449</v>
+        <v>2.949090477742429</v>
       </c>
       <c r="G17">
-        <v>2.817043971027835</v>
+        <v>2.847220376793823</v>
       </c>
       <c r="H17">
-        <v>2.107326473341803</v>
+        <v>2.216953923574012</v>
       </c>
       <c r="I17">
-        <v>2.094322562367899</v>
+        <v>2.129359295113611</v>
       </c>
       <c r="J17">
-        <v>1.51774923278052</v>
+        <v>1.55919366957594</v>
       </c>
       <c r="K17">
-        <v>1.505435737752925</v>
+        <v>1.546037619024557</v>
       </c>
       <c r="M17">
-        <v>4.353540233383545</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N17">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O17">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P17">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q17">
-        <v>2.756738826748344</v>
+        <v>2.813965801004615</v>
       </c>
       <c r="R17">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S17">
-        <v>1.997571858276995</v>
+        <v>2.089110256881599</v>
       </c>
       <c r="T17">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U17">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W17">
-        <v>4.287338344996645</v>
+        <v>4.341702966222478</v>
       </c>
       <c r="X17">
-        <v>4.158683565013397</v>
+        <v>4.277862076756742</v>
       </c>
       <c r="Y17">
-        <v>3.518853586732726</v>
+        <v>3.790670645628912</v>
       </c>
       <c r="Z17">
-        <v>3.198660262484852</v>
+        <v>3.515095252948811</v>
       </c>
       <c r="AA17">
-        <v>2.803314657778556</v>
+        <v>2.905849275012468</v>
       </c>
       <c r="AB17">
-        <v>2.114027710620975</v>
+        <v>0.4446115972732698</v>
       </c>
       <c r="AC17">
-        <v>2.084460965847463</v>
+        <v>0.1445366113637838</v>
       </c>
       <c r="AD17">
-        <v>1.523159223255333</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.498089087397382</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>4.345978491634806</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH17">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI17">
-        <v>3.540076665617795</v>
+        <v>3.546877506050499</v>
       </c>
       <c r="AJ17">
-        <v>2.902737712904271</v>
+        <v>2.949344643007591</v>
       </c>
       <c r="AK17">
-        <v>2.765322780095055</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>2.10900011947208</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>1.959215094279678</v>
+        <v>1.980849390689121</v>
       </c>
       <c r="AN17">
-        <v>1.519162448997618</v>
+        <v>1.553104032732602</v>
       </c>
       <c r="AO17">
-        <v>1.506986805537321</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2730,61 +2730,61 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.270097530520596</v>
+        <v>4.315281707020137</v>
       </c>
       <c r="D18">
-        <v>4.149160462846855</v>
+        <v>4.182858702753354</v>
       </c>
       <c r="E18">
-        <v>3.462373866411606</v>
+        <v>3.531578269542885</v>
       </c>
       <c r="F18">
-        <v>2.824691119770725</v>
+        <v>2.925239273330048</v>
       </c>
       <c r="G18">
-        <v>2.453568282032955</v>
+        <v>0.6747801864124372</v>
       </c>
       <c r="H18">
-        <v>2.103289002760418</v>
+        <v>0.3409473368691167</v>
       </c>
       <c r="I18">
-        <v>1.728716545815538</v>
+        <v>0.09444195388342957</v>
       </c>
       <c r="J18">
-        <v>1.514010497914307</v>
+        <v>1.555378775650327</v>
       </c>
       <c r="K18">
-        <v>1.366765401797417</v>
+        <v>1.514189607886925</v>
       </c>
       <c r="M18">
-        <v>4.353485215104238</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N18">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O18">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P18">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q18">
-        <v>2.760035342430741</v>
+        <v>2.820078038611358</v>
       </c>
       <c r="R18">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S18">
-        <v>1.993629033547831</v>
+        <v>2.075762138342616</v>
       </c>
       <c r="T18">
-        <v>1.514603277498504</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U18">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W18">
-        <v>4.129728006476443</v>
+        <v>4.298390499006611</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>4.332812297756345</v>
+        <v>4.340157455212246</v>
       </c>
       <c r="AH18">
-        <v>4.135792896812471</v>
+        <v>1.852538365911777</v>
       </c>
       <c r="AI18">
-        <v>1.390277194729409</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.6907139510420648</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2843,112 +2843,112 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D19">
-        <v>4.208815860913093</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E19">
-        <v>3.524851001691732</v>
+        <v>3.544850856005044</v>
       </c>
       <c r="F19">
-        <v>2.860141252458964</v>
+        <v>2.963170078617731</v>
       </c>
       <c r="G19">
-        <v>2.744786215971927</v>
+        <v>2.84696329763263</v>
       </c>
       <c r="H19">
-        <v>2.107129557358022</v>
+        <v>2.216854654122062</v>
       </c>
       <c r="I19">
-        <v>2.033668446331499</v>
+        <v>2.130391032141421</v>
       </c>
       <c r="J19">
-        <v>1.513007286618791</v>
+        <v>1.561295928222928</v>
       </c>
       <c r="K19">
-        <v>1.4991388002591</v>
+        <v>1.545901068144086</v>
       </c>
       <c r="M19">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N19">
-        <v>4.205029509095937</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O19">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P19">
-        <v>2.827302218656588</v>
+        <v>2.851949420564865</v>
       </c>
       <c r="Q19">
-        <v>2.761640038681382</v>
+        <v>2.814274518039446</v>
       </c>
       <c r="R19">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S19">
-        <v>1.997275468445023</v>
+        <v>2.075709527073513</v>
       </c>
       <c r="T19">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U19">
-        <v>1.502424445078726</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="W19">
-        <v>4.329881443743906</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X19">
-        <v>4.21692542664201</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y19">
-        <v>3.44072418890967</v>
+        <v>3.798066623715198</v>
       </c>
       <c r="Z19">
-        <v>3.104453337008447</v>
+        <v>3.524013747943861</v>
       </c>
       <c r="AA19">
-        <v>2.574967282815929</v>
+        <v>0.8887611431317195</v>
       </c>
       <c r="AB19">
-        <v>2.01112358123512</v>
+        <v>0.4756848492009618</v>
       </c>
       <c r="AC19">
-        <v>2.003205653127273</v>
+        <v>0.1275814898415741</v>
       </c>
       <c r="AD19">
-        <v>1.408767363660993</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>1.421695570208137</v>
+        <v>1.54383968328244</v>
       </c>
       <c r="AG19">
-        <v>4.345923379507673</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH19">
-        <v>4.173140941539373</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI19">
-        <v>3.485158588682199</v>
+        <v>3.546172336929266</v>
       </c>
       <c r="AJ19">
-        <v>2.82518405847256</v>
+        <v>2.955790042076907</v>
       </c>
       <c r="AK19">
-        <v>2.654526936706464</v>
+        <v>1.173543030516108</v>
       </c>
       <c r="AL19">
-        <v>2.169535379334969</v>
+        <v>2.210846124471482</v>
       </c>
       <c r="AM19">
-        <v>2.017410286636473</v>
+        <v>1.980957226370089</v>
       </c>
       <c r="AN19">
-        <v>1.526330442030348</v>
+        <v>1.542719029070173</v>
       </c>
       <c r="AO19">
-        <v>1.497313171563195</v>
+        <v>1.533625911898626</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2956,79 +2956,79 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D20">
-        <v>4.208815860913093</v>
+        <v>4.234021130383714</v>
       </c>
       <c r="E20">
-        <v>3.525714492239945</v>
+        <v>3.55712213870012</v>
       </c>
       <c r="F20">
-        <v>2.88963880118839</v>
+        <v>2.965911857367384</v>
       </c>
       <c r="G20">
-        <v>2.781130057093063</v>
+        <v>2.761378411617878</v>
       </c>
       <c r="H20">
-        <v>2.110476658613093</v>
+        <v>2.209438692565909</v>
       </c>
       <c r="I20">
-        <v>2.019724685588744</v>
+        <v>2.00805789297425</v>
       </c>
       <c r="J20">
-        <v>1.52066671535492</v>
+        <v>1.592580335175763</v>
       </c>
       <c r="K20">
-        <v>1.508583348210625</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="M20">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N20">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O20">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P20">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q20">
-        <v>2.763834190082543</v>
+        <v>2.813634799702052</v>
       </c>
       <c r="R20">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S20">
-        <v>1.99983049947532</v>
+        <v>2.069837071009435</v>
       </c>
       <c r="T20">
-        <v>1.514740069930878</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U20">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="W20">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X20">
-        <v>4.235748238102348</v>
+        <v>1.028986752511098</v>
       </c>
       <c r="Y20">
-        <v>1.799073409857766</v>
+        <v>0.110119628733238</v>
       </c>
       <c r="Z20">
-        <v>1.563823794017177</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.220604585041082</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.6111505916400732</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.5150689256231831</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3037,25 +3037,25 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH20">
-        <v>4.186103945754448</v>
+        <v>1.210123804154414</v>
       </c>
       <c r="AI20">
-        <v>1.698289634158455</v>
+        <v>0.1001553816397003</v>
       </c>
       <c r="AJ20">
-        <v>1.164962309982912</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.1258337537738341</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0.486906202254199</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>1.878462664185498</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -3069,109 +3069,109 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D21">
-        <v>4.208872359766458</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E21">
-        <v>3.525768457501783</v>
+        <v>3.557070240484953</v>
       </c>
       <c r="F21">
-        <v>2.889843076607996</v>
+        <v>2.963270009210204</v>
       </c>
       <c r="G21">
-        <v>2.817028683035611</v>
+        <v>2.820995137036157</v>
       </c>
       <c r="H21">
-        <v>2.110427443772115</v>
+        <v>2.186257403239014</v>
       </c>
       <c r="I21">
-        <v>2.094257263418386</v>
+        <v>2.109022343501228</v>
       </c>
       <c r="J21">
-        <v>1.520712297171943</v>
+        <v>1.594679591876456</v>
       </c>
       <c r="K21">
-        <v>1.508628961560021</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="M21">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N21">
-        <v>4.204916455511758</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O21">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P21">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q21">
-        <v>2.75249240195065</v>
+        <v>2.810961463906492</v>
       </c>
       <c r="R21">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S21">
-        <v>1.995687580866009</v>
+        <v>2.090792066612457</v>
       </c>
       <c r="T21">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U21">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="W21">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X21">
-        <v>4.305664326639549</v>
+        <v>1.698600655910116</v>
       </c>
       <c r="Y21">
-        <v>3.672530916442016</v>
+        <v>1.764709612202954</v>
       </c>
       <c r="Z21">
-        <v>3.206710423262279</v>
+        <v>1.62754178511272</v>
       </c>
       <c r="AA21">
-        <v>2.873821197945186</v>
+        <v>1.167200189172056</v>
       </c>
       <c r="AB21">
-        <v>2.27806043085923</v>
+        <v>0.2349908741918558</v>
       </c>
       <c r="AC21">
-        <v>2.13106793281734</v>
+        <v>0.5578280272354297</v>
       </c>
       <c r="AD21">
-        <v>1.539249024345907</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1.45833322456107</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH21">
-        <v>4.20813784290081</v>
+        <v>2.1421674442604</v>
       </c>
       <c r="AI21">
-        <v>3.519749180491383</v>
+        <v>1.106481842851589</v>
       </c>
       <c r="AJ21">
-        <v>2.848780783483762</v>
+        <v>0.6645115905503463</v>
       </c>
       <c r="AK21">
-        <v>2.735144754950436</v>
+        <v>0.4077778429400876</v>
       </c>
       <c r="AL21">
-        <v>1.97396263963244</v>
+        <v>0.01751855232955868</v>
       </c>
       <c r="AM21">
-        <v>1.842010694852336</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>1.318047105764522</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -3182,58 +3182,58 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>3.852152907818603</v>
+        <v>4.136528329387904</v>
       </c>
       <c r="E22">
-        <v>3.160599756953959</v>
+        <v>1.418339647166478</v>
       </c>
       <c r="F22">
-        <v>2.572959519499024</v>
+        <v>0.7588014354706307</v>
       </c>
       <c r="G22">
-        <v>2.250563233487139</v>
+        <v>0.5853684022461896</v>
       </c>
       <c r="H22">
-        <v>1.937183799732575</v>
+        <v>0.09123149544054687</v>
       </c>
       <c r="I22">
-        <v>1.540257541799781</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.448750575274997</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.215743644275575</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O22">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P22">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q22">
-        <v>2.759931667049053</v>
+        <v>2.816765510404569</v>
       </c>
       <c r="R22">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S22">
-        <v>1.997353901316987</v>
+        <v>2.067104798362714</v>
       </c>
       <c r="T22">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U22">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="X22">
-        <v>0.7397554071073327</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.123659205061325</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3254,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>1.72408513439103</v>
+        <v>0.110887550668906</v>
       </c>
       <c r="AI22">
-        <v>1.048161388525018</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -3283,100 +3283,100 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>4.208815860913093</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E23">
-        <v>3.525714492239945</v>
+        <v>3.55673910324624</v>
       </c>
       <c r="F23">
-        <v>2.890058328883075</v>
+        <v>2.965877510310341</v>
       </c>
       <c r="G23">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H23">
-        <v>2.110575087647683</v>
+        <v>2.186085834160617</v>
       </c>
       <c r="I23">
-        <v>2.097427147898701</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J23">
-        <v>1.52066671535492</v>
+        <v>1.592651385934845</v>
       </c>
       <c r="K23">
-        <v>1.50840089361606</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="N23">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O23">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P23">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q23">
-        <v>2.761136127020975</v>
+        <v>2.814324539715416</v>
       </c>
       <c r="R23">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S23">
-        <v>1.997226384833212</v>
+        <v>2.06158201294554</v>
       </c>
       <c r="T23">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U23">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="X23">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y23">
-        <v>3.677194779033733</v>
+        <v>3.79423925738394</v>
       </c>
       <c r="Z23">
-        <v>3.231395558104219</v>
+        <v>3.524363972906143</v>
       </c>
       <c r="AA23">
-        <v>2.913735509717907</v>
+        <v>2.988224528834241</v>
       </c>
       <c r="AB23">
-        <v>2.282386925782872</v>
+        <v>2.464995828205268</v>
       </c>
       <c r="AC23">
-        <v>2.183902532196386</v>
+        <v>2.288691164558954</v>
       </c>
       <c r="AD23">
-        <v>1.547198063149412</v>
+        <v>1.815793855517778</v>
       </c>
       <c r="AE23">
-        <v>1.525406591708693</v>
+        <v>1.600594721772856</v>
       </c>
       <c r="AH23">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI23">
-        <v>3.527047569998316</v>
+        <v>3.546242318963678</v>
       </c>
       <c r="AJ23">
-        <v>2.864734675604007</v>
+        <v>2.962583787187449</v>
       </c>
       <c r="AK23">
-        <v>2.767301007353506</v>
+        <v>2.670119706944191</v>
       </c>
       <c r="AL23">
-        <v>2.108950898152964</v>
+        <v>2.15879506021027</v>
       </c>
       <c r="AM23">
-        <v>1.958561873772499</v>
+        <v>2.012891490674381</v>
       </c>
       <c r="AN23">
-        <v>1.519071277195078</v>
+        <v>1.552998287983569</v>
       </c>
       <c r="AO23">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3384,70 +3384,70 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E24">
-        <v>3.525768457501783</v>
+        <v>3.556845852805604</v>
       </c>
       <c r="F24">
-        <v>2.890213520455017</v>
+        <v>2.963590183239543</v>
       </c>
       <c r="G24">
-        <v>2.766533298036819</v>
+        <v>2.751740593432585</v>
       </c>
       <c r="H24">
-        <v>2.110624301841317</v>
+        <v>2.18623087888948</v>
       </c>
       <c r="I24">
-        <v>2.01091050663408</v>
+        <v>2.023445703780096</v>
       </c>
       <c r="J24">
-        <v>1.5206211334196</v>
+        <v>1.592825284920117</v>
       </c>
       <c r="K24">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="N24">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O24">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P24">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q24">
-        <v>2.764365166460629</v>
+        <v>2.823621054564534</v>
       </c>
       <c r="R24">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S24">
-        <v>2.004148850585952</v>
+        <v>2.078294467735655</v>
       </c>
       <c r="T24">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U24">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="X24">
-        <v>4.248285838524247</v>
+        <v>1.017695912954129</v>
       </c>
       <c r="Y24">
-        <v>1.861113457001347</v>
+        <v>0.7578315136342932</v>
       </c>
       <c r="Z24">
-        <v>1.551217409785244</v>
+        <v>0.4928409211604259</v>
       </c>
       <c r="AA24">
-        <v>1.123467368706417</v>
+        <v>0.2107993371335377</v>
       </c>
       <c r="AB24">
-        <v>0.6149334944871341</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.5297032009533531</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3456,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>4.153456168095641</v>
+        <v>2.057553884658901</v>
       </c>
       <c r="AI24">
-        <v>2.995054278194199</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1.01894360203681</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.830833257598089</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3485,94 +3485,94 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>3.854993629165308</v>
+        <v>4.142815232984333</v>
       </c>
       <c r="E25">
-        <v>3.179421637572318</v>
+        <v>1.405575450992445</v>
       </c>
       <c r="F25">
-        <v>2.572905693456056</v>
+        <v>0.8261289697302932</v>
       </c>
       <c r="G25">
-        <v>2.462203006067815</v>
+        <v>0.7758900793995964</v>
       </c>
       <c r="H25">
-        <v>1.961171434586047</v>
+        <v>0.1240465273883655</v>
       </c>
       <c r="I25">
-        <v>1.804237082865336</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.453118853789081</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.347359988046867</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.204916455511758</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O25">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P25">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q25">
-        <v>2.757306986996343</v>
+        <v>2.814121333227182</v>
       </c>
       <c r="R25">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S25">
-        <v>1.999772019170569</v>
+        <v>2.090618738186719</v>
       </c>
       <c r="T25">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U25">
-        <v>1.502424445078726</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="X25">
-        <v>3.617210375389097</v>
+        <v>0.7950469728357559</v>
       </c>
       <c r="Y25">
-        <v>2.906580895342661</v>
+        <v>0.449594076214757</v>
       </c>
       <c r="Z25">
-        <v>2.597850160293088</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>2.252612141024613</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.672414862480553</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1.668708469599962</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.118165041399527</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>3.909458491548861</v>
+        <v>2.11180697844113</v>
       </c>
       <c r="AI25">
-        <v>3.244181400355222</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.7502067024136534</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.5162611080659325</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.05581210061829123</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -3586,100 +3586,100 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>4.208759361652464</v>
+        <v>4.234019308638142</v>
       </c>
       <c r="E26">
-        <v>3.525714492239945</v>
+        <v>3.557068939766367</v>
       </c>
       <c r="F26">
-        <v>2.890058328883075</v>
+        <v>2.964236828381233</v>
       </c>
       <c r="G26">
-        <v>2.805891531389618</v>
+        <v>2.841242307283535</v>
       </c>
       <c r="H26">
-        <v>2.110525873238279</v>
+        <v>2.209662250110581</v>
       </c>
       <c r="I26">
-        <v>2.048314907422445</v>
+        <v>2.128905370151751</v>
       </c>
       <c r="J26">
-        <v>1.520712297171943</v>
+        <v>1.591940166508436</v>
       </c>
       <c r="K26">
-        <v>1.508628961560021</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="N26">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O26">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P26">
-        <v>2.82740526083151</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q26">
-        <v>2.764577609502984</v>
+        <v>2.814328851738976</v>
       </c>
       <c r="R26">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S26">
-        <v>1.99517506824942</v>
+        <v>2.067047053626199</v>
       </c>
       <c r="T26">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U26">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="X26">
-        <v>4.305719850526982</v>
+        <v>3.619098299622086</v>
       </c>
       <c r="Y26">
-        <v>3.662700873514293</v>
+        <v>1.73757389780847</v>
       </c>
       <c r="Z26">
-        <v>3.194337358553695</v>
+        <v>1.443545646026491</v>
       </c>
       <c r="AA26">
-        <v>2.844214342018183</v>
+        <v>0.980338748044278</v>
       </c>
       <c r="AB26">
-        <v>2.277339944535347</v>
+        <v>0.6133590581192252</v>
       </c>
       <c r="AC26">
-        <v>2.084672312239907</v>
+        <v>0.4415468428634481</v>
       </c>
       <c r="AD26">
-        <v>1.553571151705121</v>
+        <v>0.07377345822538572</v>
       </c>
       <c r="AE26">
-        <v>1.454203230798607</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>4.204993801499107</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI26">
-        <v>3.527928803798036</v>
+        <v>3.546876786923558</v>
       </c>
       <c r="AJ26">
-        <v>2.866218136173201</v>
+        <v>2.966031706497203</v>
       </c>
       <c r="AK26">
-        <v>2.630016347419353</v>
+        <v>2.658585703247483</v>
       </c>
       <c r="AL26">
-        <v>2.072072616390228</v>
+        <v>2.146379677796102</v>
       </c>
       <c r="AM26">
-        <v>1.937249656081444</v>
+        <v>2.023341105961717</v>
       </c>
       <c r="AN26">
-        <v>1.333509399108984</v>
+        <v>1.555889527818168</v>
       </c>
       <c r="AO26">
-        <v>1.466453527594514</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3687,100 +3687,100 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>4.208759361652464</v>
+        <v>4.23425280419552</v>
       </c>
       <c r="E27">
-        <v>3.525714492239945</v>
+        <v>3.556791489065525</v>
       </c>
       <c r="F27">
-        <v>2.902106821870408</v>
+        <v>2.965842157478523</v>
       </c>
       <c r="G27">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H27">
-        <v>2.110476658613093</v>
+        <v>2.186123827530894</v>
       </c>
       <c r="I27">
-        <v>2.097427147898701</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J27">
-        <v>1.520757878870674</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K27">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="N27">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O27">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P27">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q27">
-        <v>2.761593995022913</v>
+        <v>2.817184649472066</v>
       </c>
       <c r="R27">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S27">
-        <v>2.002168424329384</v>
+        <v>2.075507303516201</v>
       </c>
       <c r="T27">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U27">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="X27">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y27">
-        <v>3.677188486143362</v>
+        <v>3.798803879007231</v>
       </c>
       <c r="Z27">
-        <v>3.231386937806881</v>
+        <v>3.524162552740127</v>
       </c>
       <c r="AA27">
-        <v>2.913735509717907</v>
+        <v>2.988263925048692</v>
       </c>
       <c r="AB27">
-        <v>2.285878074987389</v>
+        <v>2.465002619602019</v>
       </c>
       <c r="AC27">
-        <v>2.164955848703569</v>
+        <v>2.287564252039489</v>
       </c>
       <c r="AD27">
-        <v>1.547074779619036</v>
+        <v>1.827269802837366</v>
       </c>
       <c r="AE27">
-        <v>1.525452161251381</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AH27">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI27">
-        <v>3.527098405516027</v>
+        <v>3.54619237926558</v>
       </c>
       <c r="AJ27">
-        <v>2.865078139693279</v>
+        <v>2.962900476207315</v>
       </c>
       <c r="AK27">
-        <v>2.771996449179774</v>
+        <v>2.670117075098831</v>
       </c>
       <c r="AL27">
-        <v>2.10900011947208</v>
+        <v>2.159234866789232</v>
       </c>
       <c r="AM27">
-        <v>1.959005860276654</v>
+        <v>2.013688613023017</v>
       </c>
       <c r="AN27">
-        <v>1.519116863155586</v>
+        <v>1.555681097054994</v>
       </c>
       <c r="AO27">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3788,100 +3788,100 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>4.20870286198455</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E28">
-        <v>3.525714492239945</v>
+        <v>3.557095372538762</v>
       </c>
       <c r="F28">
-        <v>2.890058328883075</v>
+        <v>2.963419749556994</v>
       </c>
       <c r="G28">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H28">
-        <v>2.110525873238279</v>
+        <v>2.186048970813536</v>
       </c>
       <c r="I28">
-        <v>2.097377875537593</v>
+        <v>2.132503344909028</v>
       </c>
       <c r="J28">
-        <v>1.5206211334196</v>
+        <v>1.594643416745638</v>
       </c>
       <c r="K28">
-        <v>1.508583348210625</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="N28">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O28">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P28">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q28">
-        <v>2.752541584161535</v>
+        <v>2.811207775939302</v>
       </c>
       <c r="R28">
-        <v>2.104520093411275</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S28">
-        <v>1.999632399756324</v>
+        <v>2.075470611531015</v>
       </c>
       <c r="T28">
-        <v>1.514740069930878</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U28">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="X28">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y28">
-        <v>3.677145363497317</v>
+        <v>3.798296143687234</v>
       </c>
       <c r="Z28">
-        <v>3.22716817685499</v>
+        <v>3.524131389782978</v>
       </c>
       <c r="AA28">
-        <v>2.913786223319847</v>
+        <v>2.988227963653123</v>
       </c>
       <c r="AB28">
-        <v>2.28234797834376</v>
+        <v>2.456538004988573</v>
       </c>
       <c r="AC28">
-        <v>2.18500279136379</v>
+        <v>2.287806354426229</v>
       </c>
       <c r="AD28">
-        <v>1.546876600874702</v>
+        <v>1.832373982782381</v>
       </c>
       <c r="AE28">
-        <v>1.525588869172975</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AH28">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI28">
-        <v>3.527043546676909</v>
+        <v>3.546171989690304</v>
       </c>
       <c r="AJ28">
-        <v>2.865211846302531</v>
+        <v>2.96257038080288</v>
       </c>
       <c r="AK28">
-        <v>2.767456030578041</v>
+        <v>2.670442006009385</v>
       </c>
       <c r="AL28">
-        <v>2.108950898152964</v>
+        <v>2.158884406526862</v>
       </c>
       <c r="AM28">
-        <v>1.958807331167737</v>
+        <v>2.012813936070581</v>
       </c>
       <c r="AN28">
-        <v>1.519116863155586</v>
+        <v>1.555719874599393</v>
       </c>
       <c r="AO28">
-        <v>1.5068499521926</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3889,100 +3889,100 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>4.208815860913093</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E29">
-        <v>3.525768457501783</v>
+        <v>3.55686554497347</v>
       </c>
       <c r="F29">
-        <v>2.890109268398218</v>
+        <v>2.96345129702722</v>
       </c>
       <c r="G29">
-        <v>2.82049898269879</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H29">
-        <v>2.110476658613093</v>
+        <v>2.186270197452452</v>
       </c>
       <c r="I29">
-        <v>2.097328602958155</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J29">
-        <v>1.520575551365979</v>
+        <v>1.592779364001573</v>
       </c>
       <c r="K29">
-        <v>1.50844650744426</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="N29">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O29">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P29">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q29">
-        <v>2.758697970510632</v>
+        <v>2.810887043879482</v>
       </c>
       <c r="R29">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S29">
-        <v>1.993824511458731</v>
+        <v>2.069965498573484</v>
       </c>
       <c r="T29">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U29">
-        <v>1.502470074634843</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="X29">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y29">
-        <v>3.677352106574477</v>
+        <v>3.798738824760083</v>
       </c>
       <c r="Z29">
-        <v>3.231288460462668</v>
+        <v>3.5240367869985</v>
       </c>
       <c r="AA29">
-        <v>2.913684795861267</v>
+        <v>2.988576430760896</v>
       </c>
       <c r="AB29">
-        <v>2.282240357552531</v>
+        <v>2.461538227437309</v>
       </c>
       <c r="AC29">
-        <v>2.184249388900336</v>
+        <v>2.287406344854048</v>
       </c>
       <c r="AD29">
-        <v>1.547007887748665</v>
+        <v>1.827300176540281</v>
       </c>
       <c r="AE29">
-        <v>1.525588869172975</v>
+        <v>1.60083744299971</v>
       </c>
       <c r="AH29">
-        <v>4.20813784290081</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI29">
-        <v>3.527069570932215</v>
+        <v>3.546220705591502</v>
       </c>
       <c r="AJ29">
-        <v>2.864765561949828</v>
+        <v>2.957014201805439</v>
       </c>
       <c r="AK29">
-        <v>2.767436360093313</v>
+        <v>2.670273684763009</v>
       </c>
       <c r="AL29">
-        <v>2.108901676617765</v>
+        <v>2.159065782720404</v>
       </c>
       <c r="AM29">
-        <v>1.970053800357518</v>
+        <v>2.013326685243319</v>
       </c>
       <c r="AN29">
-        <v>1.51902569111609</v>
+        <v>1.552909180911801</v>
       </c>
       <c r="AO29">
-        <v>1.506941187875634</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3990,100 +3990,100 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>4.208815860913093</v>
+        <v>4.234017103747573</v>
       </c>
       <c r="E30">
-        <v>3.525714492239945</v>
+        <v>3.556704163589165</v>
       </c>
       <c r="F30">
-        <v>2.890258226760009</v>
+        <v>2.962965782656994</v>
       </c>
       <c r="G30">
-        <v>2.820344307434905</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H30">
-        <v>2.110575087647683</v>
+        <v>2.186222124870764</v>
       </c>
       <c r="I30">
-        <v>2.097328602958155</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J30">
-        <v>1.5206211334196</v>
+        <v>1.592709046047444</v>
       </c>
       <c r="K30">
-        <v>1.50840089361606</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="N30">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O30">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P30">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q30">
-        <v>2.764708165859306</v>
+        <v>2.811140967858201</v>
       </c>
       <c r="R30">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S30">
-        <v>1.997469505881772</v>
+        <v>2.075643113693753</v>
       </c>
       <c r="T30">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U30">
-        <v>1.502606962580777</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="X30">
-        <v>4.305664326639549</v>
+        <v>4.318701990909823</v>
       </c>
       <c r="Y30">
-        <v>3.677213815527519</v>
+        <v>3.798290817413497</v>
       </c>
       <c r="Z30">
-        <v>3.231008923904424</v>
+        <v>3.524176978324957</v>
       </c>
       <c r="AA30">
-        <v>2.913622306904335</v>
+        <v>2.988198324727303</v>
       </c>
       <c r="AB30">
-        <v>2.285810359552872</v>
+        <v>2.465005242987</v>
       </c>
       <c r="AC30">
-        <v>2.165091557401835</v>
+        <v>2.287199160442819</v>
       </c>
       <c r="AD30">
-        <v>1.547674449637367</v>
+        <v>1.827542178446609</v>
       </c>
       <c r="AE30">
-        <v>1.525406591708693</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AH30">
-        <v>4.208081338751587</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI30">
-        <v>3.527087562223652</v>
+        <v>3.5462000776514</v>
       </c>
       <c r="AJ30">
-        <v>2.864527937457765</v>
+        <v>2.962872999813164</v>
       </c>
       <c r="AK30">
-        <v>2.767406472840809</v>
+        <v>2.670140097517526</v>
       </c>
       <c r="AL30">
-        <v>2.108950898152964</v>
+        <v>2.159226960870909</v>
       </c>
       <c r="AM30">
-        <v>1.958924309583655</v>
+        <v>2.013157326458693</v>
       </c>
       <c r="AN30">
-        <v>1.51902569111609</v>
+        <v>1.5556549483872</v>
       </c>
       <c r="AO30">
-        <v>1.5068499521926</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4091,100 +4091,100 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>4.208759361652464</v>
+        <v>4.234179627551319</v>
       </c>
       <c r="E31">
-        <v>3.525660526637306</v>
+        <v>3.556859475833169</v>
       </c>
       <c r="F31">
-        <v>2.889717093160529</v>
+        <v>2.963395772415727</v>
       </c>
       <c r="G31">
-        <v>2.82049898269879</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H31">
-        <v>2.110525873238279</v>
+        <v>2.210709653341024</v>
       </c>
       <c r="I31">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J31">
-        <v>1.520712297171943</v>
+        <v>1.594398486479191</v>
       </c>
       <c r="K31">
-        <v>1.508628961560021</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="N31">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O31">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P31">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q31">
-        <v>2.764164370293601</v>
+        <v>2.811056683504211</v>
       </c>
       <c r="R31">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S31">
-        <v>1.999924066544574</v>
+        <v>2.075733448211017</v>
       </c>
       <c r="T31">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U31">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="X31">
-        <v>4.305664326639549</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y31">
-        <v>3.677207367751488</v>
+        <v>3.798762555516095</v>
       </c>
       <c r="Z31">
-        <v>3.231449712511609</v>
+        <v>3.52401540171841</v>
       </c>
       <c r="AA31">
-        <v>2.913786223319847</v>
+        <v>2.988287872940381</v>
       </c>
       <c r="AB31">
-        <v>2.282346804679112</v>
+        <v>2.465274663335954</v>
       </c>
       <c r="AC31">
-        <v>2.164808452617955</v>
+        <v>2.287721679077396</v>
       </c>
       <c r="AD31">
-        <v>1.546734102782497</v>
+        <v>1.827965084991243</v>
       </c>
       <c r="AE31">
-        <v>1.525452161251381</v>
+        <v>1.600594721772856</v>
       </c>
       <c r="AH31">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI31">
-        <v>3.527060366728088</v>
+        <v>3.546227703233204</v>
       </c>
       <c r="AJ31">
-        <v>2.864729596739382</v>
+        <v>2.961002300864288</v>
       </c>
       <c r="AK31">
-        <v>2.768542983561921</v>
+        <v>2.670074501899283</v>
       </c>
       <c r="AL31">
-        <v>2.108901676617765</v>
+        <v>2.159041748065629</v>
       </c>
       <c r="AM31">
-        <v>1.970388508981873</v>
+        <v>2.012975814648663</v>
       </c>
       <c r="AN31">
-        <v>1.518980104918619</v>
+        <v>1.555702807028946</v>
       </c>
       <c r="AO31">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4192,88 +4192,88 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <v>3.525714492239945</v>
+        <v>3.556993700981588</v>
       </c>
       <c r="F32">
-        <v>2.890007389107182</v>
+        <v>2.963388098822489</v>
       </c>
       <c r="G32">
-        <v>2.820447424555885</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H32">
-        <v>2.110575087647683</v>
+        <v>2.208963913720049</v>
       </c>
       <c r="I32">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J32">
-        <v>1.520575551365979</v>
+        <v>1.592570027547341</v>
       </c>
       <c r="K32">
-        <v>1.508537734741536</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="O32">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P32">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q32">
-        <v>2.763913052067042</v>
+        <v>2.810547928671602</v>
       </c>
       <c r="R32">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S32">
-        <v>1.997321672122821</v>
+        <v>2.066717565477359</v>
       </c>
       <c r="T32">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U32">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Y32">
-        <v>3.677979378760647</v>
+        <v>3.798765316316437</v>
       </c>
       <c r="Z32">
-        <v>3.23090106907205</v>
+        <v>3.524005954852814</v>
       </c>
       <c r="AA32">
-        <v>2.913735509717907</v>
+        <v>2.988211514942889</v>
       </c>
       <c r="AB32">
-        <v>2.282381108216146</v>
+        <v>2.461524312316556</v>
       </c>
       <c r="AC32">
-        <v>2.184458969011585</v>
+        <v>2.287465787040775</v>
       </c>
       <c r="AD32">
-        <v>1.547030831491303</v>
+        <v>1.828122601702283</v>
       </c>
       <c r="AE32">
-        <v>1.525452161251381</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AI32">
-        <v>3.527098047860828</v>
+        <v>3.54617303905653</v>
       </c>
       <c r="AJ32">
-        <v>2.864317331741588</v>
+        <v>2.956646692377023</v>
       </c>
       <c r="AK32">
-        <v>2.768454013640019</v>
+        <v>2.669947690932155</v>
       </c>
       <c r="AL32">
-        <v>2.108950898152964</v>
+        <v>2.158875872296468</v>
       </c>
       <c r="AM32">
-        <v>1.958776295660888</v>
+        <v>2.013277813329667</v>
       </c>
       <c r="AN32">
-        <v>1.51902569111609</v>
+        <v>1.555667557232403</v>
       </c>
       <c r="AO32">
-        <v>1.506941187875634</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4281,88 +4281,88 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>3.525714492239945</v>
+        <v>3.556799538561414</v>
       </c>
       <c r="F33">
-        <v>2.890249072361652</v>
+        <v>2.963384358785927</v>
       </c>
       <c r="G33">
-        <v>2.820344307434905</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H33">
-        <v>2.110525873238279</v>
+        <v>2.186408807950101</v>
       </c>
       <c r="I33">
-        <v>2.097279330160376</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J33">
-        <v>1.520712297171943</v>
+        <v>1.59270682230327</v>
       </c>
       <c r="K33">
-        <v>1.508583348210625</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="O33">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P33">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q33">
-        <v>2.764413861321982</v>
+        <v>2.82366255919423</v>
       </c>
       <c r="R33">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S33">
-        <v>1.995597471156569</v>
+        <v>2.075726772362245</v>
       </c>
       <c r="T33">
-        <v>1.51464887509495</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U33">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="Y33">
-        <v>3.677285626444959</v>
+        <v>3.798727303983887</v>
       </c>
       <c r="Z33">
-        <v>3.231268700618144</v>
+        <v>3.524096040294174</v>
       </c>
       <c r="AA33">
-        <v>2.913735509717907</v>
+        <v>2.988281382272457</v>
       </c>
       <c r="AB33">
-        <v>2.285779015544489</v>
+        <v>2.461727757680649</v>
       </c>
       <c r="AC33">
-        <v>2.164800719264538</v>
+        <v>2.28749383668268</v>
       </c>
       <c r="AD33">
-        <v>1.546859611342908</v>
+        <v>1.832624596555527</v>
       </c>
       <c r="AE33">
-        <v>1.525497730676322</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AI33">
-        <v>3.527100219495765</v>
+        <v>3.5462419181265</v>
       </c>
       <c r="AJ33">
-        <v>2.864729249432276</v>
+        <v>2.956706202500547</v>
       </c>
       <c r="AK33">
-        <v>2.767846136079705</v>
+        <v>2.670133665166119</v>
       </c>
       <c r="AL33">
-        <v>2.108901676617765</v>
+        <v>2.138954631832442</v>
       </c>
       <c r="AM33">
-        <v>1.956916496755751</v>
+        <v>2.01277777616862</v>
       </c>
       <c r="AN33">
-        <v>1.51902569111609</v>
+        <v>1.555711751584952</v>
       </c>
       <c r="AO33">
-        <v>1.5068499521926</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4370,88 +4370,88 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>3.525714492239945</v>
+        <v>3.55706962106526</v>
       </c>
       <c r="F34">
-        <v>2.889683528781278</v>
+        <v>2.972654673305834</v>
       </c>
       <c r="G34">
-        <v>2.820447424555885</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H34">
-        <v>2.110575087647683</v>
+        <v>2.186008128547827</v>
       </c>
       <c r="I34">
-        <v>2.097427147898701</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J34">
-        <v>1.520712297171943</v>
+        <v>1.59277457951664</v>
       </c>
       <c r="K34">
-        <v>1.508628961560021</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="O34">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P34">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q34">
-        <v>2.764803645485926</v>
+        <v>2.820624305642292</v>
       </c>
       <c r="R34">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S34">
-        <v>1.995695162069306</v>
+        <v>2.06720988557175</v>
       </c>
       <c r="T34">
-        <v>1.514785667170373</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U34">
-        <v>1.502652591655297</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Y34">
-        <v>3.675586090673636</v>
+        <v>3.792670394472323</v>
       </c>
       <c r="Z34">
-        <v>3.226984016197941</v>
+        <v>3.524001998641179</v>
       </c>
       <c r="AA34">
-        <v>2.913786223319847</v>
+        <v>2.988240709587715</v>
       </c>
       <c r="AB34">
-        <v>2.282258385049089</v>
+        <v>2.459646494898836</v>
       </c>
       <c r="AC34">
-        <v>2.164842249023946</v>
+        <v>2.28793986554408</v>
       </c>
       <c r="AD34">
-        <v>1.544518006767065</v>
+        <v>1.824757720831279</v>
       </c>
       <c r="AE34">
-        <v>1.52508760161246</v>
+        <v>1.600690862020302</v>
       </c>
       <c r="AI34">
-        <v>3.527051424222742</v>
+        <v>3.546244060278831</v>
       </c>
       <c r="AJ34">
-        <v>2.865016940754824</v>
+        <v>2.962470779499858</v>
       </c>
       <c r="AK34">
-        <v>2.772086993447544</v>
+        <v>2.675406830847766</v>
       </c>
       <c r="AL34">
-        <v>2.108950898152964</v>
+        <v>2.1590457898289</v>
       </c>
       <c r="AM34">
-        <v>1.958895534152656</v>
+        <v>2.01554117303136</v>
       </c>
       <c r="AN34">
-        <v>1.518980104918619</v>
+        <v>1.555931968282347</v>
       </c>
       <c r="AO34">
-        <v>1.506758716029984</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4459,52 +4459,52 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>3.525714492239945</v>
+        <v>3.556774070045669</v>
       </c>
       <c r="F35">
-        <v>2.890109268398218</v>
+        <v>2.962485304583811</v>
       </c>
       <c r="G35">
-        <v>2.586296289171685</v>
+        <v>2.62193933554683</v>
       </c>
       <c r="H35">
-        <v>2.110427443772115</v>
+        <v>2.208944105503786</v>
       </c>
       <c r="I35">
-        <v>1.77545799759149</v>
+        <v>1.84707187601196</v>
       </c>
       <c r="J35">
-        <v>1.520575551365979</v>
+        <v>1.591841550157228</v>
       </c>
       <c r="K35">
-        <v>1.487088713443858</v>
+        <v>1.527948936839442</v>
       </c>
       <c r="O35">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P35">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q35">
-        <v>2.761530602336535</v>
+        <v>2.814138046346316</v>
       </c>
       <c r="R35">
-        <v>2.104421611150824</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S35">
-        <v>1.995064421034615</v>
+        <v>2.064381938043838</v>
       </c>
       <c r="T35">
-        <v>1.514740069930878</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U35">
-        <v>1.502515704070555</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y35">
-        <v>0.2003506769364884</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.04091978360671611</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1.364646792235465</v>
+        <v>0.1652148214688856</v>
       </c>
       <c r="AJ35">
-        <v>0.7265499427591258</v>
+        <v>0</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -4548,58 +4548,58 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>3.508129195449197</v>
+        <v>3.583072283333035</v>
       </c>
       <c r="F36">
-        <v>2.821940280363783</v>
+        <v>1.002026468868439</v>
       </c>
       <c r="G36">
-        <v>2.472510035536765</v>
+        <v>0.7522836368533992</v>
       </c>
       <c r="H36">
-        <v>2.093336798064506</v>
+        <v>0.3117557583404644</v>
       </c>
       <c r="I36">
-        <v>1.838802892802555</v>
+        <v>0.1704752782621091</v>
       </c>
       <c r="J36">
-        <v>1.501374932043137</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1.424778588706995</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>3.521666125280912</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P36">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q36">
-        <v>2.756793912849358</v>
+        <v>2.807652777243014</v>
       </c>
       <c r="R36">
-        <v>2.104569334216085</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S36">
-        <v>2.000009879107257</v>
+        <v>2.081931438364061</v>
       </c>
       <c r="T36">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U36">
-        <v>1.502698220609431</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="Y36">
-        <v>0.9927342022228038</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.8121506197413915</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.4182264368730557</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.003839633030863876</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1.595986021740728</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0.9357320737993149</v>
+        <v>0</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -4637,88 +4637,88 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>3.525660526637306</v>
+        <v>3.556732456573491</v>
       </c>
       <c r="F37">
-        <v>2.890109268398218</v>
+        <v>2.963476070046752</v>
       </c>
       <c r="G37">
-        <v>2.820344307434905</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H37">
-        <v>2.110575087647683</v>
+        <v>2.186002141870456</v>
       </c>
       <c r="I37">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J37">
-        <v>1.5206211334196</v>
+        <v>1.594412846187512</v>
       </c>
       <c r="K37">
-        <v>1.508720187899754</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="O37">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P37">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q37">
-        <v>2.752196500577295</v>
+        <v>2.81067537807776</v>
       </c>
       <c r="R37">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S37">
-        <v>2.004484063838849</v>
+        <v>2.072847335881358</v>
       </c>
       <c r="T37">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U37">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y37">
-        <v>3.677198281210213</v>
+        <v>3.799175959905214</v>
       </c>
       <c r="Z37">
-        <v>3.23115046376201</v>
+        <v>3.523856901666872</v>
       </c>
       <c r="AA37">
-        <v>2.913684795861267</v>
+        <v>2.988239750091296</v>
       </c>
       <c r="AB37">
-        <v>2.28220135751859</v>
+        <v>2.464989917111635</v>
       </c>
       <c r="AC37">
-        <v>2.165024634914429</v>
+        <v>2.28762014174286</v>
       </c>
       <c r="AD37">
-        <v>1.546859836986974</v>
+        <v>1.832463123135162</v>
       </c>
       <c r="AE37">
-        <v>1.525497730676322</v>
+        <v>1.600860697747041</v>
       </c>
       <c r="AI37">
-        <v>3.527061876437775</v>
+        <v>3.546173012680546</v>
       </c>
       <c r="AJ37">
-        <v>2.864430395145626</v>
+        <v>2.957288746340927</v>
       </c>
       <c r="AK37">
-        <v>2.767623705672013</v>
+        <v>2.675634771050093</v>
       </c>
       <c r="AL37">
-        <v>2.108901676617765</v>
+        <v>2.15940107330079</v>
       </c>
       <c r="AM37">
-        <v>1.958826526648641</v>
+        <v>2.01567445105113</v>
       </c>
       <c r="AN37">
-        <v>1.51902569111609</v>
+        <v>1.55566425666335</v>
       </c>
       <c r="AO37">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4726,76 +4726,76 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>3.525822422422836</v>
+        <v>3.556692675111157</v>
       </c>
       <c r="F38">
-        <v>2.89044703560429</v>
+        <v>2.965957166885521</v>
       </c>
       <c r="G38">
-        <v>2.789854973789183</v>
+        <v>2.808186800435465</v>
       </c>
       <c r="H38">
-        <v>2.110476658613093</v>
+        <v>2.18610918360207</v>
       </c>
       <c r="I38">
-        <v>2.037469220014933</v>
+        <v>2.06789639977459</v>
       </c>
       <c r="J38">
-        <v>1.52066671535492</v>
+        <v>1.592672990812172</v>
       </c>
       <c r="K38">
-        <v>1.50844650744426</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="O38">
-        <v>3.521558142529205</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P38">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q38">
-        <v>2.764692608955014</v>
+        <v>2.817044012105323</v>
       </c>
       <c r="R38">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S38">
-        <v>1.991251770763616</v>
+        <v>2.067111169674076</v>
       </c>
       <c r="T38">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U38">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y38">
-        <v>3.613740463051783</v>
+        <v>1.673690257019615</v>
       </c>
       <c r="Z38">
-        <v>3.187409584258309</v>
+        <v>1.354395472189692</v>
       </c>
       <c r="AA38">
-        <v>2.84464773973124</v>
+        <v>0.9063019251130815</v>
       </c>
       <c r="AB38">
-        <v>2.187938254213048</v>
+        <v>0.5664499006474049</v>
       </c>
       <c r="AC38">
-        <v>2.085142982082743</v>
+        <v>0.3352593181643693</v>
       </c>
       <c r="AD38">
-        <v>1.482302880160949</v>
+        <v>0.03986058818303406</v>
       </c>
       <c r="AE38">
-        <v>1.411751867967422</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>3.508711674653705</v>
+        <v>0.2230660592047347</v>
       </c>
       <c r="AJ38">
-        <v>2.776357183221584</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>2.661697593493286</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -4815,88 +4815,88 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>3.525660526637306</v>
+        <v>3.610412967900236</v>
       </c>
       <c r="F39">
-        <v>2.890058328883075</v>
+        <v>2.972874044080678</v>
       </c>
       <c r="G39">
-        <v>2.820395866134594</v>
+        <v>2.809469929473226</v>
       </c>
       <c r="H39">
-        <v>2.110427443772115</v>
+        <v>2.186244749541657</v>
       </c>
       <c r="I39">
-        <v>2.097427147898701</v>
+        <v>2.092073731032461</v>
       </c>
       <c r="J39">
-        <v>1.520575551365979</v>
+        <v>1.592725579880316</v>
       </c>
       <c r="K39">
-        <v>1.508537734741536</v>
+        <v>1.543578568635242</v>
       </c>
       <c r="O39">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P39">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q39">
-        <v>2.759581068483051</v>
+        <v>2.820376968320081</v>
       </c>
       <c r="R39">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S39">
-        <v>1.999633774796422</v>
+        <v>2.075839048446098</v>
       </c>
       <c r="T39">
-        <v>1.514603277498504</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U39">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y39">
-        <v>2.246733501812283</v>
+        <v>2.18658566675985</v>
       </c>
       <c r="Z39">
-        <v>1.802028265692886</v>
+        <v>1.931846372043774</v>
       </c>
       <c r="AA39">
-        <v>1.48989689531918</v>
+        <v>1.408942226476178</v>
       </c>
       <c r="AB39">
-        <v>0.8607671880037064</v>
+        <v>0.880859597157545</v>
       </c>
       <c r="AC39">
-        <v>0.7430669900658973</v>
+        <v>0.719429971392872</v>
       </c>
       <c r="AD39">
-        <v>0.1256728356144243</v>
+        <v>0.2526737958470402</v>
       </c>
       <c r="AE39">
-        <v>0.09951689512239636</v>
+        <v>0.04611724547636853</v>
       </c>
       <c r="AI39">
-        <v>2.122397978516091</v>
+        <v>1.955177677226855</v>
       </c>
       <c r="AJ39">
-        <v>2.852010984519656</v>
+        <v>1.387750595725035</v>
       </c>
       <c r="AK39">
-        <v>2.760637322276905</v>
+        <v>1.099012474179947</v>
       </c>
       <c r="AL39">
-        <v>2.108901676617765</v>
+        <v>0.5754220625329942</v>
       </c>
       <c r="AM39">
-        <v>1.940662178006348</v>
+        <v>0.4408194783791393</v>
       </c>
       <c r="AN39">
-        <v>1.504836360632216</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.388265583100641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -4904,52 +4904,52 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>3.525660526637306</v>
+        <v>3.556905784119695</v>
       </c>
       <c r="F40">
-        <v>2.890058328883075</v>
+        <v>2.9578442828011</v>
       </c>
       <c r="G40">
-        <v>2.611875548180719</v>
+        <v>2.651531094723925</v>
       </c>
       <c r="H40">
-        <v>2.110427443772115</v>
+        <v>2.186067312553361</v>
       </c>
       <c r="I40">
-        <v>1.806987012410719</v>
+        <v>1.890002459665136</v>
       </c>
       <c r="J40">
-        <v>1.520712297171943</v>
+        <v>1.592087444051756</v>
       </c>
       <c r="K40">
-        <v>1.487166065185394</v>
+        <v>1.524093733446358</v>
       </c>
       <c r="O40">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P40">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q40">
-        <v>2.764570027317701</v>
+        <v>2.814055023052037</v>
       </c>
       <c r="R40">
-        <v>2.104421611150824</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S40">
-        <v>1.995680168062895</v>
+        <v>2.061517438245938</v>
       </c>
       <c r="T40">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U40">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Y40">
-        <v>0.3675389532400812</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.09413440929147177</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.3736301077252628</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -4993,76 +4993,76 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>3.456647589717074</v>
+        <v>1.457572743221369</v>
       </c>
       <c r="F41">
-        <v>2.816281276299579</v>
+        <v>0.9832447611855855</v>
       </c>
       <c r="G41">
-        <v>2.711399318409045</v>
+        <v>0.7841417940353455</v>
       </c>
       <c r="H41">
-        <v>2.098116938034965</v>
+        <v>0.3102046852672316</v>
       </c>
       <c r="I41">
-        <v>2.039638646294863</v>
+        <v>0.236883842466745</v>
       </c>
       <c r="J41">
-        <v>1.509085088472034</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1.496902378435075</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>3.521666125280912</v>
+        <v>3.541781123960568</v>
       </c>
       <c r="P41">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q41">
-        <v>2.759827909895822</v>
+        <v>2.814088884711087</v>
       </c>
       <c r="R41">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S41">
-        <v>1.993537693892726</v>
+        <v>2.081882864755041</v>
       </c>
       <c r="T41">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U41">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="Y41">
-        <v>3.288932156800422</v>
+        <v>1.512091062453334</v>
       </c>
       <c r="Z41">
-        <v>2.948028209082115</v>
+        <v>0.3404056314363846</v>
       </c>
       <c r="AA41">
-        <v>2.553422464925546</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>1.979238831277448</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>1.963017503207169</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1.411125850896713</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>1.342935186791912</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>3.486004165423496</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>2.805709996472417</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>2.577139085292083</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -5082,67 +5082,67 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>2.834110713040183</v>
+        <v>2.921816307969009</v>
       </c>
       <c r="G42">
-        <v>2.722821253575925</v>
+        <v>2.773120879164036</v>
       </c>
       <c r="H42">
-        <v>2.106834176889075</v>
+        <v>2.219674338374245</v>
       </c>
       <c r="I42">
-        <v>1.931778367664572</v>
+        <v>2.074816706494679</v>
       </c>
       <c r="J42">
-        <v>1.517247741565741</v>
+        <v>1.558821999864589</v>
       </c>
       <c r="K42">
-        <v>1.472182656907588</v>
+        <v>1.545810033646539</v>
       </c>
       <c r="P42">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q42">
-        <v>2.759962042712247</v>
+        <v>2.814319903634057</v>
       </c>
       <c r="R42">
-        <v>2.104569334216085</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S42">
-        <v>1.993458715927251</v>
+        <v>2.075885545571059</v>
       </c>
       <c r="T42">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U42">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z42">
-        <v>3.096287637126242</v>
+        <v>0.3568346175901853</v>
       </c>
       <c r="AA42">
-        <v>2.623951658674981</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>2.130999387840012</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>1.951874762080562</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>1.555055482873353</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.300626400309681</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>2.816113021589407</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>0.7227394375403824</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>0.05256918017247814</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -5159,52 +5159,52 @@
         <v>41</v>
       </c>
       <c r="F43">
-        <v>2.890058328883075</v>
+        <v>2.964044243769135</v>
       </c>
       <c r="G43">
-        <v>2.745304100504073</v>
+        <v>2.797270764663266</v>
       </c>
       <c r="H43">
-        <v>2.110575087647683</v>
+        <v>2.186400773130819</v>
       </c>
       <c r="I43">
-        <v>1.970149873413603</v>
+        <v>2.062532921489418</v>
       </c>
       <c r="J43">
-        <v>1.520757878870674</v>
+        <v>1.59288390153766</v>
       </c>
       <c r="K43">
-        <v>1.50840089361606</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="P43">
-        <v>2.82740526083151</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q43">
-        <v>2.761498851944992</v>
+        <v>2.823660195894721</v>
       </c>
       <c r="R43">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S43">
-        <v>2.004301054988377</v>
+        <v>2.087457993402272</v>
       </c>
       <c r="T43">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U43">
-        <v>1.502652591655297</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Z43">
-        <v>1.188328586476106</v>
+        <v>0.2972018975140944</v>
       </c>
       <c r="AA43">
-        <v>0.8547786171191787</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>0.2913037820191302</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.1892872546082454</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.9086938556318414</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>0.7117027182200171</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -5236,43 +5236,43 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>2.572172520221701</v>
+        <v>0.8733022137581365</v>
       </c>
       <c r="G44">
-        <v>2.272863827951672</v>
+        <v>0.5673014393423277</v>
       </c>
       <c r="H44">
-        <v>1.963702703730398</v>
+        <v>0.1355018632332368</v>
       </c>
       <c r="I44">
-        <v>1.590413571300384</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1.432833478807121</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1.376962939952588</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q44">
-        <v>2.764559584096761</v>
+        <v>2.814236317851505</v>
       </c>
       <c r="R44">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S44">
-        <v>2.001894516643005</v>
+        <v>2.089448093745708</v>
       </c>
       <c r="T44">
-        <v>1.514603277498504</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U44">
-        <v>1.502652591655297</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z44">
-        <v>0.09462792232663531</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0.5832306375415932</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>0.3596655464613538</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -5313,76 +5313,76 @@
         <v>43</v>
       </c>
       <c r="F45">
-        <v>2.889970897560381</v>
+        <v>2.963500896823306</v>
       </c>
       <c r="G45">
-        <v>2.820344307434905</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H45">
-        <v>2.110427443772115</v>
+        <v>2.186075785539176</v>
       </c>
       <c r="I45">
-        <v>2.097279330160376</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J45">
-        <v>1.520757878870674</v>
+        <v>1.592729185279447</v>
       </c>
       <c r="K45">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P45">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q45">
-        <v>2.758184353063192</v>
+        <v>2.811035024640935</v>
       </c>
       <c r="R45">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S45">
-        <v>1.997179333602257</v>
+        <v>2.075940152734054</v>
       </c>
       <c r="T45">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U45">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="Z45">
-        <v>3.230851703120392</v>
+        <v>3.524058529156672</v>
       </c>
       <c r="AA45">
-        <v>2.913735509717907</v>
+        <v>2.988186262051341</v>
       </c>
       <c r="AB45">
-        <v>2.282346062063891</v>
+        <v>2.465311069058812</v>
       </c>
       <c r="AC45">
-        <v>2.164765552236331</v>
+        <v>2.28740241021107</v>
       </c>
       <c r="AD45">
-        <v>1.547019803707785</v>
+        <v>1.827373068957316</v>
       </c>
       <c r="AE45">
-        <v>1.525406591708693</v>
+        <v>1.600719781300149</v>
       </c>
       <c r="AJ45">
-        <v>2.865003959725457</v>
+        <v>2.961380839714633</v>
       </c>
       <c r="AK45">
-        <v>2.767432166869336</v>
+        <v>2.67051727898815</v>
       </c>
       <c r="AL45">
-        <v>2.10900011947208</v>
+        <v>2.159355091115118</v>
       </c>
       <c r="AM45">
-        <v>1.958857791509986</v>
+        <v>2.013554169311123</v>
       </c>
       <c r="AN45">
-        <v>1.51902569111609</v>
+        <v>1.555765323753272</v>
       </c>
       <c r="AO45">
-        <v>1.5068499521926</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5390,43 +5390,43 @@
         <v>44</v>
       </c>
       <c r="F46">
-        <v>2.830627138040562</v>
+        <v>2.925751644415997</v>
       </c>
       <c r="G46">
-        <v>2.532641134814618</v>
+        <v>2.665740133931772</v>
       </c>
       <c r="H46">
-        <v>2.096512132288713</v>
+        <v>2.213899040774272</v>
       </c>
       <c r="I46">
-        <v>1.703618489521094</v>
+        <v>1.917410922803408</v>
       </c>
       <c r="J46">
-        <v>1.508104888677052</v>
+        <v>1.556466407361183</v>
       </c>
       <c r="K46">
-        <v>1.33738554800783</v>
+        <v>1.529219034661784</v>
       </c>
       <c r="P46">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q46">
-        <v>2.755509646030583</v>
+        <v>2.817441265504308</v>
       </c>
       <c r="R46">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S46">
-        <v>1.993864302422021</v>
+        <v>2.06141641941707</v>
       </c>
       <c r="T46">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U46">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="Z46">
-        <v>0.1520494512262951</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>0.144943520271047</v>
+        <v>0</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -5467,76 +5467,76 @@
         <v>45</v>
       </c>
       <c r="F47">
-        <v>2.890109268398218</v>
+        <v>2.96344152316926</v>
       </c>
       <c r="G47">
-        <v>2.803194610047689</v>
+        <v>2.779462306065884</v>
       </c>
       <c r="H47">
-        <v>2.110476658613093</v>
+        <v>2.186169237389644</v>
       </c>
       <c r="I47">
-        <v>2.079447830925107</v>
+        <v>2.069163384649789</v>
       </c>
       <c r="J47">
-        <v>1.52066671535492</v>
+        <v>1.592803439808421</v>
       </c>
       <c r="K47">
-        <v>1.507070927855218</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="P47">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q47">
-        <v>2.761571379030578</v>
+        <v>2.816939609238265</v>
       </c>
       <c r="R47">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S47">
-        <v>1.997456092297059</v>
+        <v>2.0889698247905</v>
       </c>
       <c r="T47">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U47">
-        <v>1.502652591655297</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Z47">
-        <v>3.194468959294262</v>
+        <v>1.591514994562427</v>
       </c>
       <c r="AA47">
-        <v>2.851003358068622</v>
+        <v>1.194749947273128</v>
       </c>
       <c r="AB47">
-        <v>2.201621807090405</v>
+        <v>0.7392456923061086</v>
       </c>
       <c r="AC47">
-        <v>2.104580489977744</v>
+        <v>0.532866401343727</v>
       </c>
       <c r="AD47">
-        <v>1.472775456545107</v>
+        <v>0.1377185379333721</v>
       </c>
       <c r="AE47">
-        <v>1.422054599255449</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <v>2.826942050098039</v>
+        <v>1.102517174271227</v>
       </c>
       <c r="AK47">
-        <v>2.706617559477351</v>
+        <v>0.8746699709860368</v>
       </c>
       <c r="AL47">
-        <v>1.972287315422041</v>
+        <v>0.4006594710915852</v>
       </c>
       <c r="AM47">
-        <v>1.75599356497128</v>
+        <v>0.2856808697583781</v>
       </c>
       <c r="AN47">
-        <v>1.111802561504214</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.139421378846795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -5544,64 +5544,64 @@
         <v>46</v>
       </c>
       <c r="F48">
-        <v>2.745990838278697</v>
+        <v>0.8629832841242577</v>
       </c>
       <c r="G48">
-        <v>2.640045828235097</v>
+        <v>0.7704341480338712</v>
       </c>
       <c r="H48">
-        <v>2.095012545270886</v>
+        <v>0.2574225922716622</v>
       </c>
       <c r="I48">
-        <v>1.945184595885407</v>
+        <v>0.1465615436460621</v>
       </c>
       <c r="J48">
-        <v>1.506439385683525</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1.494163506789129</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q48">
-        <v>2.756537873140942</v>
+        <v>2.814054050168905</v>
       </c>
       <c r="R48">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S48">
-        <v>1.995326628254367</v>
+        <v>2.078473326162376</v>
       </c>
       <c r="T48">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U48">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="Z48">
-        <v>2.825958268118212</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>2.429096036572144</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>1.916407368388246</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>1.833675257217073</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>1.34734110665785</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>1.180564865694133</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>1.016962981946317</v>
+        <v>0</v>
       </c>
       <c r="AK48">
-        <v>0.7722734641066593</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -5621,46 +5621,46 @@
         <v>47</v>
       </c>
       <c r="F49">
-        <v>2.830917105717569</v>
+        <v>2.926019399934729</v>
       </c>
       <c r="G49">
-        <v>2.587858694534066</v>
+        <v>2.659856169854083</v>
       </c>
       <c r="H49">
-        <v>2.104076916404499</v>
+        <v>2.214188469022071</v>
       </c>
       <c r="I49">
-        <v>1.709043953036294</v>
+        <v>1.902087297896371</v>
       </c>
       <c r="J49">
-        <v>1.513007286618791</v>
+        <v>1.556962822001022</v>
       </c>
       <c r="K49">
-        <v>1.470361663352494</v>
+        <v>1.556826487993979</v>
       </c>
       <c r="P49">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q49">
-        <v>2.758794587796463</v>
+        <v>2.816920839964578</v>
       </c>
       <c r="R49">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S49">
-        <v>1.999877419157162</v>
+        <v>2.061528376480343</v>
       </c>
       <c r="T49">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U49">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="Z49">
-        <v>0.3499466476490374</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.06727167277427237</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0.2598464968797334</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -5698,67 +5698,67 @@
         <v>48</v>
       </c>
       <c r="F50">
-        <v>2.889597414714293</v>
+        <v>2.963428087041278</v>
       </c>
       <c r="G50">
-        <v>2.773302637534689</v>
+        <v>2.798979820289795</v>
       </c>
       <c r="H50">
-        <v>2.110427443772115</v>
+        <v>2.186009768750079</v>
       </c>
       <c r="I50">
-        <v>2.04316300890308</v>
+        <v>2.078090336617424</v>
       </c>
       <c r="J50">
-        <v>1.52066671535492</v>
+        <v>1.592880026709033</v>
       </c>
       <c r="K50">
-        <v>1.508583348210625</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="P50">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q50">
-        <v>2.761767748202608</v>
+        <v>2.813793917075071</v>
       </c>
       <c r="R50">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S50">
-        <v>2.004147356844898</v>
+        <v>2.064621819993414</v>
       </c>
       <c r="T50">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U50">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Z50">
-        <v>3.164892986571879</v>
+        <v>0.3886741374387574</v>
       </c>
       <c r="AA50">
-        <v>2.793283696597113</v>
+        <v>0.05841232094748516</v>
       </c>
       <c r="AB50">
-        <v>2.174642883561886</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>2.02062818514792</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>1.476395974710765</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.314520497959524</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0.973273162811999</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>0.8192681102866006</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>1.990766452331855</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -5775,76 +5775,76 @@
         <v>49</v>
       </c>
       <c r="F51">
-        <v>2.902167318028256</v>
+        <v>2.963416867071766</v>
       </c>
       <c r="G51">
-        <v>2.820395866134594</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H51">
-        <v>2.110525873238279</v>
+        <v>2.186070634409043</v>
       </c>
       <c r="I51">
-        <v>2.097328602958155</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J51">
-        <v>1.5206211334196</v>
+        <v>1.59270961382953</v>
       </c>
       <c r="K51">
-        <v>1.508583348210625</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="P51">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q51">
-        <v>2.75246774882967</v>
+        <v>2.823369245219835</v>
       </c>
       <c r="R51">
-        <v>2.104470852389523</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S51">
-        <v>1.9935515970297</v>
+        <v>2.067162955556111</v>
       </c>
       <c r="T51">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U51">
-        <v>1.502606962580777</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="Z51">
-        <v>3.22977996267092</v>
+        <v>3.524109733864185</v>
       </c>
       <c r="AA51">
-        <v>2.914054729099922</v>
+        <v>2.988209161741211</v>
       </c>
       <c r="AB51">
-        <v>2.282232390451751</v>
+        <v>2.458393382662656</v>
       </c>
       <c r="AC51">
-        <v>2.164588023934948</v>
+        <v>2.287919424326837</v>
       </c>
       <c r="AD51">
-        <v>1.546896857303934</v>
+        <v>1.827888763093879</v>
       </c>
       <c r="AE51">
-        <v>1.525497730676322</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AJ51">
-        <v>2.864696342657382</v>
+        <v>2.963017673871874</v>
       </c>
       <c r="AK51">
-        <v>2.767622050556484</v>
+        <v>2.670352230298552</v>
       </c>
       <c r="AL51">
-        <v>2.108901676617765</v>
+        <v>2.159285349369162</v>
       </c>
       <c r="AM51">
-        <v>1.959115210350472</v>
+        <v>2.015740068524746</v>
       </c>
       <c r="AN51">
-        <v>1.519071277195078</v>
+        <v>1.555623987803761</v>
       </c>
       <c r="AO51">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -5852,64 +5852,64 @@
         <v>50</v>
       </c>
       <c r="G52">
-        <v>2.820395866134594</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H52">
-        <v>2.110427443772115</v>
+        <v>2.193702606125543</v>
       </c>
       <c r="I52">
-        <v>2.097377875537593</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J52">
-        <v>1.520575551365979</v>
+        <v>1.592738099677238</v>
       </c>
       <c r="K52">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="Q52">
-        <v>2.7644688030605</v>
+        <v>2.814147978086641</v>
       </c>
       <c r="R52">
-        <v>2.104520093411275</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S52">
-        <v>2.004370706110602</v>
+        <v>2.075574401330032</v>
       </c>
       <c r="T52">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U52">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AA52">
-        <v>2.913786223319847</v>
+        <v>2.988201996733344</v>
       </c>
       <c r="AB52">
-        <v>2.285815832994564</v>
+        <v>2.464946572052324</v>
       </c>
       <c r="AC52">
-        <v>2.164950279799784</v>
+        <v>2.28757021224544</v>
       </c>
       <c r="AD52">
-        <v>1.546853339218274</v>
+        <v>1.828085080575992</v>
       </c>
       <c r="AE52">
-        <v>1.525543299983518</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AK52">
-        <v>2.768430106638912</v>
+        <v>2.670319487012085</v>
       </c>
       <c r="AL52">
-        <v>2.10900011947208</v>
+        <v>2.158987468000555</v>
       </c>
       <c r="AM52">
-        <v>1.959101965207488</v>
+        <v>2.013650350514816</v>
       </c>
       <c r="AN52">
-        <v>1.51902569111609</v>
+        <v>1.555602602592832</v>
       </c>
       <c r="AO52">
-        <v>1.5068499521926</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -5917,52 +5917,52 @@
         <v>51</v>
       </c>
       <c r="G53">
-        <v>2.801129952845892</v>
+        <v>2.82547954273677</v>
       </c>
       <c r="H53">
-        <v>2.110476658613093</v>
+        <v>2.185952686812148</v>
       </c>
       <c r="I53">
-        <v>2.052579948032093</v>
+        <v>2.094986510703637</v>
       </c>
       <c r="J53">
-        <v>1.5206211334196</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K53">
-        <v>1.50844650744426</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="Q53">
-        <v>2.76448828292897</v>
+        <v>2.816876557442618</v>
       </c>
       <c r="R53">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S53">
-        <v>2.004630075748113</v>
+        <v>2.089268516831328</v>
       </c>
       <c r="T53">
-        <v>1.514694472572406</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U53">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AA53">
-        <v>2.844205086130665</v>
+        <v>0.9383971956814487</v>
       </c>
       <c r="AB53">
-        <v>2.227155431572726</v>
+        <v>0.6067542963191046</v>
       </c>
       <c r="AC53">
-        <v>2.084922808689219</v>
+        <v>0.3678584924331394</v>
       </c>
       <c r="AD53">
-        <v>1.525859467164307</v>
+        <v>0.07869235736239788</v>
       </c>
       <c r="AE53">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AK53">
-        <v>2.670227949425934</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -5982,55 +5982,55 @@
         <v>52</v>
       </c>
       <c r="G54">
-        <v>2.80088311309179</v>
+        <v>2.824053530472669</v>
       </c>
       <c r="H54">
-        <v>2.110525873238279</v>
+        <v>2.209170525136894</v>
       </c>
       <c r="I54">
-        <v>2.063037369191284</v>
+        <v>2.087674018525717</v>
       </c>
       <c r="J54">
-        <v>1.5206211334196</v>
+        <v>1.592777471757566</v>
       </c>
       <c r="K54">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="Q54">
-        <v>2.752103616394753</v>
+        <v>2.810848531811822</v>
       </c>
       <c r="R54">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S54">
-        <v>1.997416966306632</v>
+        <v>2.06700387248545</v>
       </c>
       <c r="T54">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U54">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AA54">
-        <v>2.84426575090546</v>
+        <v>0.9861784357703447</v>
       </c>
       <c r="AB54">
-        <v>2.27135067873824</v>
+        <v>0.6126132893520642</v>
       </c>
       <c r="AC54">
-        <v>2.084835472616407</v>
+        <v>0.3735075948005568</v>
       </c>
       <c r="AD54">
-        <v>1.550837054696816</v>
+        <v>0.07073081613091481</v>
       </c>
       <c r="AE54">
-        <v>1.411938559585216</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>2.661858273037547</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>1.92196552606935</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -6047,64 +6047,64 @@
         <v>53</v>
       </c>
       <c r="G55">
-        <v>2.798689889598077</v>
+        <v>2.816581422527725</v>
       </c>
       <c r="H55">
-        <v>2.106095691614521</v>
+        <v>2.21553904438787</v>
       </c>
       <c r="I55">
-        <v>2.05827178958992</v>
+        <v>2.085155511996656</v>
       </c>
       <c r="J55">
-        <v>1.516518274160015</v>
+        <v>1.553020540156355</v>
       </c>
       <c r="K55">
-        <v>1.504386407329749</v>
+        <v>1.561865327744559</v>
       </c>
       <c r="Q55">
-        <v>2.759878411647667</v>
+        <v>2.820296970975999</v>
       </c>
       <c r="R55">
-        <v>2.104569334216085</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S55">
-        <v>1.999587021777866</v>
+        <v>2.075583492926311</v>
       </c>
       <c r="T55">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U55">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AA55">
-        <v>2.546393033021674</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>2.078854962036238</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>1.860131200770541</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>1.48750536235245</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>1.257778939852132</v>
+        <v>0</v>
       </c>
       <c r="AK55">
-        <v>0.8027253463683859</v>
+        <v>0</v>
       </c>
       <c r="AL55">
-        <v>0.001526677698686862</v>
+        <v>0</v>
       </c>
       <c r="AM55">
-        <v>1.78983441906407</v>
+        <v>0</v>
       </c>
       <c r="AN55">
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>1.39410195998472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -6112,52 +6112,52 @@
         <v>54</v>
       </c>
       <c r="G56">
-        <v>2.789829981966757</v>
+        <v>2.808070312710263</v>
       </c>
       <c r="H56">
-        <v>2.110525873238279</v>
+        <v>2.209298157894896</v>
       </c>
       <c r="I56">
-        <v>2.027213926470244</v>
+        <v>2.071032775744816</v>
       </c>
       <c r="J56">
-        <v>1.52066671535492</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K56">
-        <v>1.508628961560021</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="Q56">
-        <v>2.759830519003371</v>
+        <v>2.811277523095907</v>
       </c>
       <c r="R56">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S56">
-        <v>2.004265306945042</v>
+        <v>2.061842553536672</v>
       </c>
       <c r="T56">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U56">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AA56">
-        <v>2.844214342018183</v>
+        <v>0.9186959267792489</v>
       </c>
       <c r="AB56">
-        <v>2.193385995135869</v>
+        <v>0.547469272730194</v>
       </c>
       <c r="AC56">
-        <v>2.084669066861959</v>
+        <v>0.3167651780705403</v>
       </c>
       <c r="AD56">
-        <v>1.438006517631593</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>1.411751867967422</v>
+        <v>0</v>
       </c>
       <c r="AK56">
-        <v>2.648835511626569</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -6177,64 +6177,64 @@
         <v>55</v>
       </c>
       <c r="G57">
-        <v>2.82049898269879</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H57">
-        <v>2.110476658613093</v>
+        <v>2.186187749891496</v>
       </c>
       <c r="I57">
-        <v>2.097574963672146</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J57">
-        <v>1.520575551365979</v>
+        <v>1.592733059400896</v>
       </c>
       <c r="K57">
-        <v>1.50849212115275</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q57">
-        <v>2.758093423911134</v>
+        <v>2.814261772333063</v>
       </c>
       <c r="R57">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S57">
-        <v>1.995662789678105</v>
+        <v>2.067060404168497</v>
       </c>
       <c r="T57">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U57">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AA57">
-        <v>2.913667867237638</v>
+        <v>2.988210162767145</v>
       </c>
       <c r="AB57">
-        <v>2.282304541739303</v>
+        <v>2.465032829477738</v>
       </c>
       <c r="AC57">
-        <v>2.164957973450842</v>
+        <v>2.288178403161527</v>
       </c>
       <c r="AD57">
-        <v>1.54802507230432</v>
+        <v>1.832684895454032</v>
       </c>
       <c r="AE57">
-        <v>1.525406591708693</v>
+        <v>1.60082243780421</v>
       </c>
       <c r="AK57">
-        <v>2.767530236922443</v>
+        <v>2.67842131065464</v>
       </c>
       <c r="AL57">
-        <v>2.10900011947208</v>
+        <v>2.13900468149014</v>
       </c>
       <c r="AM57">
-        <v>1.970211554209781</v>
+        <v>2.012832226190868</v>
       </c>
       <c r="AN57">
-        <v>1.519071277195078</v>
+        <v>1.553102798867979</v>
       </c>
       <c r="AO57">
-        <v>1.506758716029984</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -6242,64 +6242,64 @@
         <v>56</v>
       </c>
       <c r="G58">
-        <v>2.813173989581866</v>
+        <v>2.846294859961688</v>
       </c>
       <c r="H58">
-        <v>2.106588020544806</v>
+        <v>2.220621483384852</v>
       </c>
       <c r="I58">
-        <v>2.072289884248427</v>
+        <v>2.128376601420966</v>
       </c>
       <c r="J58">
-        <v>1.517247741565741</v>
+        <v>1.560165601663679</v>
       </c>
       <c r="K58">
-        <v>1.504888268938484</v>
+        <v>1.545491409267916</v>
       </c>
       <c r="Q58">
-        <v>2.759971384217532</v>
+        <v>2.813976972121253</v>
       </c>
       <c r="R58">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S58">
-        <v>1.995682049252933</v>
+        <v>2.061647026593923</v>
       </c>
       <c r="T58">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U58">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AA58">
-        <v>2.715873968153891</v>
+        <v>0.8811651309261526</v>
       </c>
       <c r="AB58">
-        <v>2.092537492083563</v>
+        <v>0.4243358117512559</v>
       </c>
       <c r="AC58">
-        <v>2.057768546919991</v>
+        <v>0.1145739282251439</v>
       </c>
       <c r="AD58">
-        <v>1.531071021426917</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>1.492200380030218</v>
+        <v>0</v>
       </c>
       <c r="AK58">
-        <v>2.765511450286118</v>
+        <v>2.643751517349681</v>
       </c>
       <c r="AL58">
-        <v>2.109049340575119</v>
+        <v>2.198656960950707</v>
       </c>
       <c r="AM58">
-        <v>1.966098672460905</v>
+        <v>2.009945160506814</v>
       </c>
       <c r="AN58">
-        <v>1.519116863155586</v>
+        <v>1.555806977916545</v>
       </c>
       <c r="AO58">
-        <v>1.506986805537321</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -6307,64 +6307,64 @@
         <v>57</v>
       </c>
       <c r="G59">
-        <v>2.820344307434905</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H59">
-        <v>2.110525873238279</v>
+        <v>2.186329059666106</v>
       </c>
       <c r="I59">
-        <v>2.097525691965968</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J59">
-        <v>1.520712297171943</v>
+        <v>1.592653434851874</v>
       </c>
       <c r="K59">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="Q59">
-        <v>2.763976436753735</v>
+        <v>2.823825490780415</v>
       </c>
       <c r="R59">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S59">
-        <v>1.993798807984141</v>
+        <v>2.078484285122654</v>
       </c>
       <c r="T59">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U59">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AA59">
-        <v>2.913400199979509</v>
+        <v>2.988229712266798</v>
       </c>
       <c r="AB59">
-        <v>2.2823474685623</v>
+        <v>2.461826982409958</v>
       </c>
       <c r="AC59">
-        <v>2.165101218030796</v>
+        <v>2.289285162292071</v>
       </c>
       <c r="AD59">
-        <v>1.546945749296135</v>
+        <v>1.833009777487413</v>
       </c>
       <c r="AE59">
-        <v>1.525543299983518</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AK59">
-        <v>2.768590072097569</v>
+        <v>2.670017969760406</v>
       </c>
       <c r="AL59">
-        <v>2.108901676617765</v>
+        <v>2.158843567770587</v>
       </c>
       <c r="AM59">
-        <v>1.970509997412898</v>
+        <v>2.015689908408895</v>
       </c>
       <c r="AN59">
-        <v>1.518980104918619</v>
+        <v>1.553247553302729</v>
       </c>
       <c r="AO59">
-        <v>1.506895570094061</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -6372,64 +6372,64 @@
         <v>58</v>
       </c>
       <c r="G60">
-        <v>2.820344307434905</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H60">
-        <v>2.110575087647683</v>
+        <v>2.186307337307383</v>
       </c>
       <c r="I60">
-        <v>2.097328602958155</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J60">
-        <v>1.520575551365979</v>
+        <v>1.592795095008701</v>
       </c>
       <c r="K60">
-        <v>1.508628961560021</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q60">
-        <v>2.764309029207608</v>
+        <v>2.81125724663544</v>
       </c>
       <c r="R60">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S60">
-        <v>1.993653555581107</v>
+        <v>2.078478135000646</v>
       </c>
       <c r="T60">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U60">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AA60">
-        <v>2.913434568950912</v>
+        <v>2.988187075967097</v>
       </c>
       <c r="AB60">
-        <v>2.282277844990757</v>
+        <v>2.461694979582917</v>
       </c>
       <c r="AC60">
-        <v>2.165144128608553</v>
+        <v>2.291262447719179</v>
       </c>
       <c r="AD60">
-        <v>1.547030448752558</v>
+        <v>1.827096048411911</v>
       </c>
       <c r="AE60">
-        <v>1.525588869172975</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AK60">
-        <v>2.767542915245012</v>
+        <v>2.669651307148256</v>
       </c>
       <c r="AL60">
-        <v>2.10900011947208</v>
+        <v>2.158883479557835</v>
       </c>
       <c r="AM60">
-        <v>1.958722716739042</v>
+        <v>2.013283762907701</v>
       </c>
       <c r="AN60">
-        <v>1.519071277195078</v>
+        <v>1.555515763285166</v>
       </c>
       <c r="AO60">
-        <v>1.506804334171242</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -6437,64 +6437,64 @@
         <v>59</v>
       </c>
       <c r="G61">
-        <v>2.800978343883209</v>
+        <v>2.828426062782897</v>
       </c>
       <c r="H61">
-        <v>2.110525873238279</v>
+        <v>2.209454891909571</v>
       </c>
       <c r="I61">
-        <v>2.052413275381456</v>
+        <v>2.111215941237217</v>
       </c>
       <c r="J61">
-        <v>1.52066671535492</v>
+        <v>1.592656941559926</v>
       </c>
       <c r="K61">
-        <v>1.50844650744426</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="Q61">
-        <v>2.758690028292597</v>
+        <v>2.813894038873846</v>
       </c>
       <c r="R61">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S61">
-        <v>2.000110662910683</v>
+        <v>2.08170830424907</v>
       </c>
       <c r="T61">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U61">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AA61">
-        <v>2.830695512332012</v>
+        <v>0.9467084186499317</v>
       </c>
       <c r="AB61">
-        <v>2.235462686989138</v>
+        <v>0.5780317397595212</v>
       </c>
       <c r="AC61">
-        <v>2.084796079517798</v>
+        <v>0.365163352821074</v>
       </c>
       <c r="AD61">
-        <v>1.516681663998242</v>
+        <v>0.04241787386660079</v>
       </c>
       <c r="AE61">
-        <v>1.411285128761898</v>
+        <v>0</v>
       </c>
       <c r="AK61">
-        <v>2.713348423296483</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>2.10900011947208</v>
+        <v>0</v>
       </c>
       <c r="AM61">
-        <v>1.82936112405534</v>
+        <v>1.964916970312014</v>
       </c>
       <c r="AN61">
-        <v>1.516935328183955</v>
+        <v>1.522849579642952</v>
       </c>
       <c r="AO61">
-        <v>1.343671856960668</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -6502,34 +6502,34 @@
         <v>60</v>
       </c>
       <c r="H62">
-        <v>2.110525873238279</v>
+        <v>2.186341072592227</v>
       </c>
       <c r="I62">
-        <v>1.931145164502647</v>
+        <v>1.960715127274835</v>
       </c>
       <c r="J62">
-        <v>1.520712297171943</v>
+        <v>1.597121004079332</v>
       </c>
       <c r="K62">
-        <v>1.504033480251832</v>
+        <v>1.544708502220065</v>
       </c>
       <c r="R62">
-        <v>2.104372369695162</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S62">
-        <v>2.007657293849889</v>
+        <v>2.056319914853538</v>
       </c>
       <c r="T62">
-        <v>1.514740069930878</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U62">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AB62">
-        <v>0.3968808590356696</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.04261324777657793</v>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -6555,43 +6555,43 @@
         <v>61</v>
       </c>
       <c r="H63">
-        <v>2.110525873238279</v>
+        <v>2.186054907416633</v>
       </c>
       <c r="I63">
-        <v>2.057815423028412</v>
+        <v>2.087610802944527</v>
       </c>
       <c r="J63">
-        <v>1.52066671535492</v>
+        <v>1.592686501342082</v>
       </c>
       <c r="K63">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="R63">
-        <v>2.104421611150824</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S63">
-        <v>2.004404009879726</v>
+        <v>2.066816699906886</v>
       </c>
       <c r="T63">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U63">
-        <v>1.502606962580777</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AB63">
-        <v>2.244011973712878</v>
+        <v>0.6044364809939042</v>
       </c>
       <c r="AC63">
-        <v>2.084717585788078</v>
+        <v>0.3558035981356034</v>
       </c>
       <c r="AD63">
-        <v>1.539168338781807</v>
+        <v>0.07492187529016103</v>
       </c>
       <c r="AE63">
-        <v>1.411798541089573</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>0.00124188042653528</v>
+        <v>0</v>
       </c>
       <c r="AM63">
         <v>0</v>
@@ -6608,52 +6608,52 @@
         <v>62</v>
       </c>
       <c r="H64">
-        <v>2.110427443772115</v>
+        <v>2.185987136712394</v>
       </c>
       <c r="I64">
-        <v>2.097427147898701</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J64">
-        <v>1.520712297171943</v>
+        <v>1.592735434858202</v>
       </c>
       <c r="K64">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="R64">
-        <v>2.104520093411275</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S64">
-        <v>1.995930873819045</v>
+        <v>2.090567247471604</v>
       </c>
       <c r="T64">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U64">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AB64">
-        <v>2.282128595984922</v>
+        <v>2.464741346527533</v>
       </c>
       <c r="AC64">
-        <v>2.185056101626922</v>
+        <v>2.287790568519096</v>
       </c>
       <c r="AD64">
-        <v>1.546864531171943</v>
+        <v>1.827393839433229</v>
       </c>
       <c r="AE64">
-        <v>1.525452161251381</v>
+        <v>1.600584500923684</v>
       </c>
       <c r="AL64">
-        <v>2.108901676617765</v>
+        <v>2.15939829081013</v>
       </c>
       <c r="AM64">
-        <v>1.970668926410822</v>
+        <v>2.012952555137502</v>
       </c>
       <c r="AN64">
-        <v>1.518980104918619</v>
+        <v>1.555605283742137</v>
       </c>
       <c r="AO64">
-        <v>1.506895570094061</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -6661,52 +6661,52 @@
         <v>63</v>
       </c>
       <c r="H65">
-        <v>2.110476658613093</v>
+        <v>2.186275120640735</v>
       </c>
       <c r="I65">
-        <v>2.013851786937903</v>
+        <v>2.108975205462922</v>
       </c>
       <c r="J65">
-        <v>1.5206211334196</v>
+        <v>1.595546115039167</v>
       </c>
       <c r="K65">
-        <v>1.495870309110723</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="R65">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S65">
-        <v>2.004327647047382</v>
+        <v>2.075832860699442</v>
       </c>
       <c r="T65">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U65">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AB65">
-        <v>2.231026187623672</v>
+        <v>0.5672160815411023</v>
       </c>
       <c r="AC65">
-        <v>2.085099124135348</v>
+        <v>0.3905225215031571</v>
       </c>
       <c r="AD65">
-        <v>1.530727567997616</v>
+        <v>0.02056043821384956</v>
       </c>
       <c r="AE65">
-        <v>1.411751867967422</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>2.034750678765395</v>
+        <v>2.142734857652135</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>1.981443330902489</v>
       </c>
       <c r="AN65">
-        <v>1.363900126444843</v>
+        <v>1.510533923229083</v>
       </c>
       <c r="AO65">
-        <v>1.287450044494011</v>
+        <v>1.529370010218424</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -6714,52 +6714,52 @@
         <v>64</v>
       </c>
       <c r="H66">
-        <v>2.110427443772115</v>
+        <v>2.186296463617851</v>
       </c>
       <c r="I66">
-        <v>2.097476420041489</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J66">
-        <v>1.5206211334196</v>
+        <v>1.592417555964358</v>
       </c>
       <c r="K66">
-        <v>1.508628961560021</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="R66">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S66">
-        <v>1.999707142133507</v>
+        <v>2.078548519737982</v>
       </c>
       <c r="T66">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U66">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AB66">
-        <v>2.285733574531963</v>
+        <v>2.465190659503957</v>
       </c>
       <c r="AC66">
-        <v>2.184423525365328</v>
+        <v>2.287258746112088</v>
       </c>
       <c r="AD66">
-        <v>1.546972664192289</v>
+        <v>1.833068554900241</v>
       </c>
       <c r="AE66">
-        <v>1.525452161251381</v>
+        <v>1.600823120483173</v>
       </c>
       <c r="AL66">
-        <v>2.108950898152964</v>
+        <v>2.159278198768698</v>
       </c>
       <c r="AM66">
-        <v>1.959205404922513</v>
+        <v>2.013653893794732</v>
       </c>
       <c r="AN66">
-        <v>1.51902569111609</v>
+        <v>1.555726536290867</v>
       </c>
       <c r="AO66">
-        <v>1.506804334171242</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -6767,52 +6767,52 @@
         <v>65</v>
       </c>
       <c r="H67">
-        <v>2.110427443772115</v>
+        <v>2.186182405161364</v>
       </c>
       <c r="I67">
-        <v>2.097279330160376</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J67">
-        <v>1.520575551365979</v>
+        <v>1.597643764900056</v>
       </c>
       <c r="K67">
-        <v>1.50844650744426</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="R67">
-        <v>2.104470852389523</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S67">
-        <v>1.999963990741638</v>
+        <v>2.07571487097991</v>
       </c>
       <c r="T67">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U67">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AB67">
-        <v>2.282248406430442</v>
+        <v>2.465051623139258</v>
       </c>
       <c r="AC67">
-        <v>2.165056344695645</v>
+        <v>2.287428257157435</v>
       </c>
       <c r="AD67">
-        <v>1.547010138054658</v>
+        <v>1.832836706607091</v>
       </c>
       <c r="AE67">
-        <v>1.525452161251381</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AL67">
-        <v>2.108901676617765</v>
+        <v>2.15912993377566</v>
       </c>
       <c r="AM67">
-        <v>1.959206510663008</v>
+        <v>2.013221211603274</v>
       </c>
       <c r="AN67">
-        <v>1.518980104918619</v>
+        <v>1.553044211896313</v>
       </c>
       <c r="AO67">
-        <v>1.506804334171242</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -6820,52 +6820,52 @@
         <v>66</v>
       </c>
       <c r="H68">
-        <v>2.110525873238279</v>
+        <v>2.186116367775852</v>
       </c>
       <c r="I68">
-        <v>2.097328602958155</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J68">
-        <v>1.520712297171943</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K68">
-        <v>1.508628961560021</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="R68">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S68">
-        <v>1.997297340900375</v>
+        <v>2.075755053469778</v>
       </c>
       <c r="T68">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U68">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AB68">
-        <v>2.282244987422441</v>
+        <v>2.465082548688739</v>
       </c>
       <c r="AC68">
-        <v>2.184372403735303</v>
+        <v>2.287783557092755</v>
       </c>
       <c r="AD68">
-        <v>1.546835410683476</v>
+        <v>1.832680273389509</v>
       </c>
       <c r="AE68">
-        <v>1.525452161251381</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AL68">
-        <v>2.10885245486647</v>
+        <v>2.158896693936346</v>
       </c>
       <c r="AM68">
-        <v>1.969956430222368</v>
+        <v>2.015609767916167</v>
       </c>
       <c r="AN68">
-        <v>1.519116863155586</v>
+        <v>1.553141285484883</v>
       </c>
       <c r="AO68">
-        <v>1.506758716029984</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -6873,28 +6873,28 @@
         <v>67</v>
       </c>
       <c r="H69">
-        <v>2.109443101621856</v>
+        <v>2.15941561786408</v>
       </c>
       <c r="I69">
-        <v>1.78011480398152</v>
+        <v>1.954885488127957</v>
       </c>
       <c r="J69">
-        <v>1.517886000620267</v>
+        <v>1.592531938344636</v>
       </c>
       <c r="K69">
-        <v>1.46794161895915</v>
+        <v>1.544036715434483</v>
       </c>
       <c r="R69">
-        <v>2.104520093411275</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S69">
-        <v>2.000143277452073</v>
+        <v>2.081424277815461</v>
       </c>
       <c r="T69">
-        <v>1.514831264290892</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U69">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -6926,52 +6926,52 @@
         <v>68</v>
       </c>
       <c r="H70">
-        <v>2.110624301841317</v>
+        <v>2.185867385233142</v>
       </c>
       <c r="I70">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J70">
-        <v>1.52066671535492</v>
+        <v>1.592469680292271</v>
       </c>
       <c r="K70">
-        <v>1.508583348210625</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="R70">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S70">
-        <v>1.996065502396988</v>
+        <v>2.067330112825982</v>
       </c>
       <c r="T70">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U70">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AB70">
-        <v>2.282361939430633</v>
+        <v>2.464842224771058</v>
       </c>
       <c r="AC70">
-        <v>2.164740143264968</v>
+        <v>2.28740880276848</v>
       </c>
       <c r="AD70">
-        <v>1.546711371059223</v>
+        <v>1.827798533605741</v>
       </c>
       <c r="AE70">
-        <v>1.525543299983518</v>
+        <v>1.600902964940339</v>
       </c>
       <c r="AL70">
-        <v>2.108950898152964</v>
+        <v>2.158850758497317</v>
       </c>
       <c r="AM70">
-        <v>1.958796347208222</v>
+        <v>2.012903629508067</v>
       </c>
       <c r="AN70">
-        <v>1.519071277195078</v>
+        <v>1.555571077190946</v>
       </c>
       <c r="AO70">
-        <v>1.506804334171242</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -6979,28 +6979,28 @@
         <v>69</v>
       </c>
       <c r="H71">
-        <v>2.094417817234849</v>
+        <v>0.2853687866228225</v>
       </c>
       <c r="I71">
-        <v>1.692453794241911</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1.509130700505157</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1.341127115387129</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S71">
-        <v>2.004599025428359</v>
+        <v>2.089152856018251</v>
       </c>
       <c r="T71">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U71">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -7032,40 +7032,40 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>1.981318070597175</v>
+        <v>0.2472094837607814</v>
       </c>
       <c r="J72">
-        <v>1.500097177930461</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1.486035611804441</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>1.995757290699525</v>
+        <v>2.07586766999172</v>
       </c>
       <c r="T72">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U72">
-        <v>1.502698220609431</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC72">
-        <v>1.893257052366984</v>
+        <v>0.08668471654023757</v>
       </c>
       <c r="AD72">
-        <v>1.32156309253798</v>
+        <v>0</v>
       </c>
       <c r="AE72">
-        <v>1.321051070761926</v>
+        <v>1.544471654228024</v>
       </c>
       <c r="AM72">
-        <v>1.964430006384701</v>
+        <v>0</v>
       </c>
       <c r="AN72">
-        <v>1.497796856583744</v>
+        <v>0</v>
       </c>
       <c r="AO72">
-        <v>1.531391723013227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -7073,40 +7073,40 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <v>2.097427147898701</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J73">
-        <v>1.520757878870674</v>
+        <v>1.592717133952236</v>
       </c>
       <c r="K73">
-        <v>1.50844650744426</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="S73">
-        <v>1.993169191870223</v>
+        <v>2.066965744104258</v>
       </c>
       <c r="T73">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U73">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AC73">
-        <v>2.164559196871576</v>
+        <v>2.28732322023381</v>
       </c>
       <c r="AD73">
-        <v>1.546893973269672</v>
+        <v>1.82870134690482</v>
       </c>
       <c r="AE73">
-        <v>1.525406591708693</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AM73">
-        <v>1.970324294084318</v>
+        <v>2.012822487717136</v>
       </c>
       <c r="AN73">
-        <v>1.519071277195078</v>
+        <v>1.552957990099406</v>
       </c>
       <c r="AO73">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -7114,40 +7114,40 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <v>2.097427147898701</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J74">
-        <v>1.52066671535492</v>
+        <v>1.592758217116194</v>
       </c>
       <c r="K74">
-        <v>1.508583348210625</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="S74">
-        <v>1.999721704203941</v>
+        <v>2.078382458147733</v>
       </c>
       <c r="T74">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U74">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC74">
-        <v>2.164694787052114</v>
+        <v>2.28761546401044</v>
       </c>
       <c r="AD74">
-        <v>1.546913429751356</v>
+        <v>1.8325192954811</v>
       </c>
       <c r="AE74">
-        <v>1.525452161251381</v>
+        <v>1.600631545952298</v>
       </c>
       <c r="AM74">
-        <v>1.959046895535956</v>
+        <v>2.012911811352999</v>
       </c>
       <c r="AN74">
-        <v>1.51902569111609</v>
+        <v>1.554280832579171</v>
       </c>
       <c r="AO74">
-        <v>1.506941187875634</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="75" spans="1:41">
@@ -7155,25 +7155,25 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <v>1.929089466515269</v>
+        <v>2.004824582372568</v>
       </c>
       <c r="J75">
-        <v>1.5206211334196</v>
+        <v>1.595587024891901</v>
       </c>
       <c r="K75">
-        <v>1.487345413394895</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="S75">
-        <v>1.999745025525146</v>
+        <v>2.07270859550484</v>
       </c>
       <c r="T75">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U75">
-        <v>1.502652591655297</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AC75">
-        <v>0.07897356469107097</v>
+        <v>0</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -7196,25 +7196,25 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <v>1.9669359481078</v>
+        <v>2.022819014262102</v>
       </c>
       <c r="J76">
-        <v>1.520757878870674</v>
+        <v>1.592835999660985</v>
       </c>
       <c r="K76">
-        <v>1.491837015425449</v>
+        <v>1.544820378707293</v>
       </c>
       <c r="S76">
-        <v>1.99690291087691</v>
+        <v>2.064038147904653</v>
       </c>
       <c r="T76">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U76">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AC76">
-        <v>1.897603444827359</v>
+        <v>0</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AM76">
-        <v>0.08049483065037299</v>
+        <v>0</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -7237,34 +7237,34 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <v>2.065139518968565</v>
+        <v>2.059052428965672</v>
       </c>
       <c r="J77">
-        <v>1.520757878870674</v>
+        <v>1.592946505409107</v>
       </c>
       <c r="K77">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="S77">
-        <v>1.996899779188188</v>
+        <v>2.070100094747236</v>
       </c>
       <c r="T77">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U77">
-        <v>1.502470074634843</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC77">
-        <v>2.060326983724476</v>
+        <v>0.3181451047580741</v>
       </c>
       <c r="AD77">
-        <v>1.460368024895546</v>
+        <v>0.004802437328935039</v>
       </c>
       <c r="AE77">
-        <v>1.411845214066584</v>
+        <v>0</v>
       </c>
       <c r="AM77">
-        <v>0.1603398199833799</v>
+        <v>0</v>
       </c>
       <c r="AN77">
         <v>0</v>
@@ -7278,25 +7278,25 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <v>1.895109515058427</v>
+        <v>1.935202299254441</v>
       </c>
       <c r="J78">
-        <v>1.5206211334196</v>
+        <v>1.592620877420927</v>
       </c>
       <c r="K78">
-        <v>1.429774481731777</v>
+        <v>1.474688948115874</v>
       </c>
       <c r="S78">
-        <v>1.995885749845407</v>
+        <v>2.081575635038608</v>
       </c>
       <c r="T78">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U78">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AC78">
-        <v>0.074266863811143</v>
+        <v>0</v>
       </c>
       <c r="AD78">
         <v>0</v>
@@ -7319,31 +7319,31 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <v>1.853460466049268</v>
+        <v>0.0324550580810592</v>
       </c>
       <c r="J79">
-        <v>1.484025872821261</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>1.470911049067075</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>2.002309578474343</v>
+        <v>2.066849267764588</v>
       </c>
       <c r="T79">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U79">
-        <v>1.502698220609431</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AC79">
-        <v>1.745827170975346</v>
+        <v>0</v>
       </c>
       <c r="AD79">
-        <v>1.18335397307688</v>
+        <v>0</v>
       </c>
       <c r="AE79">
-        <v>1.141909067837016</v>
+        <v>0</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -7360,40 +7360,40 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <v>2.067285092941078</v>
+        <v>2.10561876026416</v>
       </c>
       <c r="J80">
-        <v>1.520575551365979</v>
+        <v>1.592793881685713</v>
       </c>
       <c r="K80">
-        <v>1.508583348210625</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="S80">
-        <v>1.995801493400569</v>
+        <v>2.086027496295836</v>
       </c>
       <c r="T80">
-        <v>1.514785667170373</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U80">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AC80">
-        <v>2.085149408881981</v>
+        <v>0.3813821468713448</v>
       </c>
       <c r="AD80">
-        <v>1.551016658309094</v>
+        <v>0.0716300693526335</v>
       </c>
       <c r="AE80">
-        <v>1.411938559585216</v>
+        <v>0</v>
       </c>
       <c r="AM80">
-        <v>1.931463586849948</v>
+        <v>0</v>
       </c>
       <c r="AN80">
         <v>0</v>
       </c>
       <c r="AO80">
-        <v>1.421469681413624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:41">
@@ -7401,40 +7401,40 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <v>2.097377875537593</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J81">
-        <v>1.520712297171943</v>
+        <v>1.592461699083674</v>
       </c>
       <c r="K81">
-        <v>1.508583348210625</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="S81">
-        <v>1.999593856976595</v>
+        <v>2.089097735853668</v>
       </c>
       <c r="T81">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U81">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC81">
-        <v>2.164838215118219</v>
+        <v>2.287582277903071</v>
       </c>
       <c r="AD81">
-        <v>1.546959940981083</v>
+        <v>1.828423118296625</v>
       </c>
       <c r="AE81">
-        <v>1.525406591708693</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AM81">
-        <v>1.970504256029517</v>
+        <v>2.012958845907558</v>
       </c>
       <c r="AN81">
-        <v>1.519116863155586</v>
+        <v>1.555590282690847</v>
       </c>
       <c r="AO81">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="82" spans="1:41">
@@ -7442,28 +7442,28 @@
         <v>80</v>
       </c>
       <c r="J82">
-        <v>1.5206211334196</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K82">
-        <v>1.50849212115275</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="T82">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U82">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AD82">
-        <v>1.54704829240614</v>
+        <v>1.832203766783393</v>
       </c>
       <c r="AE82">
-        <v>1.525361022048251</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AN82">
-        <v>1.519116863155586</v>
+        <v>1.555657086143652</v>
       </c>
       <c r="AO82">
-        <v>1.506758716029984</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="83" spans="1:41">
@@ -7471,28 +7471,28 @@
         <v>81</v>
       </c>
       <c r="J83">
-        <v>1.520757878870674</v>
+        <v>1.592563288362685</v>
       </c>
       <c r="K83">
-        <v>1.50840089361606</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="T83">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U83">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AD83">
-        <v>1.546818690510622</v>
+        <v>1.828029695384803</v>
       </c>
       <c r="AE83">
-        <v>1.525543299983518</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AN83">
-        <v>1.518980104918619</v>
+        <v>1.55566658082138</v>
       </c>
       <c r="AO83">
-        <v>1.506895570094061</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -7500,22 +7500,22 @@
         <v>82</v>
       </c>
       <c r="J84">
-        <v>1.517840411458974</v>
+        <v>1.592491149106887</v>
       </c>
       <c r="K84">
-        <v>1.504751399032438</v>
+        <v>1.548313314188378</v>
       </c>
       <c r="T84">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U84">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AD84">
-        <v>1.44142110635153</v>
+        <v>0</v>
       </c>
       <c r="AE84">
-        <v>1.293422648294876</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <v>0</v>
@@ -7529,28 +7529,28 @@
         <v>83</v>
       </c>
       <c r="J85">
-        <v>1.52066671535492</v>
+        <v>1.5927142130524</v>
       </c>
       <c r="K85">
-        <v>1.508583348210625</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="T85">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U85">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AD85">
-        <v>1.546987705755523</v>
+        <v>1.831953935236919</v>
       </c>
       <c r="AE85">
-        <v>1.525497730676322</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AN85">
-        <v>1.51902569111609</v>
+        <v>1.553109747949363</v>
       </c>
       <c r="AO85">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -7558,28 +7558,28 @@
         <v>84</v>
       </c>
       <c r="J86">
-        <v>1.520575551365979</v>
+        <v>1.592703210714508</v>
       </c>
       <c r="K86">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="T86">
-        <v>1.514603277498504</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U86">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AD86">
-        <v>1.544302737998293</v>
+        <v>1.824831237937054</v>
       </c>
       <c r="AE86">
-        <v>1.525543299983518</v>
+        <v>1.600792363420817</v>
       </c>
       <c r="AN86">
-        <v>1.518980104918619</v>
+        <v>1.555704315705415</v>
       </c>
       <c r="AO86">
-        <v>1.506941187875634</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="87" spans="1:41">
@@ -7587,28 +7587,28 @@
         <v>85</v>
       </c>
       <c r="J87">
-        <v>1.520575551365979</v>
+        <v>1.592663921339465</v>
       </c>
       <c r="K87">
-        <v>1.50840089361606</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="T87">
-        <v>1.514694472572406</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U87">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AD87">
-        <v>1.546991539894304</v>
+        <v>1.833067006563755</v>
       </c>
       <c r="AE87">
-        <v>1.525406591708693</v>
+        <v>1.600677852255958</v>
       </c>
       <c r="AN87">
-        <v>1.519071277195078</v>
+        <v>1.555827137157895</v>
       </c>
       <c r="AO87">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -7616,28 +7616,28 @@
         <v>86</v>
       </c>
       <c r="J88">
-        <v>1.520575551365979</v>
+        <v>1.597507706847775</v>
       </c>
       <c r="K88">
-        <v>1.50849212115275</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="T88">
-        <v>1.51464887509495</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U88">
-        <v>1.502606962580777</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AD88">
-        <v>1.547069395360773</v>
+        <v>1.824512082502571</v>
       </c>
       <c r="AE88">
-        <v>1.525406591708693</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AN88">
-        <v>1.519071277195078</v>
+        <v>1.55575814494077</v>
       </c>
       <c r="AO88">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -7645,16 +7645,16 @@
         <v>87</v>
       </c>
       <c r="J89">
-        <v>1.520757878870674</v>
+        <v>1.593056851582414</v>
       </c>
       <c r="K89">
-        <v>1.495434842833189</v>
+        <v>1.531999222068181</v>
       </c>
       <c r="T89">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U89">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AD89">
         <v>0</v>
@@ -7674,28 +7674,28 @@
         <v>88</v>
       </c>
       <c r="J90">
-        <v>1.52066671535492</v>
+        <v>1.592743645575341</v>
       </c>
       <c r="K90">
-        <v>1.50844650744426</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="T90">
-        <v>1.514603277498504</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U90">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AD90">
-        <v>1.547040941804208</v>
+        <v>1.827629782342772</v>
       </c>
       <c r="AE90">
-        <v>1.525406591708693</v>
+        <v>1.600476212722203</v>
       </c>
       <c r="AN90">
-        <v>1.519116863155586</v>
+        <v>1.553084363302725</v>
       </c>
       <c r="AO90">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -7703,28 +7703,28 @@
         <v>89</v>
       </c>
       <c r="J91">
-        <v>1.520575551365979</v>
+        <v>1.592805208010401</v>
       </c>
       <c r="K91">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="T91">
-        <v>1.514740069930878</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U91">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AD91">
-        <v>1.54684983121822</v>
+        <v>1.832440037756948</v>
       </c>
       <c r="AE91">
-        <v>1.525543299983518</v>
+        <v>1.600542499820131</v>
       </c>
       <c r="AN91">
-        <v>1.519071277195078</v>
+        <v>1.555896398732264</v>
       </c>
       <c r="AO91">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="92" spans="1:41">
@@ -7732,16 +7732,16 @@
         <v>90</v>
       </c>
       <c r="K92">
-        <v>1.50840089361606</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="U92">
-        <v>1.502652591655297</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AE92">
-        <v>1.525634438244698</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AO92">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="93" spans="1:41">
@@ -7749,16 +7749,16 @@
         <v>91</v>
       </c>
       <c r="K93">
-        <v>1.508583348210625</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="U93">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AE93">
-        <v>1.504353676186826</v>
+        <v>1.600963279920544</v>
       </c>
       <c r="AO93">
-        <v>1.506895570094061</v>
+        <v>1.523604921187781</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -7766,10 +7766,10 @@
         <v>92</v>
       </c>
       <c r="K94">
-        <v>1.508628961560021</v>
+        <v>1.544675935036107</v>
       </c>
       <c r="U94">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -7783,13 +7783,13 @@
         <v>93</v>
       </c>
       <c r="K95">
-        <v>1.50844650744426</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="U95">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE95">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -7800,10 +7800,10 @@
         <v>94</v>
       </c>
       <c r="K96">
-        <v>1.496690551353988</v>
+        <v>1.539972003229049</v>
       </c>
       <c r="U96">
-        <v>1.502470074634843</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AE96">
         <v>0</v>
@@ -7817,16 +7817,16 @@
         <v>95</v>
       </c>
       <c r="K97">
-        <v>1.508628961560021</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="U97">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AE97">
-        <v>1.525497730676322</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AO97">
-        <v>1.506804334171242</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="98" spans="1:41">
@@ -7834,10 +7834,10 @@
         <v>96</v>
       </c>
       <c r="K98">
-        <v>1.467220726877942</v>
+        <v>1.527280467091134</v>
       </c>
       <c r="U98">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE98">
         <v>0</v>
@@ -7851,16 +7851,16 @@
         <v>97</v>
       </c>
       <c r="K99">
-        <v>1.493204798532356</v>
+        <v>0</v>
       </c>
       <c r="U99">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AE99">
-        <v>1.471916726906687</v>
+        <v>0</v>
       </c>
       <c r="AO99">
-        <v>1.506758716029984</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="100" spans="1:41">
@@ -7868,16 +7868,16 @@
         <v>98</v>
       </c>
       <c r="K100">
-        <v>1.508537734741536</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="U100">
-        <v>1.502606962580777</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE100">
-        <v>1.525497730676322</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AO100">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="101" spans="1:41">
@@ -7885,13 +7885,13 @@
         <v>99</v>
       </c>
       <c r="K101">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="U101">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AE101">
-        <v>1.351913736244373</v>
+        <v>0</v>
       </c>
       <c r="AO101">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -8093,13 +8093,13 @@
         <v>1</v>
       </c>
       <c r="X103">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y103">
-        <v>0.7</v>
+        <v>0.525</v>
       </c>
       <c r="Z103">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="AA103">
         <v>0</v>
@@ -8123,10 +8123,10 @@
         <v>1</v>
       </c>
       <c r="AH103">
-        <v>0.9333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI103">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="X104">
-        <v>0.8333333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Y104">
         <v>0</v>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="AH104">
-        <v>0.9</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -8286,19 +8286,19 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H105">
-        <v>0.04285714285714286</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="I105">
-        <v>0.2875</v>
+        <v>0.25</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0.7375</v>
+        <v>0</v>
       </c>
       <c r="T105">
         <v>1</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.1333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y105">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="Z105">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="AA105">
-        <v>0.25</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AB105">
-        <v>0.3</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC105">
-        <v>0.35</v>
+        <v>0.5875</v>
       </c>
       <c r="AD105">
         <v>1</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>0.03333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI105">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AJ105">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="AK105">
-        <v>0.3166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AL105">
-        <v>0.4571428571428571</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="AM105">
-        <v>0.9875</v>
+        <v>0.55</v>
       </c>
       <c r="AN105">
         <v>1</v>
